--- a/3_Categorisation/Categorie-Methode liste.xlsx
+++ b/3_Categorisation/Categorie-Methode liste.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mathi\Documents\Cours\KIT\11_HK\AD\3_Categorisation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D677869-1439-4735-AEF2-D2F83FBE6B4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5C54421-8C1E-4A6B-8B87-D1235893EBB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{AE90E999-193C-4C0E-9858-77EC5F42F2A6}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="307">
   <si>
     <t>Parent</t>
   </si>
@@ -1265,7 +1265,18 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B5E3C515-8471-4EDC-BC32-5EA19CC85F26}" name="Table1" displayName="Table1" ref="G7:W999" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
-  <autoFilter ref="G7:W999" xr:uid="{B5E3C515-8471-4EDC-BC32-5EA19CC85F26}"/>
+  <autoFilter ref="G7:W999" xr:uid="{B5E3C515-8471-4EDC-BC32-5EA19CC85F26}">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="AR"/>
+        <filter val="ARIMA"/>
+        <filter val="ARIMAX"/>
+        <filter val="Linear"/>
+        <filter val="SARIMA"/>
+        <filter val="VAR"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="G8:W999">
     <sortCondition descending="1" ref="L7:L999"/>
   </sortState>
@@ -1596,11 +1607,11 @@
   <dimension ref="F3:W999"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="11" ySplit="7" topLeftCell="U120" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="11" ySplit="7" topLeftCell="N27" activePane="bottomRight" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
       <selection pane="topRight" activeCell="N1" sqref="N1"/>
       <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
-      <selection pane="bottomRight" activeCell="W131" sqref="W131"/>
+      <selection pane="bottomRight" activeCell="P130" sqref="P130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" zeroHeight="1" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
@@ -1706,7 +1717,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="6:23" x14ac:dyDescent="0.3">
+    <row r="8" spans="6:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G8" s="5">
         <v>1</v>
       </c>
@@ -1741,7 +1752,7 @@
       <c r="V8" s="6"/>
       <c r="W8" s="5"/>
     </row>
-    <row r="9" spans="6:23" x14ac:dyDescent="0.3">
+    <row r="9" spans="6:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G9" s="5">
         <v>5</v>
       </c>
@@ -1760,11 +1771,11 @@
       </c>
       <c r="L9" s="5">
         <f>COUNTIF($J$8:$J$999,Table1[[#This Row],[Abbreviation]]) + SUMIF($J$8:$J$999,Table1[[#This Row],[Abbreviation]],$L$8:$L$999)</f>
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="M9" s="5">
         <f>IF(Table1[[#This Row],[Children]]=0,"",Table1[[#This Row],[Children]])</f>
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="N9" s="13"/>
       <c r="O9" s="5"/>
@@ -1779,7 +1790,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="6:23" x14ac:dyDescent="0.3">
+    <row r="10" spans="6:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G10" s="5">
         <v>3</v>
       </c>
@@ -1817,7 +1828,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="6:23" x14ac:dyDescent="0.3">
+    <row r="11" spans="6:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G11" s="5">
         <v>68</v>
       </c>
@@ -1857,7 +1868,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="12" spans="6:23" x14ac:dyDescent="0.3">
+    <row r="12" spans="6:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G12" s="5">
         <v>13</v>
       </c>
@@ -1901,7 +1912,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="6:23" x14ac:dyDescent="0.3">
+    <row r="13" spans="6:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G13" s="5">
         <v>2</v>
       </c>
@@ -1939,7 +1950,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="6:23" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="6:23" ht="33" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G14" s="5">
         <v>55</v>
       </c>
@@ -1977,7 +1988,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="6:23" x14ac:dyDescent="0.3">
+    <row r="15" spans="6:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G15" s="5">
         <v>14</v>
       </c>
@@ -2015,7 +2026,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="6:23" x14ac:dyDescent="0.3">
+    <row r="16" spans="6:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G16" s="5">
         <v>30</v>
       </c>
@@ -2053,7 +2064,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="7:23" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="17" spans="7:23" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="G17" s="5">
         <v>7</v>
       </c>
@@ -2095,7 +2106,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="18" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G18" s="5">
         <v>16</v>
       </c>
@@ -2133,7 +2144,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="19" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G19" s="5">
         <v>20</v>
       </c>
@@ -2175,7 +2186,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="20" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G20" s="5">
         <v>78</v>
       </c>
@@ -2215,7 +2226,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="21" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="21" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G21" s="5">
         <v>17</v>
       </c>
@@ -2253,7 +2264,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="22" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G22" s="5">
         <v>59</v>
       </c>
@@ -2295,7 +2306,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="23" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="23" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G23" s="5">
         <v>12</v>
       </c>
@@ -2333,7 +2344,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="24" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="24" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G24" s="5">
         <v>6</v>
       </c>
@@ -2373,7 +2384,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="25" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G25" s="5">
         <v>10</v>
       </c>
@@ -2411,7 +2422,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="26" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G26" s="5">
         <v>74</v>
       </c>
@@ -2489,7 +2500,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="28" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G28" s="5">
         <v>31</v>
       </c>
@@ -2531,7 +2542,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="29" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="29" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G29" s="5">
         <v>112</v>
       </c>
@@ -2567,7 +2578,7 @@
       <c r="V29" s="6"/>
       <c r="W29" s="5"/>
     </row>
-    <row r="30" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="30" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G30" s="5">
         <v>90</v>
       </c>
@@ -2586,11 +2597,11 @@
       </c>
       <c r="L30" s="5">
         <f>COUNTIF($J$8:$J$999,Table1[[#This Row],[Abbreviation]]) + SUMIF($J$8:$J$999,Table1[[#This Row],[Abbreviation]],$L$8:$L$999)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M30" s="5">
         <f>IF(Table1[[#This Row],[Children]]=0,"",Table1[[#This Row],[Children]])</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N30" s="13"/>
       <c r="O30" s="5"/>
@@ -2605,7 +2616,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="31" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="31" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G31" s="5">
         <v>15</v>
       </c>
@@ -2643,7 +2654,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="32" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G32" s="5">
         <v>29</v>
       </c>
@@ -2681,7 +2692,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="33" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="33" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G33" s="5">
         <v>8</v>
       </c>
@@ -2719,7 +2730,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="34" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G34" s="5">
         <v>72</v>
       </c>
@@ -2769,7 +2780,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="35" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="35" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G35" s="5">
         <v>4</v>
       </c>
@@ -2845,7 +2856,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="37" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G37" s="5">
         <v>11</v>
       </c>
@@ -2883,7 +2894,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="38" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="38" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G38" s="5">
         <v>19</v>
       </c>
@@ -3001,7 +3012,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="41" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="41" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G41" s="5">
         <v>23</v>
       </c>
@@ -3039,7 +3050,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="42" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="42" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G42" s="5">
         <v>24</v>
       </c>
@@ -3077,7 +3088,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="43" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="43" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G43" s="5">
         <v>25</v>
       </c>
@@ -3115,7 +3126,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="44" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="44" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G44" s="5">
         <v>26</v>
       </c>
@@ -3153,7 +3164,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="45" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="45" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G45" s="5">
         <v>27</v>
       </c>
@@ -3191,7 +3202,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="46" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="46" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G46" s="5">
         <v>28</v>
       </c>
@@ -3210,11 +3221,11 @@
       </c>
       <c r="L46" s="5">
         <f>COUNTIF($J$8:$J$999,Table1[[#This Row],[Abbreviation]]) + SUMIF($J$8:$J$999,Table1[[#This Row],[Abbreviation]],$L$8:$L$999)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M46" s="5">
         <f>IF(Table1[[#This Row],[Children]]=0,"",Table1[[#This Row],[Children]])</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N46" s="13"/>
       <c r="O46" s="5"/>
@@ -3229,7 +3240,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="47" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="47" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G47" s="5">
         <v>32</v>
       </c>
@@ -3267,7 +3278,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="48" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="48" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G48" s="5">
         <v>33</v>
       </c>
@@ -3305,7 +3316,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="49" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="49" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G49" s="5">
         <v>34</v>
       </c>
@@ -3341,7 +3352,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="50" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="50" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G50" s="5">
         <v>35</v>
       </c>
@@ -3377,7 +3388,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="51" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="51" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G51" s="5">
         <v>36</v>
       </c>
@@ -3453,7 +3464,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="53" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="53" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G53" s="5">
         <v>38</v>
       </c>
@@ -3489,7 +3500,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="54" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="54" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G54" s="5">
         <v>39</v>
       </c>
@@ -3525,7 +3536,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="55" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="55" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G55" s="5">
         <v>40</v>
       </c>
@@ -3565,7 +3576,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="56" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="56" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G56" s="5">
         <v>41</v>
       </c>
@@ -3601,7 +3612,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="57" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="57" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G57" s="5">
         <v>42</v>
       </c>
@@ -3637,7 +3648,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="58" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="58" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G58" s="5">
         <v>43</v>
       </c>
@@ -3673,7 +3684,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="59" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="59" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G59" s="5">
         <v>44</v>
       </c>
@@ -3709,7 +3720,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="60" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="60" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G60" s="5">
         <v>45</v>
       </c>
@@ -3747,7 +3758,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="61" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="61" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G61" s="5">
         <v>46</v>
       </c>
@@ -3783,7 +3794,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="62" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="62" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G62" s="5">
         <v>47</v>
       </c>
@@ -3819,7 +3830,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="63" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="63" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G63" s="5">
         <v>48</v>
       </c>
@@ -3855,7 +3866,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="64" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="64" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G64" s="5">
         <v>49</v>
       </c>
@@ -3891,7 +3902,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="65" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="65" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G65" s="5">
         <v>50</v>
       </c>
@@ -3927,7 +3938,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="66" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="66" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G66" s="5">
         <v>51</v>
       </c>
@@ -3963,7 +3974,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="67" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="67" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G67" s="5">
         <v>52</v>
       </c>
@@ -4003,7 +4014,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="68" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="68" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G68" s="5">
         <v>53</v>
       </c>
@@ -4043,7 +4054,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="69" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="69" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G69" s="5">
         <v>54</v>
       </c>
@@ -4079,7 +4090,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="70" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="70" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G70" s="5">
         <v>56</v>
       </c>
@@ -4115,7 +4126,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="71" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="71" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G71" s="5">
         <v>57</v>
       </c>
@@ -4151,7 +4162,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="72" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="72" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G72" s="5">
         <v>58</v>
       </c>
@@ -4187,7 +4198,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="73" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="73" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G73" s="5">
         <v>60</v>
       </c>
@@ -4223,7 +4234,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="74" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="74" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G74" s="5">
         <v>61</v>
       </c>
@@ -4259,7 +4270,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="75" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="75" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G75" s="5">
         <v>62</v>
       </c>
@@ -4295,7 +4306,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="76" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="76" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G76" s="5">
         <v>63</v>
       </c>
@@ -4331,7 +4342,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="77" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="77" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G77" s="5">
         <v>64</v>
       </c>
@@ -4367,7 +4378,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="78" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="78" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G78" s="5">
         <v>65</v>
       </c>
@@ -4403,7 +4414,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="79" spans="7:23" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="79" spans="7:23" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="G79" s="5">
         <v>66</v>
       </c>
@@ -4439,7 +4450,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="80" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="80" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G80" s="5">
         <v>67</v>
       </c>
@@ -4475,7 +4486,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="81" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="81" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G81" s="5">
         <v>69</v>
       </c>
@@ -4511,7 +4522,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="82" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="82" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G82" s="5">
         <v>70</v>
       </c>
@@ -4549,7 +4560,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="83" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="83" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G83" s="5">
         <v>71</v>
       </c>
@@ -4589,7 +4600,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="84" spans="7:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="84" spans="7:23" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="G84" s="5">
         <v>73</v>
       </c>
@@ -4631,7 +4642,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="85" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="85" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G85" s="5">
         <v>76</v>
       </c>
@@ -4671,7 +4682,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="86" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="86" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G86" s="5">
         <v>77</v>
       </c>
@@ -4711,7 +4722,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="87" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="87" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G87" s="5">
         <v>79</v>
       </c>
@@ -4745,7 +4756,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="88" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="88" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G88" s="5">
         <v>80</v>
       </c>
@@ -4779,7 +4790,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="89" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="89" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G89" s="5">
         <v>81</v>
       </c>
@@ -4815,7 +4826,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="90" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="90" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G90" s="5">
         <v>82</v>
       </c>
@@ -4851,7 +4862,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="91" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="91" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G91" s="5">
         <v>83</v>
       </c>
@@ -4887,7 +4898,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="92" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="92" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G92" s="5">
         <v>84</v>
       </c>
@@ -4923,7 +4934,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="93" spans="7:23" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="93" spans="7:23" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="G93" s="5">
         <v>85</v>
       </c>
@@ -4959,7 +4970,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="94" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="94" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G94" s="5">
         <v>86</v>
       </c>
@@ -4997,7 +5008,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="95" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="95" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G95" s="5">
         <v>87</v>
       </c>
@@ -5035,7 +5046,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="96" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="96" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G96" s="5">
         <v>88</v>
       </c>
@@ -5071,7 +5082,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="97" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="97" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G97" s="5">
         <v>89</v>
       </c>
@@ -5109,7 +5120,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="98" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="98" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G98" s="5">
         <v>91</v>
       </c>
@@ -5143,7 +5154,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="99" spans="7:23" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="99" spans="7:23" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="G99" s="5">
         <v>92</v>
       </c>
@@ -5183,7 +5194,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="100" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="100" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G100" s="5">
         <v>93</v>
       </c>
@@ -5221,7 +5232,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="101" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="101" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G101" s="5">
         <v>94</v>
       </c>
@@ -5261,7 +5272,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="102" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="102" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G102" s="5">
         <v>95</v>
       </c>
@@ -5305,7 +5316,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="103" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="103" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G103" s="5">
         <v>96</v>
       </c>
@@ -5345,7 +5356,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="104" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="104" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G104" s="5">
         <v>97</v>
       </c>
@@ -5383,7 +5394,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="105" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="105" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G105" s="5">
         <v>98</v>
       </c>
@@ -5421,7 +5432,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="106" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="106" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G106" s="5">
         <v>99</v>
       </c>
@@ -5461,7 +5472,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="107" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="107" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G107" s="5">
         <v>100</v>
       </c>
@@ -5501,7 +5512,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="108" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="108" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G108" s="5">
         <v>101</v>
       </c>
@@ -5539,7 +5550,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="109" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="109" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G109" s="5">
         <v>102</v>
       </c>
@@ -5575,7 +5586,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="110" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="110" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G110" s="5">
         <v>103</v>
       </c>
@@ -5617,7 +5628,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="111" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="111" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G111" s="5">
         <v>104</v>
       </c>
@@ -5659,7 +5670,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="112" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="112" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G112" s="5">
         <v>105</v>
       </c>
@@ -5701,7 +5712,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="113" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="113" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G113" s="5">
         <v>106</v>
       </c>
@@ -5739,7 +5750,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="114" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="114" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G114" s="5">
         <v>107</v>
       </c>
@@ -5779,7 +5790,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="115" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="115" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G115" s="5">
         <v>108</v>
       </c>
@@ -5821,7 +5832,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="116" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="116" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G116" s="5">
         <v>109</v>
       </c>
@@ -5861,7 +5872,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="117" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="117" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G117" s="5">
         <v>110</v>
       </c>
@@ -5897,7 +5908,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="118" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="118" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G118" s="5">
         <v>111</v>
       </c>
@@ -5933,7 +5944,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="119" spans="7:23" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="119" spans="7:23" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="G119" s="5">
         <v>113</v>
       </c>
@@ -5971,7 +5982,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="120" spans="7:23" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="120" spans="7:23" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="G120" s="5">
         <v>114</v>
       </c>
@@ -6009,7 +6020,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="121" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="121" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G121" s="5">
         <v>115</v>
       </c>
@@ -6049,7 +6060,7 @@
       <c r="V121" s="6"/>
       <c r="W121" s="5"/>
     </row>
-    <row r="122" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="122" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G122" s="5">
         <v>117</v>
       </c>
@@ -6085,7 +6096,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="123" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="123" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G123" s="5">
         <v>118</v>
       </c>
@@ -6123,7 +6134,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="124" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="124" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G124" s="5">
         <v>119</v>
       </c>
@@ -6165,7 +6176,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="125" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="125" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G125" s="5">
         <v>120</v>
       </c>
@@ -6201,7 +6212,7 @@
       <c r="V125" s="6"/>
       <c r="W125" s="5"/>
     </row>
-    <row r="126" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="126" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G126" s="5">
         <v>121</v>
       </c>
@@ -6239,7 +6250,7 @@
       <c r="V126" s="6"/>
       <c r="W126" s="5"/>
     </row>
-    <row r="127" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="127" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G127" s="5">
         <v>122</v>
       </c>
@@ -6281,7 +6292,7 @@
       <c r="V127" s="6"/>
       <c r="W127" s="5"/>
     </row>
-    <row r="128" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="128" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G128" s="5">
         <v>123</v>
       </c>
@@ -6325,7 +6336,7 @@
       <c r="V128" s="6"/>
       <c r="W128" s="5"/>
     </row>
-    <row r="129" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="129" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G129" s="5">
         <v>124</v>
       </c>
@@ -6376,11 +6387,11 @@
         <v>303</v>
       </c>
       <c r="J130" s="5" t="s">
-        <v>174</v>
+        <v>38</v>
       </c>
       <c r="K130" s="5">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L130" s="5">
         <f>COUNTIF($J$8:$J$999,Table1[[#This Row],[Abbreviation]]) + SUMIF($J$8:$J$999,Table1[[#This Row],[Abbreviation]],$L$8:$L$999)</f>
@@ -6392,7 +6403,9 @@
       </c>
       <c r="N130" s="13"/>
       <c r="O130" s="5"/>
-      <c r="P130" s="5"/>
+      <c r="P130" s="5" t="s">
+        <v>263</v>
+      </c>
       <c r="Q130" s="5" t="s">
         <v>261</v>
       </c>
@@ -6409,7 +6422,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="131" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="131" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G131" s="5">
         <v>126</v>
       </c>
@@ -6439,7 +6452,7 @@
       <c r="V131" s="6"/>
       <c r="W131" s="5"/>
     </row>
-    <row r="132" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="132" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G132" s="5">
         <v>127</v>
       </c>
@@ -6469,7 +6482,7 @@
       <c r="V132" s="6"/>
       <c r="W132" s="5"/>
     </row>
-    <row r="133" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="133" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G133" s="5">
         <v>128</v>
       </c>
@@ -6499,7 +6512,7 @@
       <c r="V133" s="6"/>
       <c r="W133" s="5"/>
     </row>
-    <row r="134" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="134" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G134" s="5">
         <v>129</v>
       </c>
@@ -6529,7 +6542,7 @@
       <c r="V134" s="6"/>
       <c r="W134" s="5"/>
     </row>
-    <row r="135" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="135" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G135" s="5">
         <v>130</v>
       </c>
@@ -6559,7 +6572,7 @@
       <c r="V135" s="6"/>
       <c r="W135" s="5"/>
     </row>
-    <row r="136" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="136" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G136" s="5">
         <v>131</v>
       </c>
@@ -6589,7 +6602,7 @@
       <c r="V136" s="6"/>
       <c r="W136" s="5"/>
     </row>
-    <row r="137" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="137" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G137" s="5">
         <v>132</v>
       </c>
@@ -6619,7 +6632,7 @@
       <c r="V137" s="6"/>
       <c r="W137" s="5"/>
     </row>
-    <row r="138" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="138" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G138" s="5">
         <v>133</v>
       </c>
@@ -6649,7 +6662,7 @@
       <c r="V138" s="6"/>
       <c r="W138" s="5"/>
     </row>
-    <row r="139" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="139" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G139" s="5">
         <v>134</v>
       </c>
@@ -6679,7 +6692,7 @@
       <c r="V139" s="6"/>
       <c r="W139" s="5"/>
     </row>
-    <row r="140" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="140" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G140" s="5">
         <v>135</v>
       </c>
@@ -6709,7 +6722,7 @@
       <c r="V140" s="6"/>
       <c r="W140" s="5"/>
     </row>
-    <row r="141" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="141" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G141" s="5">
         <v>136</v>
       </c>
@@ -6739,7 +6752,7 @@
       <c r="V141" s="6"/>
       <c r="W141" s="5"/>
     </row>
-    <row r="142" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="142" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G142" s="5">
         <v>137</v>
       </c>
@@ -6769,7 +6782,7 @@
       <c r="V142" s="6"/>
       <c r="W142" s="5"/>
     </row>
-    <row r="143" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="143" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G143" s="5">
         <v>138</v>
       </c>
@@ -6799,7 +6812,7 @@
       <c r="V143" s="6"/>
       <c r="W143" s="5"/>
     </row>
-    <row r="144" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="144" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G144" s="5">
         <v>139</v>
       </c>
@@ -6829,7 +6842,7 @@
       <c r="V144" s="6"/>
       <c r="W144" s="5"/>
     </row>
-    <row r="145" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="145" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G145" s="5">
         <v>140</v>
       </c>
@@ -6859,7 +6872,7 @@
       <c r="V145" s="6"/>
       <c r="W145" s="5"/>
     </row>
-    <row r="146" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="146" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G146" s="5">
         <v>141</v>
       </c>
@@ -6889,7 +6902,7 @@
       <c r="V146" s="6"/>
       <c r="W146" s="5"/>
     </row>
-    <row r="147" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="147" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G147" s="5">
         <v>142</v>
       </c>
@@ -6919,7 +6932,7 @@
       <c r="V147" s="6"/>
       <c r="W147" s="5"/>
     </row>
-    <row r="148" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="148" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G148" s="5">
         <v>143</v>
       </c>
@@ -6949,7 +6962,7 @@
       <c r="V148" s="6"/>
       <c r="W148" s="5"/>
     </row>
-    <row r="149" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="149" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G149" s="5">
         <v>144</v>
       </c>
@@ -6979,7 +6992,7 @@
       <c r="V149" s="6"/>
       <c r="W149" s="5"/>
     </row>
-    <row r="150" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="150" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G150" s="5">
         <v>145</v>
       </c>
@@ -7009,7 +7022,7 @@
       <c r="V150" s="6"/>
       <c r="W150" s="5"/>
     </row>
-    <row r="151" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="151" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G151" s="5">
         <v>146</v>
       </c>
@@ -7039,7 +7052,7 @@
       <c r="V151" s="6"/>
       <c r="W151" s="5"/>
     </row>
-    <row r="152" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="152" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G152" s="5">
         <v>147</v>
       </c>
@@ -7069,7 +7082,7 @@
       <c r="V152" s="6"/>
       <c r="W152" s="5"/>
     </row>
-    <row r="153" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="153" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G153" s="5">
         <v>148</v>
       </c>
@@ -7099,7 +7112,7 @@
       <c r="V153" s="6"/>
       <c r="W153" s="5"/>
     </row>
-    <row r="154" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="154" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G154" s="5">
         <v>149</v>
       </c>
@@ -7129,7 +7142,7 @@
       <c r="V154" s="6"/>
       <c r="W154" s="5"/>
     </row>
-    <row r="155" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="155" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G155" s="5">
         <v>150</v>
       </c>
@@ -7159,7 +7172,7 @@
       <c r="V155" s="6"/>
       <c r="W155" s="5"/>
     </row>
-    <row r="156" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="156" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G156" s="5">
         <v>151</v>
       </c>
@@ -7189,7 +7202,7 @@
       <c r="V156" s="6"/>
       <c r="W156" s="5"/>
     </row>
-    <row r="157" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="157" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G157" s="5">
         <v>152</v>
       </c>
@@ -7219,7 +7232,7 @@
       <c r="V157" s="6"/>
       <c r="W157" s="5"/>
     </row>
-    <row r="158" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="158" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G158" s="5">
         <v>153</v>
       </c>
@@ -7249,7 +7262,7 @@
       <c r="V158" s="6"/>
       <c r="W158" s="5"/>
     </row>
-    <row r="159" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="159" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G159" s="5">
         <v>154</v>
       </c>
@@ -7279,7 +7292,7 @@
       <c r="V159" s="6"/>
       <c r="W159" s="5"/>
     </row>
-    <row r="160" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="160" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G160" s="5">
         <v>155</v>
       </c>
@@ -7309,7 +7322,7 @@
       <c r="V160" s="6"/>
       <c r="W160" s="5"/>
     </row>
-    <row r="161" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="161" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G161" s="5">
         <v>156</v>
       </c>
@@ -7339,7 +7352,7 @@
       <c r="V161" s="6"/>
       <c r="W161" s="5"/>
     </row>
-    <row r="162" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="162" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G162" s="5">
         <v>157</v>
       </c>
@@ -7369,7 +7382,7 @@
       <c r="V162" s="6"/>
       <c r="W162" s="5"/>
     </row>
-    <row r="163" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="163" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G163" s="5">
         <v>158</v>
       </c>
@@ -7399,7 +7412,7 @@
       <c r="V163" s="6"/>
       <c r="W163" s="5"/>
     </row>
-    <row r="164" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="164" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G164" s="5">
         <v>159</v>
       </c>
@@ -7429,7 +7442,7 @@
       <c r="V164" s="6"/>
       <c r="W164" s="5"/>
     </row>
-    <row r="165" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="165" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G165" s="5">
         <v>160</v>
       </c>
@@ -7459,7 +7472,7 @@
       <c r="V165" s="6"/>
       <c r="W165" s="5"/>
     </row>
-    <row r="166" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="166" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G166" s="5">
         <v>161</v>
       </c>
@@ -7489,7 +7502,7 @@
       <c r="V166" s="6"/>
       <c r="W166" s="5"/>
     </row>
-    <row r="167" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="167" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G167" s="5">
         <v>162</v>
       </c>
@@ -7519,7 +7532,7 @@
       <c r="V167" s="6"/>
       <c r="W167" s="5"/>
     </row>
-    <row r="168" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="168" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G168" s="5">
         <v>163</v>
       </c>
@@ -7549,7 +7562,7 @@
       <c r="V168" s="6"/>
       <c r="W168" s="5"/>
     </row>
-    <row r="169" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="169" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G169" s="5">
         <v>164</v>
       </c>
@@ -7579,7 +7592,7 @@
       <c r="V169" s="6"/>
       <c r="W169" s="5"/>
     </row>
-    <row r="170" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="170" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G170" s="5">
         <v>165</v>
       </c>
@@ -7609,7 +7622,7 @@
       <c r="V170" s="6"/>
       <c r="W170" s="5"/>
     </row>
-    <row r="171" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="171" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G171" s="5">
         <v>166</v>
       </c>
@@ -7639,7 +7652,7 @@
       <c r="V171" s="6"/>
       <c r="W171" s="5"/>
     </row>
-    <row r="172" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="172" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G172" s="5">
         <v>167</v>
       </c>
@@ -7669,7 +7682,7 @@
       <c r="V172" s="6"/>
       <c r="W172" s="5"/>
     </row>
-    <row r="173" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="173" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G173" s="5">
         <v>168</v>
       </c>
@@ -7699,7 +7712,7 @@
       <c r="V173" s="6"/>
       <c r="W173" s="5"/>
     </row>
-    <row r="174" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="174" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G174" s="5">
         <v>169</v>
       </c>
@@ -7729,7 +7742,7 @@
       <c r="V174" s="6"/>
       <c r="W174" s="5"/>
     </row>
-    <row r="175" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="175" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G175" s="5">
         <v>170</v>
       </c>
@@ -7759,7 +7772,7 @@
       <c r="V175" s="6"/>
       <c r="W175" s="5"/>
     </row>
-    <row r="176" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="176" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G176" s="5">
         <v>171</v>
       </c>
@@ -7789,7 +7802,7 @@
       <c r="V176" s="6"/>
       <c r="W176" s="5"/>
     </row>
-    <row r="177" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="177" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G177" s="5">
         <v>172</v>
       </c>
@@ -7819,7 +7832,7 @@
       <c r="V177" s="6"/>
       <c r="W177" s="5"/>
     </row>
-    <row r="178" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="178" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G178" s="5">
         <v>173</v>
       </c>
@@ -7849,7 +7862,7 @@
       <c r="V178" s="6"/>
       <c r="W178" s="5"/>
     </row>
-    <row r="179" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="179" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G179" s="5">
         <v>174</v>
       </c>
@@ -7879,7 +7892,7 @@
       <c r="V179" s="6"/>
       <c r="W179" s="5"/>
     </row>
-    <row r="180" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="180" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G180" s="5">
         <v>175</v>
       </c>
@@ -7909,7 +7922,7 @@
       <c r="V180" s="6"/>
       <c r="W180" s="5"/>
     </row>
-    <row r="181" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="181" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G181" s="5">
         <v>176</v>
       </c>
@@ -7939,7 +7952,7 @@
       <c r="V181" s="6"/>
       <c r="W181" s="5"/>
     </row>
-    <row r="182" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="182" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G182" s="5">
         <v>177</v>
       </c>
@@ -7969,7 +7982,7 @@
       <c r="V182" s="6"/>
       <c r="W182" s="5"/>
     </row>
-    <row r="183" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="183" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G183" s="5">
         <v>178</v>
       </c>
@@ -7999,7 +8012,7 @@
       <c r="V183" s="6"/>
       <c r="W183" s="5"/>
     </row>
-    <row r="184" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="184" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G184" s="5">
         <v>179</v>
       </c>
@@ -8029,7 +8042,7 @@
       <c r="V184" s="6"/>
       <c r="W184" s="5"/>
     </row>
-    <row r="185" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="185" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G185" s="5">
         <v>180</v>
       </c>
@@ -8059,7 +8072,7 @@
       <c r="V185" s="6"/>
       <c r="W185" s="5"/>
     </row>
-    <row r="186" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="186" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G186" s="5">
         <v>181</v>
       </c>
@@ -8089,7 +8102,7 @@
       <c r="V186" s="6"/>
       <c r="W186" s="5"/>
     </row>
-    <row r="187" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="187" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G187" s="5">
         <v>182</v>
       </c>
@@ -8119,7 +8132,7 @@
       <c r="V187" s="6"/>
       <c r="W187" s="5"/>
     </row>
-    <row r="188" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="188" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G188" s="5">
         <v>183</v>
       </c>
@@ -8149,7 +8162,7 @@
       <c r="V188" s="6"/>
       <c r="W188" s="5"/>
     </row>
-    <row r="189" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="189" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G189" s="5">
         <v>184</v>
       </c>
@@ -8179,7 +8192,7 @@
       <c r="V189" s="6"/>
       <c r="W189" s="5"/>
     </row>
-    <row r="190" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="190" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G190" s="5">
         <v>185</v>
       </c>
@@ -8209,7 +8222,7 @@
       <c r="V190" s="6"/>
       <c r="W190" s="5"/>
     </row>
-    <row r="191" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="191" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G191" s="5">
         <v>186</v>
       </c>
@@ -8239,7 +8252,7 @@
       <c r="V191" s="6"/>
       <c r="W191" s="5"/>
     </row>
-    <row r="192" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="192" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G192" s="5">
         <v>187</v>
       </c>
@@ -8269,7 +8282,7 @@
       <c r="V192" s="6"/>
       <c r="W192" s="5"/>
     </row>
-    <row r="193" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="193" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G193" s="5">
         <v>188</v>
       </c>
@@ -8299,7 +8312,7 @@
       <c r="V193" s="6"/>
       <c r="W193" s="5"/>
     </row>
-    <row r="194" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="194" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G194" s="5">
         <v>189</v>
       </c>
@@ -8329,7 +8342,7 @@
       <c r="V194" s="6"/>
       <c r="W194" s="5"/>
     </row>
-    <row r="195" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="195" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G195" s="5">
         <v>190</v>
       </c>
@@ -8359,7 +8372,7 @@
       <c r="V195" s="6"/>
       <c r="W195" s="5"/>
     </row>
-    <row r="196" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="196" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G196" s="5">
         <v>191</v>
       </c>
@@ -8389,7 +8402,7 @@
       <c r="V196" s="6"/>
       <c r="W196" s="5"/>
     </row>
-    <row r="197" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="197" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G197" s="5">
         <v>192</v>
       </c>
@@ -8419,7 +8432,7 @@
       <c r="V197" s="6"/>
       <c r="W197" s="5"/>
     </row>
-    <row r="198" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="198" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G198" s="5">
         <v>193</v>
       </c>
@@ -8449,7 +8462,7 @@
       <c r="V198" s="6"/>
       <c r="W198" s="5"/>
     </row>
-    <row r="199" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="199" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G199" s="5">
         <v>194</v>
       </c>
@@ -8479,7 +8492,7 @@
       <c r="V199" s="6"/>
       <c r="W199" s="5"/>
     </row>
-    <row r="200" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="200" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G200" s="5">
         <v>195</v>
       </c>
@@ -8509,7 +8522,7 @@
       <c r="V200" s="6"/>
       <c r="W200" s="5"/>
     </row>
-    <row r="201" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="201" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G201" s="5">
         <v>196</v>
       </c>
@@ -8539,7 +8552,7 @@
       <c r="V201" s="6"/>
       <c r="W201" s="5"/>
     </row>
-    <row r="202" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="202" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G202" s="5">
         <v>197</v>
       </c>
@@ -8569,7 +8582,7 @@
       <c r="V202" s="6"/>
       <c r="W202" s="5"/>
     </row>
-    <row r="203" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="203" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G203" s="5">
         <v>198</v>
       </c>
@@ -8599,7 +8612,7 @@
       <c r="V203" s="6"/>
       <c r="W203" s="5"/>
     </row>
-    <row r="204" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="204" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G204" s="5">
         <v>199</v>
       </c>
@@ -8629,7 +8642,7 @@
       <c r="V204" s="6"/>
       <c r="W204" s="5"/>
     </row>
-    <row r="205" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="205" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G205" s="5">
         <v>200</v>
       </c>
@@ -8659,7 +8672,7 @@
       <c r="V205" s="6"/>
       <c r="W205" s="5"/>
     </row>
-    <row r="206" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="206" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G206" s="5">
         <v>201</v>
       </c>
@@ -8689,7 +8702,7 @@
       <c r="V206" s="6"/>
       <c r="W206" s="5"/>
     </row>
-    <row r="207" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="207" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G207" s="5">
         <v>202</v>
       </c>
@@ -8719,7 +8732,7 @@
       <c r="V207" s="6"/>
       <c r="W207" s="5"/>
     </row>
-    <row r="208" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="208" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G208" s="5">
         <v>203</v>
       </c>
@@ -8749,7 +8762,7 @@
       <c r="V208" s="6"/>
       <c r="W208" s="5"/>
     </row>
-    <row r="209" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="209" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G209" s="5">
         <v>204</v>
       </c>
@@ -8779,7 +8792,7 @@
       <c r="V209" s="6"/>
       <c r="W209" s="5"/>
     </row>
-    <row r="210" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="210" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G210" s="5">
         <v>205</v>
       </c>
@@ -8809,7 +8822,7 @@
       <c r="V210" s="6"/>
       <c r="W210" s="5"/>
     </row>
-    <row r="211" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="211" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G211" s="5">
         <v>206</v>
       </c>
@@ -8839,7 +8852,7 @@
       <c r="V211" s="6"/>
       <c r="W211" s="5"/>
     </row>
-    <row r="212" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="212" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G212" s="5">
         <v>207</v>
       </c>
@@ -8869,7 +8882,7 @@
       <c r="V212" s="6"/>
       <c r="W212" s="5"/>
     </row>
-    <row r="213" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="213" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G213" s="5">
         <v>208</v>
       </c>
@@ -8899,7 +8912,7 @@
       <c r="V213" s="6"/>
       <c r="W213" s="5"/>
     </row>
-    <row r="214" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="214" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G214" s="5">
         <v>209</v>
       </c>
@@ -8929,7 +8942,7 @@
       <c r="V214" s="6"/>
       <c r="W214" s="5"/>
     </row>
-    <row r="215" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="215" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G215" s="5">
         <v>210</v>
       </c>
@@ -8959,7 +8972,7 @@
       <c r="V215" s="6"/>
       <c r="W215" s="5"/>
     </row>
-    <row r="216" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="216" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G216" s="5">
         <v>211</v>
       </c>
@@ -8989,7 +9002,7 @@
       <c r="V216" s="6"/>
       <c r="W216" s="5"/>
     </row>
-    <row r="217" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="217" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G217" s="5">
         <v>212</v>
       </c>
@@ -9019,7 +9032,7 @@
       <c r="V217" s="6"/>
       <c r="W217" s="5"/>
     </row>
-    <row r="218" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="218" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G218" s="5">
         <v>213</v>
       </c>
@@ -9049,7 +9062,7 @@
       <c r="V218" s="6"/>
       <c r="W218" s="5"/>
     </row>
-    <row r="219" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="219" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G219" s="5">
         <v>214</v>
       </c>
@@ -9079,7 +9092,7 @@
       <c r="V219" s="6"/>
       <c r="W219" s="5"/>
     </row>
-    <row r="220" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="220" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G220" s="5">
         <v>215</v>
       </c>
@@ -9109,7 +9122,7 @@
       <c r="V220" s="6"/>
       <c r="W220" s="5"/>
     </row>
-    <row r="221" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="221" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G221" s="5">
         <v>216</v>
       </c>
@@ -9139,7 +9152,7 @@
       <c r="V221" s="6"/>
       <c r="W221" s="5"/>
     </row>
-    <row r="222" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="222" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G222" s="5">
         <v>217</v>
       </c>
@@ -9169,7 +9182,7 @@
       <c r="V222" s="6"/>
       <c r="W222" s="5"/>
     </row>
-    <row r="223" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="223" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G223" s="5">
         <v>218</v>
       </c>
@@ -9199,7 +9212,7 @@
       <c r="V223" s="6"/>
       <c r="W223" s="5"/>
     </row>
-    <row r="224" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="224" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G224" s="5">
         <v>219</v>
       </c>
@@ -9229,7 +9242,7 @@
       <c r="V224" s="6"/>
       <c r="W224" s="5"/>
     </row>
-    <row r="225" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="225" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G225" s="5">
         <v>220</v>
       </c>
@@ -9259,7 +9272,7 @@
       <c r="V225" s="6"/>
       <c r="W225" s="5"/>
     </row>
-    <row r="226" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="226" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G226" s="5">
         <v>221</v>
       </c>
@@ -9289,7 +9302,7 @@
       <c r="V226" s="6"/>
       <c r="W226" s="5"/>
     </row>
-    <row r="227" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="227" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G227" s="5">
         <v>222</v>
       </c>
@@ -9319,7 +9332,7 @@
       <c r="V227" s="6"/>
       <c r="W227" s="5"/>
     </row>
-    <row r="228" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="228" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G228" s="5">
         <v>223</v>
       </c>
@@ -9349,7 +9362,7 @@
       <c r="V228" s="6"/>
       <c r="W228" s="5"/>
     </row>
-    <row r="229" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="229" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G229" s="5">
         <v>224</v>
       </c>
@@ -9379,7 +9392,7 @@
       <c r="V229" s="6"/>
       <c r="W229" s="5"/>
     </row>
-    <row r="230" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="230" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G230" s="5">
         <v>225</v>
       </c>
@@ -9409,7 +9422,7 @@
       <c r="V230" s="6"/>
       <c r="W230" s="5"/>
     </row>
-    <row r="231" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="231" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G231" s="5">
         <v>226</v>
       </c>
@@ -9439,7 +9452,7 @@
       <c r="V231" s="6"/>
       <c r="W231" s="5"/>
     </row>
-    <row r="232" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="232" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G232" s="5">
         <v>227</v>
       </c>
@@ -9469,7 +9482,7 @@
       <c r="V232" s="6"/>
       <c r="W232" s="5"/>
     </row>
-    <row r="233" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="233" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G233" s="5">
         <v>228</v>
       </c>
@@ -9499,7 +9512,7 @@
       <c r="V233" s="6"/>
       <c r="W233" s="5"/>
     </row>
-    <row r="234" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="234" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G234" s="5">
         <v>229</v>
       </c>
@@ -9529,7 +9542,7 @@
       <c r="V234" s="6"/>
       <c r="W234" s="5"/>
     </row>
-    <row r="235" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="235" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G235" s="5">
         <v>230</v>
       </c>
@@ -9559,7 +9572,7 @@
       <c r="V235" s="6"/>
       <c r="W235" s="5"/>
     </row>
-    <row r="236" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="236" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G236" s="5">
         <v>231</v>
       </c>
@@ -9589,7 +9602,7 @@
       <c r="V236" s="6"/>
       <c r="W236" s="5"/>
     </row>
-    <row r="237" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="237" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G237" s="5">
         <v>232</v>
       </c>
@@ -9619,7 +9632,7 @@
       <c r="V237" s="6"/>
       <c r="W237" s="5"/>
     </row>
-    <row r="238" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="238" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G238" s="5">
         <v>233</v>
       </c>
@@ -9649,7 +9662,7 @@
       <c r="V238" s="6"/>
       <c r="W238" s="5"/>
     </row>
-    <row r="239" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="239" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G239" s="5">
         <v>234</v>
       </c>
@@ -9679,7 +9692,7 @@
       <c r="V239" s="6"/>
       <c r="W239" s="5"/>
     </row>
-    <row r="240" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="240" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G240" s="5">
         <v>235</v>
       </c>
@@ -9709,7 +9722,7 @@
       <c r="V240" s="6"/>
       <c r="W240" s="5"/>
     </row>
-    <row r="241" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="241" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G241" s="5">
         <v>236</v>
       </c>
@@ -9739,7 +9752,7 @@
       <c r="V241" s="6"/>
       <c r="W241" s="5"/>
     </row>
-    <row r="242" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="242" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G242" s="5">
         <v>237</v>
       </c>
@@ -9769,7 +9782,7 @@
       <c r="V242" s="6"/>
       <c r="W242" s="5"/>
     </row>
-    <row r="243" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="243" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G243" s="5">
         <v>238</v>
       </c>
@@ -9799,7 +9812,7 @@
       <c r="V243" s="6"/>
       <c r="W243" s="5"/>
     </row>
-    <row r="244" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="244" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G244" s="5">
         <v>239</v>
       </c>
@@ -9829,7 +9842,7 @@
       <c r="V244" s="6"/>
       <c r="W244" s="5"/>
     </row>
-    <row r="245" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="245" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G245" s="5">
         <v>240</v>
       </c>
@@ -9859,7 +9872,7 @@
       <c r="V245" s="6"/>
       <c r="W245" s="5"/>
     </row>
-    <row r="246" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="246" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G246" s="5">
         <v>241</v>
       </c>
@@ -9889,7 +9902,7 @@
       <c r="V246" s="6"/>
       <c r="W246" s="5"/>
     </row>
-    <row r="247" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="247" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G247" s="5">
         <v>242</v>
       </c>
@@ -9919,7 +9932,7 @@
       <c r="V247" s="6"/>
       <c r="W247" s="5"/>
     </row>
-    <row r="248" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="248" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G248" s="5">
         <v>243</v>
       </c>
@@ -9949,7 +9962,7 @@
       <c r="V248" s="6"/>
       <c r="W248" s="5"/>
     </row>
-    <row r="249" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="249" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G249" s="5">
         <v>244</v>
       </c>
@@ -9979,7 +9992,7 @@
       <c r="V249" s="6"/>
       <c r="W249" s="5"/>
     </row>
-    <row r="250" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="250" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G250" s="5">
         <v>245</v>
       </c>
@@ -10009,7 +10022,7 @@
       <c r="V250" s="6"/>
       <c r="W250" s="5"/>
     </row>
-    <row r="251" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="251" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G251" s="5">
         <v>246</v>
       </c>
@@ -10039,7 +10052,7 @@
       <c r="V251" s="6"/>
       <c r="W251" s="5"/>
     </row>
-    <row r="252" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="252" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G252" s="5">
         <v>247</v>
       </c>
@@ -10069,7 +10082,7 @@
       <c r="V252" s="6"/>
       <c r="W252" s="5"/>
     </row>
-    <row r="253" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="253" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G253" s="5">
         <v>248</v>
       </c>
@@ -10099,7 +10112,7 @@
       <c r="V253" s="6"/>
       <c r="W253" s="5"/>
     </row>
-    <row r="254" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="254" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G254" s="5">
         <v>249</v>
       </c>
@@ -10129,7 +10142,7 @@
       <c r="V254" s="6"/>
       <c r="W254" s="5"/>
     </row>
-    <row r="255" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="255" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G255" s="5">
         <v>250</v>
       </c>
@@ -10159,7 +10172,7 @@
       <c r="V255" s="6"/>
       <c r="W255" s="5"/>
     </row>
-    <row r="256" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="256" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G256" s="5">
         <v>251</v>
       </c>
@@ -10189,7 +10202,7 @@
       <c r="V256" s="6"/>
       <c r="W256" s="5"/>
     </row>
-    <row r="257" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="257" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G257" s="5">
         <v>252</v>
       </c>
@@ -10219,7 +10232,7 @@
       <c r="V257" s="6"/>
       <c r="W257" s="5"/>
     </row>
-    <row r="258" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="258" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G258" s="5">
         <v>253</v>
       </c>
@@ -10249,7 +10262,7 @@
       <c r="V258" s="6"/>
       <c r="W258" s="5"/>
     </row>
-    <row r="259" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="259" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G259" s="5">
         <v>254</v>
       </c>
@@ -10279,7 +10292,7 @@
       <c r="V259" s="6"/>
       <c r="W259" s="5"/>
     </row>
-    <row r="260" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="260" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G260" s="5">
         <v>255</v>
       </c>
@@ -10309,7 +10322,7 @@
       <c r="V260" s="6"/>
       <c r="W260" s="5"/>
     </row>
-    <row r="261" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="261" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G261" s="5">
         <v>256</v>
       </c>
@@ -10339,7 +10352,7 @@
       <c r="V261" s="6"/>
       <c r="W261" s="5"/>
     </row>
-    <row r="262" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="262" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G262" s="5">
         <v>257</v>
       </c>
@@ -10369,7 +10382,7 @@
       <c r="V262" s="6"/>
       <c r="W262" s="5"/>
     </row>
-    <row r="263" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="263" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G263" s="5">
         <v>258</v>
       </c>
@@ -10399,7 +10412,7 @@
       <c r="V263" s="6"/>
       <c r="W263" s="5"/>
     </row>
-    <row r="264" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="264" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G264" s="5">
         <v>259</v>
       </c>
@@ -10429,7 +10442,7 @@
       <c r="V264" s="6"/>
       <c r="W264" s="5"/>
     </row>
-    <row r="265" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="265" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G265" s="5">
         <v>260</v>
       </c>
@@ -10459,7 +10472,7 @@
       <c r="V265" s="6"/>
       <c r="W265" s="5"/>
     </row>
-    <row r="266" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="266" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G266" s="5">
         <v>261</v>
       </c>
@@ -10489,7 +10502,7 @@
       <c r="V266" s="6"/>
       <c r="W266" s="5"/>
     </row>
-    <row r="267" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="267" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G267" s="5">
         <v>262</v>
       </c>
@@ -10519,7 +10532,7 @@
       <c r="V267" s="6"/>
       <c r="W267" s="5"/>
     </row>
-    <row r="268" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="268" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G268" s="5">
         <v>263</v>
       </c>
@@ -10549,7 +10562,7 @@
       <c r="V268" s="6"/>
       <c r="W268" s="5"/>
     </row>
-    <row r="269" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="269" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G269" s="5">
         <v>264</v>
       </c>
@@ -10579,7 +10592,7 @@
       <c r="V269" s="6"/>
       <c r="W269" s="5"/>
     </row>
-    <row r="270" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="270" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G270" s="5">
         <v>265</v>
       </c>
@@ -10609,7 +10622,7 @@
       <c r="V270" s="6"/>
       <c r="W270" s="5"/>
     </row>
-    <row r="271" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="271" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G271" s="5">
         <v>266</v>
       </c>
@@ -10639,7 +10652,7 @@
       <c r="V271" s="6"/>
       <c r="W271" s="5"/>
     </row>
-    <row r="272" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="272" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G272" s="5">
         <v>267</v>
       </c>
@@ -10669,7 +10682,7 @@
       <c r="V272" s="6"/>
       <c r="W272" s="5"/>
     </row>
-    <row r="273" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="273" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G273" s="5">
         <v>268</v>
       </c>
@@ -10699,7 +10712,7 @@
       <c r="V273" s="6"/>
       <c r="W273" s="5"/>
     </row>
-    <row r="274" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="274" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G274" s="5">
         <v>269</v>
       </c>
@@ -10729,7 +10742,7 @@
       <c r="V274" s="6"/>
       <c r="W274" s="5"/>
     </row>
-    <row r="275" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="275" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G275" s="5">
         <v>270</v>
       </c>
@@ -10759,7 +10772,7 @@
       <c r="V275" s="6"/>
       <c r="W275" s="5"/>
     </row>
-    <row r="276" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="276" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G276" s="5">
         <v>271</v>
       </c>
@@ -10789,7 +10802,7 @@
       <c r="V276" s="6"/>
       <c r="W276" s="5"/>
     </row>
-    <row r="277" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="277" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G277" s="5">
         <v>272</v>
       </c>
@@ -10819,7 +10832,7 @@
       <c r="V277" s="6"/>
       <c r="W277" s="5"/>
     </row>
-    <row r="278" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="278" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G278" s="5">
         <v>273</v>
       </c>
@@ -10849,7 +10862,7 @@
       <c r="V278" s="6"/>
       <c r="W278" s="5"/>
     </row>
-    <row r="279" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="279" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G279" s="5">
         <v>274</v>
       </c>
@@ -10879,7 +10892,7 @@
       <c r="V279" s="6"/>
       <c r="W279" s="5"/>
     </row>
-    <row r="280" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="280" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G280" s="5">
         <v>275</v>
       </c>
@@ -10909,7 +10922,7 @@
       <c r="V280" s="6"/>
       <c r="W280" s="5"/>
     </row>
-    <row r="281" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="281" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G281" s="5">
         <v>276</v>
       </c>
@@ -10939,7 +10952,7 @@
       <c r="V281" s="6"/>
       <c r="W281" s="5"/>
     </row>
-    <row r="282" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="282" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G282" s="5">
         <v>277</v>
       </c>
@@ -10969,7 +10982,7 @@
       <c r="V282" s="6"/>
       <c r="W282" s="5"/>
     </row>
-    <row r="283" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="283" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G283" s="5">
         <v>278</v>
       </c>
@@ -10999,7 +11012,7 @@
       <c r="V283" s="6"/>
       <c r="W283" s="5"/>
     </row>
-    <row r="284" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="284" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G284" s="5">
         <v>279</v>
       </c>
@@ -11029,7 +11042,7 @@
       <c r="V284" s="6"/>
       <c r="W284" s="5"/>
     </row>
-    <row r="285" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="285" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G285" s="5">
         <v>280</v>
       </c>
@@ -11059,7 +11072,7 @@
       <c r="V285" s="6"/>
       <c r="W285" s="5"/>
     </row>
-    <row r="286" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="286" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G286" s="5">
         <v>281</v>
       </c>
@@ -11089,7 +11102,7 @@
       <c r="V286" s="6"/>
       <c r="W286" s="5"/>
     </row>
-    <row r="287" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="287" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G287" s="5">
         <v>282</v>
       </c>
@@ -11119,7 +11132,7 @@
       <c r="V287" s="6"/>
       <c r="W287" s="5"/>
     </row>
-    <row r="288" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="288" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G288" s="5">
         <v>283</v>
       </c>
@@ -11149,7 +11162,7 @@
       <c r="V288" s="6"/>
       <c r="W288" s="5"/>
     </row>
-    <row r="289" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="289" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G289" s="5">
         <v>284</v>
       </c>
@@ -11179,7 +11192,7 @@
       <c r="V289" s="6"/>
       <c r="W289" s="5"/>
     </row>
-    <row r="290" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="290" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G290" s="5">
         <v>285</v>
       </c>
@@ -11209,7 +11222,7 @@
       <c r="V290" s="6"/>
       <c r="W290" s="5"/>
     </row>
-    <row r="291" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="291" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G291" s="5">
         <v>286</v>
       </c>
@@ -11239,7 +11252,7 @@
       <c r="V291" s="6"/>
       <c r="W291" s="5"/>
     </row>
-    <row r="292" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="292" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G292" s="5">
         <v>287</v>
       </c>
@@ -11269,7 +11282,7 @@
       <c r="V292" s="6"/>
       <c r="W292" s="5"/>
     </row>
-    <row r="293" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="293" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G293" s="5">
         <v>288</v>
       </c>
@@ -11299,7 +11312,7 @@
       <c r="V293" s="6"/>
       <c r="W293" s="5"/>
     </row>
-    <row r="294" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="294" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G294" s="5">
         <v>289</v>
       </c>
@@ -11329,7 +11342,7 @@
       <c r="V294" s="6"/>
       <c r="W294" s="5"/>
     </row>
-    <row r="295" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="295" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G295" s="5">
         <v>290</v>
       </c>
@@ -11359,7 +11372,7 @@
       <c r="V295" s="6"/>
       <c r="W295" s="5"/>
     </row>
-    <row r="296" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="296" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G296" s="5">
         <v>291</v>
       </c>
@@ -11389,7 +11402,7 @@
       <c r="V296" s="6"/>
       <c r="W296" s="5"/>
     </row>
-    <row r="297" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="297" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G297" s="5">
         <v>292</v>
       </c>
@@ -11419,7 +11432,7 @@
       <c r="V297" s="6"/>
       <c r="W297" s="5"/>
     </row>
-    <row r="298" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="298" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G298" s="5">
         <v>293</v>
       </c>
@@ -11449,7 +11462,7 @@
       <c r="V298" s="6"/>
       <c r="W298" s="5"/>
     </row>
-    <row r="299" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="299" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G299" s="5">
         <v>294</v>
       </c>
@@ -11479,7 +11492,7 @@
       <c r="V299" s="6"/>
       <c r="W299" s="5"/>
     </row>
-    <row r="300" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="300" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G300" s="5">
         <v>295</v>
       </c>
@@ -11509,7 +11522,7 @@
       <c r="V300" s="6"/>
       <c r="W300" s="5"/>
     </row>
-    <row r="301" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="301" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G301" s="5">
         <v>296</v>
       </c>
@@ -11539,7 +11552,7 @@
       <c r="V301" s="6"/>
       <c r="W301" s="5"/>
     </row>
-    <row r="302" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="302" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G302" s="5">
         <v>297</v>
       </c>
@@ -11569,7 +11582,7 @@
       <c r="V302" s="6"/>
       <c r="W302" s="5"/>
     </row>
-    <row r="303" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="303" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G303" s="5">
         <v>298</v>
       </c>
@@ -11599,7 +11612,7 @@
       <c r="V303" s="6"/>
       <c r="W303" s="5"/>
     </row>
-    <row r="304" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="304" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G304" s="5">
         <v>299</v>
       </c>
@@ -11629,7 +11642,7 @@
       <c r="V304" s="6"/>
       <c r="W304" s="5"/>
     </row>
-    <row r="305" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="305" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G305" s="5">
         <v>300</v>
       </c>
@@ -11659,7 +11672,7 @@
       <c r="V305" s="6"/>
       <c r="W305" s="5"/>
     </row>
-    <row r="306" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="306" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G306" s="5">
         <v>301</v>
       </c>
@@ -11689,7 +11702,7 @@
       <c r="V306" s="6"/>
       <c r="W306" s="5"/>
     </row>
-    <row r="307" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="307" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G307" s="5">
         <v>302</v>
       </c>
@@ -11719,7 +11732,7 @@
       <c r="V307" s="6"/>
       <c r="W307" s="5"/>
     </row>
-    <row r="308" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="308" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G308" s="5">
         <v>303</v>
       </c>
@@ -11749,7 +11762,7 @@
       <c r="V308" s="6"/>
       <c r="W308" s="5"/>
     </row>
-    <row r="309" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="309" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G309" s="5">
         <v>304</v>
       </c>
@@ -11779,7 +11792,7 @@
       <c r="V309" s="6"/>
       <c r="W309" s="5"/>
     </row>
-    <row r="310" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="310" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G310" s="5">
         <v>305</v>
       </c>
@@ -11809,7 +11822,7 @@
       <c r="V310" s="6"/>
       <c r="W310" s="5"/>
     </row>
-    <row r="311" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="311" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G311" s="5">
         <v>306</v>
       </c>
@@ -11839,7 +11852,7 @@
       <c r="V311" s="6"/>
       <c r="W311" s="5"/>
     </row>
-    <row r="312" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="312" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G312" s="5">
         <v>307</v>
       </c>
@@ -11869,7 +11882,7 @@
       <c r="V312" s="6"/>
       <c r="W312" s="5"/>
     </row>
-    <row r="313" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="313" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G313" s="5">
         <v>308</v>
       </c>
@@ -11899,7 +11912,7 @@
       <c r="V313" s="6"/>
       <c r="W313" s="5"/>
     </row>
-    <row r="314" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="314" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G314" s="5">
         <v>309</v>
       </c>
@@ -11929,7 +11942,7 @@
       <c r="V314" s="6"/>
       <c r="W314" s="5"/>
     </row>
-    <row r="315" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="315" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G315" s="5">
         <v>310</v>
       </c>
@@ -11959,7 +11972,7 @@
       <c r="V315" s="6"/>
       <c r="W315" s="5"/>
     </row>
-    <row r="316" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="316" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G316" s="5">
         <v>311</v>
       </c>
@@ -11989,7 +12002,7 @@
       <c r="V316" s="6"/>
       <c r="W316" s="5"/>
     </row>
-    <row r="317" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="317" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G317" s="5">
         <v>312</v>
       </c>
@@ -12019,7 +12032,7 @@
       <c r="V317" s="6"/>
       <c r="W317" s="5"/>
     </row>
-    <row r="318" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="318" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G318" s="5">
         <v>313</v>
       </c>
@@ -12049,7 +12062,7 @@
       <c r="V318" s="6"/>
       <c r="W318" s="5"/>
     </row>
-    <row r="319" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="319" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G319" s="5">
         <v>314</v>
       </c>
@@ -12079,7 +12092,7 @@
       <c r="V319" s="6"/>
       <c r="W319" s="5"/>
     </row>
-    <row r="320" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="320" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G320" s="5">
         <v>315</v>
       </c>
@@ -12109,7 +12122,7 @@
       <c r="V320" s="6"/>
       <c r="W320" s="5"/>
     </row>
-    <row r="321" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="321" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G321" s="5">
         <v>316</v>
       </c>
@@ -12139,7 +12152,7 @@
       <c r="V321" s="6"/>
       <c r="W321" s="5"/>
     </row>
-    <row r="322" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="322" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G322" s="5">
         <v>317</v>
       </c>
@@ -12169,7 +12182,7 @@
       <c r="V322" s="6"/>
       <c r="W322" s="5"/>
     </row>
-    <row r="323" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="323" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G323" s="5">
         <v>318</v>
       </c>
@@ -12199,7 +12212,7 @@
       <c r="V323" s="6"/>
       <c r="W323" s="5"/>
     </row>
-    <row r="324" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="324" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G324" s="5">
         <v>319</v>
       </c>
@@ -12229,7 +12242,7 @@
       <c r="V324" s="6"/>
       <c r="W324" s="5"/>
     </row>
-    <row r="325" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="325" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G325" s="5">
         <v>320</v>
       </c>
@@ -12259,7 +12272,7 @@
       <c r="V325" s="6"/>
       <c r="W325" s="5"/>
     </row>
-    <row r="326" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="326" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G326" s="5">
         <v>321</v>
       </c>
@@ -12289,7 +12302,7 @@
       <c r="V326" s="6"/>
       <c r="W326" s="5"/>
     </row>
-    <row r="327" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="327" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G327" s="5">
         <v>322</v>
       </c>
@@ -12319,7 +12332,7 @@
       <c r="V327" s="6"/>
       <c r="W327" s="5"/>
     </row>
-    <row r="328" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="328" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G328" s="5">
         <v>323</v>
       </c>
@@ -12349,7 +12362,7 @@
       <c r="V328" s="6"/>
       <c r="W328" s="5"/>
     </row>
-    <row r="329" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="329" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G329" s="5">
         <v>324</v>
       </c>
@@ -12379,7 +12392,7 @@
       <c r="V329" s="6"/>
       <c r="W329" s="5"/>
     </row>
-    <row r="330" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="330" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G330" s="5">
         <v>325</v>
       </c>
@@ -12409,7 +12422,7 @@
       <c r="V330" s="6"/>
       <c r="W330" s="5"/>
     </row>
-    <row r="331" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="331" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G331" s="5">
         <v>326</v>
       </c>
@@ -12439,7 +12452,7 @@
       <c r="V331" s="6"/>
       <c r="W331" s="5"/>
     </row>
-    <row r="332" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="332" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G332" s="5">
         <v>327</v>
       </c>
@@ -12469,7 +12482,7 @@
       <c r="V332" s="6"/>
       <c r="W332" s="5"/>
     </row>
-    <row r="333" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="333" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G333" s="5">
         <v>328</v>
       </c>
@@ -12499,7 +12512,7 @@
       <c r="V333" s="6"/>
       <c r="W333" s="5"/>
     </row>
-    <row r="334" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="334" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G334" s="5">
         <v>329</v>
       </c>
@@ -12529,7 +12542,7 @@
       <c r="V334" s="6"/>
       <c r="W334" s="5"/>
     </row>
-    <row r="335" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="335" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G335" s="5">
         <v>330</v>
       </c>
@@ -12559,7 +12572,7 @@
       <c r="V335" s="6"/>
       <c r="W335" s="5"/>
     </row>
-    <row r="336" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="336" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G336" s="5">
         <v>331</v>
       </c>
@@ -12589,7 +12602,7 @@
       <c r="V336" s="6"/>
       <c r="W336" s="5"/>
     </row>
-    <row r="337" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="337" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G337" s="5">
         <v>332</v>
       </c>
@@ -12619,7 +12632,7 @@
       <c r="V337" s="6"/>
       <c r="W337" s="5"/>
     </row>
-    <row r="338" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="338" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G338" s="5">
         <v>333</v>
       </c>
@@ -12649,7 +12662,7 @@
       <c r="V338" s="6"/>
       <c r="W338" s="5"/>
     </row>
-    <row r="339" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="339" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G339" s="5">
         <v>334</v>
       </c>
@@ -12679,7 +12692,7 @@
       <c r="V339" s="6"/>
       <c r="W339" s="5"/>
     </row>
-    <row r="340" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="340" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G340" s="5">
         <v>335</v>
       </c>
@@ -12709,7 +12722,7 @@
       <c r="V340" s="6"/>
       <c r="W340" s="5"/>
     </row>
-    <row r="341" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="341" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G341" s="5">
         <v>336</v>
       </c>
@@ -12739,7 +12752,7 @@
       <c r="V341" s="6"/>
       <c r="W341" s="5"/>
     </row>
-    <row r="342" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="342" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G342" s="5">
         <v>337</v>
       </c>
@@ -12769,7 +12782,7 @@
       <c r="V342" s="6"/>
       <c r="W342" s="5"/>
     </row>
-    <row r="343" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="343" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G343" s="5">
         <v>338</v>
       </c>
@@ -12799,7 +12812,7 @@
       <c r="V343" s="6"/>
       <c r="W343" s="5"/>
     </row>
-    <row r="344" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="344" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G344" s="5">
         <v>339</v>
       </c>
@@ -12829,7 +12842,7 @@
       <c r="V344" s="6"/>
       <c r="W344" s="5"/>
     </row>
-    <row r="345" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="345" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G345" s="5">
         <v>340</v>
       </c>
@@ -12859,7 +12872,7 @@
       <c r="V345" s="6"/>
       <c r="W345" s="5"/>
     </row>
-    <row r="346" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="346" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G346" s="5">
         <v>341</v>
       </c>
@@ -12889,7 +12902,7 @@
       <c r="V346" s="6"/>
       <c r="W346" s="5"/>
     </row>
-    <row r="347" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="347" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G347" s="5">
         <v>342</v>
       </c>
@@ -12919,7 +12932,7 @@
       <c r="V347" s="6"/>
       <c r="W347" s="5"/>
     </row>
-    <row r="348" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="348" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G348" s="5">
         <v>343</v>
       </c>
@@ -12949,7 +12962,7 @@
       <c r="V348" s="6"/>
       <c r="W348" s="5"/>
     </row>
-    <row r="349" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="349" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G349" s="5">
         <v>344</v>
       </c>
@@ -12979,7 +12992,7 @@
       <c r="V349" s="6"/>
       <c r="W349" s="5"/>
     </row>
-    <row r="350" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="350" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G350" s="5">
         <v>345</v>
       </c>
@@ -13009,7 +13022,7 @@
       <c r="V350" s="6"/>
       <c r="W350" s="5"/>
     </row>
-    <row r="351" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="351" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G351" s="5">
         <v>346</v>
       </c>
@@ -13039,7 +13052,7 @@
       <c r="V351" s="6"/>
       <c r="W351" s="5"/>
     </row>
-    <row r="352" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="352" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G352" s="5">
         <v>347</v>
       </c>
@@ -13069,7 +13082,7 @@
       <c r="V352" s="6"/>
       <c r="W352" s="5"/>
     </row>
-    <row r="353" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="353" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G353" s="5">
         <v>348</v>
       </c>
@@ -13099,7 +13112,7 @@
       <c r="V353" s="6"/>
       <c r="W353" s="5"/>
     </row>
-    <row r="354" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="354" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G354" s="5">
         <v>349</v>
       </c>
@@ -13129,7 +13142,7 @@
       <c r="V354" s="6"/>
       <c r="W354" s="5"/>
     </row>
-    <row r="355" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="355" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G355" s="5">
         <v>350</v>
       </c>
@@ -13159,7 +13172,7 @@
       <c r="V355" s="6"/>
       <c r="W355" s="5"/>
     </row>
-    <row r="356" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="356" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G356" s="5">
         <v>351</v>
       </c>
@@ -13189,7 +13202,7 @@
       <c r="V356" s="6"/>
       <c r="W356" s="5"/>
     </row>
-    <row r="357" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="357" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G357" s="5">
         <v>352</v>
       </c>
@@ -13219,7 +13232,7 @@
       <c r="V357" s="6"/>
       <c r="W357" s="5"/>
     </row>
-    <row r="358" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="358" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G358" s="5">
         <v>353</v>
       </c>
@@ -13249,7 +13262,7 @@
       <c r="V358" s="6"/>
       <c r="W358" s="5"/>
     </row>
-    <row r="359" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="359" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G359" s="5">
         <v>354</v>
       </c>
@@ -13279,7 +13292,7 @@
       <c r="V359" s="6"/>
       <c r="W359" s="5"/>
     </row>
-    <row r="360" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="360" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G360" s="5">
         <v>355</v>
       </c>
@@ -13309,7 +13322,7 @@
       <c r="V360" s="6"/>
       <c r="W360" s="5"/>
     </row>
-    <row r="361" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="361" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G361" s="5">
         <v>356</v>
       </c>
@@ -13339,7 +13352,7 @@
       <c r="V361" s="6"/>
       <c r="W361" s="5"/>
     </row>
-    <row r="362" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="362" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G362" s="5">
         <v>357</v>
       </c>
@@ -13369,7 +13382,7 @@
       <c r="V362" s="6"/>
       <c r="W362" s="5"/>
     </row>
-    <row r="363" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="363" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G363" s="5">
         <v>358</v>
       </c>
@@ -13399,7 +13412,7 @@
       <c r="V363" s="6"/>
       <c r="W363" s="5"/>
     </row>
-    <row r="364" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="364" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G364" s="5">
         <v>359</v>
       </c>
@@ -13429,7 +13442,7 @@
       <c r="V364" s="6"/>
       <c r="W364" s="5"/>
     </row>
-    <row r="365" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="365" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G365" s="5">
         <v>360</v>
       </c>
@@ -13459,7 +13472,7 @@
       <c r="V365" s="6"/>
       <c r="W365" s="5"/>
     </row>
-    <row r="366" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="366" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G366" s="5">
         <v>361</v>
       </c>
@@ -13489,7 +13502,7 @@
       <c r="V366" s="6"/>
       <c r="W366" s="5"/>
     </row>
-    <row r="367" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="367" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G367" s="5">
         <v>362</v>
       </c>
@@ -13519,7 +13532,7 @@
       <c r="V367" s="6"/>
       <c r="W367" s="5"/>
     </row>
-    <row r="368" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="368" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G368" s="5">
         <v>363</v>
       </c>
@@ -13549,7 +13562,7 @@
       <c r="V368" s="6"/>
       <c r="W368" s="5"/>
     </row>
-    <row r="369" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="369" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G369" s="5">
         <v>364</v>
       </c>
@@ -13579,7 +13592,7 @@
       <c r="V369" s="6"/>
       <c r="W369" s="5"/>
     </row>
-    <row r="370" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="370" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G370" s="5">
         <v>365</v>
       </c>
@@ -13609,7 +13622,7 @@
       <c r="V370" s="6"/>
       <c r="W370" s="5"/>
     </row>
-    <row r="371" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="371" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G371" s="5">
         <v>366</v>
       </c>
@@ -13639,7 +13652,7 @@
       <c r="V371" s="6"/>
       <c r="W371" s="5"/>
     </row>
-    <row r="372" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="372" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G372" s="5">
         <v>367</v>
       </c>
@@ -13669,7 +13682,7 @@
       <c r="V372" s="6"/>
       <c r="W372" s="5"/>
     </row>
-    <row r="373" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="373" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G373" s="5">
         <v>368</v>
       </c>
@@ -13699,7 +13712,7 @@
       <c r="V373" s="6"/>
       <c r="W373" s="5"/>
     </row>
-    <row r="374" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="374" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G374" s="5">
         <v>369</v>
       </c>
@@ -13729,7 +13742,7 @@
       <c r="V374" s="6"/>
       <c r="W374" s="5"/>
     </row>
-    <row r="375" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="375" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G375" s="5">
         <v>370</v>
       </c>
@@ -13759,7 +13772,7 @@
       <c r="V375" s="6"/>
       <c r="W375" s="5"/>
     </row>
-    <row r="376" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="376" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G376" s="5">
         <v>371</v>
       </c>
@@ -13789,7 +13802,7 @@
       <c r="V376" s="6"/>
       <c r="W376" s="5"/>
     </row>
-    <row r="377" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="377" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G377" s="5">
         <v>372</v>
       </c>
@@ -13819,7 +13832,7 @@
       <c r="V377" s="6"/>
       <c r="W377" s="5"/>
     </row>
-    <row r="378" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="378" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G378" s="5">
         <v>373</v>
       </c>
@@ -13849,7 +13862,7 @@
       <c r="V378" s="6"/>
       <c r="W378" s="5"/>
     </row>
-    <row r="379" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="379" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G379" s="5">
         <v>374</v>
       </c>
@@ -13879,7 +13892,7 @@
       <c r="V379" s="6"/>
       <c r="W379" s="5"/>
     </row>
-    <row r="380" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="380" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G380" s="5">
         <v>375</v>
       </c>
@@ -13909,7 +13922,7 @@
       <c r="V380" s="6"/>
       <c r="W380" s="5"/>
     </row>
-    <row r="381" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="381" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G381" s="5">
         <v>376</v>
       </c>
@@ -13939,7 +13952,7 @@
       <c r="V381" s="6"/>
       <c r="W381" s="5"/>
     </row>
-    <row r="382" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="382" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G382" s="5">
         <v>377</v>
       </c>
@@ -13969,7 +13982,7 @@
       <c r="V382" s="6"/>
       <c r="W382" s="5"/>
     </row>
-    <row r="383" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="383" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G383" s="5">
         <v>378</v>
       </c>
@@ -13999,7 +14012,7 @@
       <c r="V383" s="6"/>
       <c r="W383" s="5"/>
     </row>
-    <row r="384" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="384" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G384" s="5">
         <v>379</v>
       </c>
@@ -14029,7 +14042,7 @@
       <c r="V384" s="6"/>
       <c r="W384" s="5"/>
     </row>
-    <row r="385" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="385" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G385" s="5">
         <v>380</v>
       </c>
@@ -14059,7 +14072,7 @@
       <c r="V385" s="6"/>
       <c r="W385" s="5"/>
     </row>
-    <row r="386" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="386" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G386" s="5">
         <v>381</v>
       </c>
@@ -14089,7 +14102,7 @@
       <c r="V386" s="6"/>
       <c r="W386" s="5"/>
     </row>
-    <row r="387" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="387" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G387" s="5">
         <v>382</v>
       </c>
@@ -14119,7 +14132,7 @@
       <c r="V387" s="6"/>
       <c r="W387" s="5"/>
     </row>
-    <row r="388" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="388" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G388" s="5">
         <v>383</v>
       </c>
@@ -14149,7 +14162,7 @@
       <c r="V388" s="6"/>
       <c r="W388" s="5"/>
     </row>
-    <row r="389" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="389" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G389" s="5">
         <v>384</v>
       </c>
@@ -14179,7 +14192,7 @@
       <c r="V389" s="6"/>
       <c r="W389" s="5"/>
     </row>
-    <row r="390" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="390" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G390" s="5">
         <v>385</v>
       </c>
@@ -14209,7 +14222,7 @@
       <c r="V390" s="6"/>
       <c r="W390" s="5"/>
     </row>
-    <row r="391" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="391" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G391" s="5">
         <v>386</v>
       </c>
@@ -14239,7 +14252,7 @@
       <c r="V391" s="6"/>
       <c r="W391" s="5"/>
     </row>
-    <row r="392" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="392" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G392" s="5">
         <v>387</v>
       </c>
@@ -14269,7 +14282,7 @@
       <c r="V392" s="6"/>
       <c r="W392" s="5"/>
     </row>
-    <row r="393" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="393" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G393" s="5">
         <v>388</v>
       </c>
@@ -14299,7 +14312,7 @@
       <c r="V393" s="6"/>
       <c r="W393" s="5"/>
     </row>
-    <row r="394" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="394" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G394" s="5">
         <v>389</v>
       </c>
@@ -14329,7 +14342,7 @@
       <c r="V394" s="6"/>
       <c r="W394" s="5"/>
     </row>
-    <row r="395" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="395" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G395" s="5">
         <v>390</v>
       </c>
@@ -14359,7 +14372,7 @@
       <c r="V395" s="6"/>
       <c r="W395" s="5"/>
     </row>
-    <row r="396" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="396" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G396" s="5">
         <v>391</v>
       </c>
@@ -14389,7 +14402,7 @@
       <c r="V396" s="6"/>
       <c r="W396" s="5"/>
     </row>
-    <row r="397" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="397" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G397" s="5">
         <v>392</v>
       </c>
@@ -14419,7 +14432,7 @@
       <c r="V397" s="6"/>
       <c r="W397" s="5"/>
     </row>
-    <row r="398" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="398" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G398" s="5">
         <v>393</v>
       </c>
@@ -14449,7 +14462,7 @@
       <c r="V398" s="6"/>
       <c r="W398" s="5"/>
     </row>
-    <row r="399" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="399" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G399" s="5">
         <v>394</v>
       </c>
@@ -14479,7 +14492,7 @@
       <c r="V399" s="6"/>
       <c r="W399" s="5"/>
     </row>
-    <row r="400" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="400" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G400" s="5">
         <v>395</v>
       </c>
@@ -14509,7 +14522,7 @@
       <c r="V400" s="6"/>
       <c r="W400" s="5"/>
     </row>
-    <row r="401" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="401" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G401" s="5">
         <v>396</v>
       </c>
@@ -14539,7 +14552,7 @@
       <c r="V401" s="6"/>
       <c r="W401" s="5"/>
     </row>
-    <row r="402" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="402" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G402" s="5">
         <v>397</v>
       </c>
@@ -14569,7 +14582,7 @@
       <c r="V402" s="6"/>
       <c r="W402" s="5"/>
     </row>
-    <row r="403" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="403" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G403" s="5">
         <v>398</v>
       </c>
@@ -14599,7 +14612,7 @@
       <c r="V403" s="6"/>
       <c r="W403" s="5"/>
     </row>
-    <row r="404" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="404" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G404" s="5">
         <v>399</v>
       </c>
@@ -14629,7 +14642,7 @@
       <c r="V404" s="6"/>
       <c r="W404" s="5"/>
     </row>
-    <row r="405" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="405" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G405" s="5">
         <v>400</v>
       </c>
@@ -14659,7 +14672,7 @@
       <c r="V405" s="6"/>
       <c r="W405" s="5"/>
     </row>
-    <row r="406" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="406" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G406" s="5">
         <v>401</v>
       </c>
@@ -14689,7 +14702,7 @@
       <c r="V406" s="6"/>
       <c r="W406" s="5"/>
     </row>
-    <row r="407" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="407" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G407" s="5">
         <v>402</v>
       </c>
@@ -14719,7 +14732,7 @@
       <c r="V407" s="6"/>
       <c r="W407" s="5"/>
     </row>
-    <row r="408" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="408" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G408" s="5">
         <v>403</v>
       </c>
@@ -14749,7 +14762,7 @@
       <c r="V408" s="6"/>
       <c r="W408" s="5"/>
     </row>
-    <row r="409" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="409" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G409" s="5">
         <v>404</v>
       </c>
@@ -14779,7 +14792,7 @@
       <c r="V409" s="6"/>
       <c r="W409" s="5"/>
     </row>
-    <row r="410" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="410" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G410" s="5">
         <v>405</v>
       </c>
@@ -14809,7 +14822,7 @@
       <c r="V410" s="6"/>
       <c r="W410" s="5"/>
     </row>
-    <row r="411" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="411" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G411" s="5">
         <v>406</v>
       </c>
@@ -14839,7 +14852,7 @@
       <c r="V411" s="6"/>
       <c r="W411" s="5"/>
     </row>
-    <row r="412" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="412" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G412" s="5">
         <v>407</v>
       </c>
@@ -14869,7 +14882,7 @@
       <c r="V412" s="6"/>
       <c r="W412" s="5"/>
     </row>
-    <row r="413" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="413" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G413" s="5">
         <v>408</v>
       </c>
@@ -14899,7 +14912,7 @@
       <c r="V413" s="6"/>
       <c r="W413" s="5"/>
     </row>
-    <row r="414" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="414" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G414" s="5">
         <v>409</v>
       </c>
@@ -14929,7 +14942,7 @@
       <c r="V414" s="6"/>
       <c r="W414" s="5"/>
     </row>
-    <row r="415" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="415" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G415" s="5">
         <v>410</v>
       </c>
@@ -14959,7 +14972,7 @@
       <c r="V415" s="6"/>
       <c r="W415" s="5"/>
     </row>
-    <row r="416" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="416" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G416" s="5">
         <v>411</v>
       </c>
@@ -14989,7 +15002,7 @@
       <c r="V416" s="6"/>
       <c r="W416" s="5"/>
     </row>
-    <row r="417" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="417" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G417" s="5">
         <v>412</v>
       </c>
@@ -15019,7 +15032,7 @@
       <c r="V417" s="6"/>
       <c r="W417" s="5"/>
     </row>
-    <row r="418" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="418" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G418" s="5">
         <v>413</v>
       </c>
@@ -15049,7 +15062,7 @@
       <c r="V418" s="6"/>
       <c r="W418" s="5"/>
     </row>
-    <row r="419" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="419" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G419" s="5">
         <v>414</v>
       </c>
@@ -15079,7 +15092,7 @@
       <c r="V419" s="6"/>
       <c r="W419" s="5"/>
     </row>
-    <row r="420" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="420" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G420" s="5">
         <v>415</v>
       </c>
@@ -15109,7 +15122,7 @@
       <c r="V420" s="6"/>
       <c r="W420" s="5"/>
     </row>
-    <row r="421" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="421" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G421" s="5">
         <v>416</v>
       </c>
@@ -15139,7 +15152,7 @@
       <c r="V421" s="6"/>
       <c r="W421" s="5"/>
     </row>
-    <row r="422" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="422" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G422" s="5">
         <v>417</v>
       </c>
@@ -15169,7 +15182,7 @@
       <c r="V422" s="6"/>
       <c r="W422" s="5"/>
     </row>
-    <row r="423" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="423" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G423" s="5">
         <v>418</v>
       </c>
@@ -15199,7 +15212,7 @@
       <c r="V423" s="6"/>
       <c r="W423" s="5"/>
     </row>
-    <row r="424" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="424" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G424" s="5">
         <v>419</v>
       </c>
@@ -15229,7 +15242,7 @@
       <c r="V424" s="6"/>
       <c r="W424" s="5"/>
     </row>
-    <row r="425" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="425" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G425" s="5">
         <v>420</v>
       </c>
@@ -15259,7 +15272,7 @@
       <c r="V425" s="6"/>
       <c r="W425" s="5"/>
     </row>
-    <row r="426" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="426" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G426" s="5">
         <v>421</v>
       </c>
@@ -15289,7 +15302,7 @@
       <c r="V426" s="6"/>
       <c r="W426" s="5"/>
     </row>
-    <row r="427" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="427" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G427" s="5">
         <v>422</v>
       </c>
@@ -15319,7 +15332,7 @@
       <c r="V427" s="6"/>
       <c r="W427" s="5"/>
     </row>
-    <row r="428" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="428" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G428" s="5">
         <v>423</v>
       </c>
@@ -15349,7 +15362,7 @@
       <c r="V428" s="6"/>
       <c r="W428" s="5"/>
     </row>
-    <row r="429" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="429" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G429" s="5">
         <v>424</v>
       </c>
@@ -15379,7 +15392,7 @@
       <c r="V429" s="6"/>
       <c r="W429" s="5"/>
     </row>
-    <row r="430" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="430" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G430" s="5">
         <v>425</v>
       </c>
@@ -15409,7 +15422,7 @@
       <c r="V430" s="6"/>
       <c r="W430" s="5"/>
     </row>
-    <row r="431" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="431" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G431" s="5">
         <v>426</v>
       </c>
@@ -15439,7 +15452,7 @@
       <c r="V431" s="6"/>
       <c r="W431" s="5"/>
     </row>
-    <row r="432" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="432" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G432" s="5">
         <v>427</v>
       </c>
@@ -15469,7 +15482,7 @@
       <c r="V432" s="6"/>
       <c r="W432" s="5"/>
     </row>
-    <row r="433" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="433" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G433" s="5">
         <v>428</v>
       </c>
@@ -15499,7 +15512,7 @@
       <c r="V433" s="6"/>
       <c r="W433" s="5"/>
     </row>
-    <row r="434" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="434" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G434" s="5">
         <v>429</v>
       </c>
@@ -15529,7 +15542,7 @@
       <c r="V434" s="6"/>
       <c r="W434" s="5"/>
     </row>
-    <row r="435" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="435" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G435" s="5">
         <v>430</v>
       </c>
@@ -15559,7 +15572,7 @@
       <c r="V435" s="6"/>
       <c r="W435" s="5"/>
     </row>
-    <row r="436" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="436" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G436" s="5">
         <v>431</v>
       </c>
@@ -15589,7 +15602,7 @@
       <c r="V436" s="6"/>
       <c r="W436" s="5"/>
     </row>
-    <row r="437" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="437" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G437" s="5">
         <v>432</v>
       </c>
@@ -15619,7 +15632,7 @@
       <c r="V437" s="6"/>
       <c r="W437" s="5"/>
     </row>
-    <row r="438" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="438" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G438" s="5">
         <v>433</v>
       </c>
@@ -15649,7 +15662,7 @@
       <c r="V438" s="6"/>
       <c r="W438" s="5"/>
     </row>
-    <row r="439" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="439" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G439" s="5">
         <v>434</v>
       </c>
@@ -15679,7 +15692,7 @@
       <c r="V439" s="6"/>
       <c r="W439" s="5"/>
     </row>
-    <row r="440" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="440" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G440" s="5">
         <v>435</v>
       </c>
@@ -15709,7 +15722,7 @@
       <c r="V440" s="6"/>
       <c r="W440" s="5"/>
     </row>
-    <row r="441" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="441" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G441" s="5">
         <v>436</v>
       </c>
@@ -15739,7 +15752,7 @@
       <c r="V441" s="6"/>
       <c r="W441" s="5"/>
     </row>
-    <row r="442" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="442" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G442" s="5">
         <v>437</v>
       </c>
@@ -15769,7 +15782,7 @@
       <c r="V442" s="6"/>
       <c r="W442" s="5"/>
     </row>
-    <row r="443" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="443" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G443" s="5">
         <v>438</v>
       </c>
@@ -15799,7 +15812,7 @@
       <c r="V443" s="6"/>
       <c r="W443" s="5"/>
     </row>
-    <row r="444" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="444" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G444" s="5">
         <v>439</v>
       </c>
@@ -15829,7 +15842,7 @@
       <c r="V444" s="6"/>
       <c r="W444" s="5"/>
     </row>
-    <row r="445" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="445" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G445" s="5">
         <v>440</v>
       </c>
@@ -15859,7 +15872,7 @@
       <c r="V445" s="6"/>
       <c r="W445" s="5"/>
     </row>
-    <row r="446" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="446" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G446" s="5">
         <v>441</v>
       </c>
@@ -15889,7 +15902,7 @@
       <c r="V446" s="6"/>
       <c r="W446" s="5"/>
     </row>
-    <row r="447" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="447" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G447" s="5">
         <v>442</v>
       </c>
@@ -15919,7 +15932,7 @@
       <c r="V447" s="6"/>
       <c r="W447" s="5"/>
     </row>
-    <row r="448" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="448" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G448" s="5">
         <v>443</v>
       </c>
@@ -15949,7 +15962,7 @@
       <c r="V448" s="6"/>
       <c r="W448" s="5"/>
     </row>
-    <row r="449" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="449" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G449" s="5">
         <v>444</v>
       </c>
@@ -15979,7 +15992,7 @@
       <c r="V449" s="6"/>
       <c r="W449" s="5"/>
     </row>
-    <row r="450" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="450" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G450" s="5">
         <v>445</v>
       </c>
@@ -16009,7 +16022,7 @@
       <c r="V450" s="6"/>
       <c r="W450" s="5"/>
     </row>
-    <row r="451" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="451" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G451" s="5">
         <v>446</v>
       </c>
@@ -16039,7 +16052,7 @@
       <c r="V451" s="6"/>
       <c r="W451" s="5"/>
     </row>
-    <row r="452" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="452" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G452" s="5">
         <v>447</v>
       </c>
@@ -16069,7 +16082,7 @@
       <c r="V452" s="6"/>
       <c r="W452" s="5"/>
     </row>
-    <row r="453" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="453" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G453" s="5">
         <v>448</v>
       </c>
@@ -16099,7 +16112,7 @@
       <c r="V453" s="6"/>
       <c r="W453" s="5"/>
     </row>
-    <row r="454" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="454" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G454" s="5">
         <v>449</v>
       </c>
@@ -16129,7 +16142,7 @@
       <c r="V454" s="6"/>
       <c r="W454" s="5"/>
     </row>
-    <row r="455" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="455" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G455" s="5">
         <v>450</v>
       </c>
@@ -16159,7 +16172,7 @@
       <c r="V455" s="6"/>
       <c r="W455" s="5"/>
     </row>
-    <row r="456" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="456" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G456" s="5">
         <v>451</v>
       </c>
@@ -16189,7 +16202,7 @@
       <c r="V456" s="6"/>
       <c r="W456" s="5"/>
     </row>
-    <row r="457" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="457" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G457" s="5">
         <v>452</v>
       </c>
@@ -16219,7 +16232,7 @@
       <c r="V457" s="6"/>
       <c r="W457" s="5"/>
     </row>
-    <row r="458" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="458" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G458" s="5">
         <v>453</v>
       </c>
@@ -16249,7 +16262,7 @@
       <c r="V458" s="6"/>
       <c r="W458" s="5"/>
     </row>
-    <row r="459" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="459" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G459" s="5">
         <v>454</v>
       </c>
@@ -16279,7 +16292,7 @@
       <c r="V459" s="6"/>
       <c r="W459" s="5"/>
     </row>
-    <row r="460" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="460" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G460" s="5">
         <v>455</v>
       </c>
@@ -16309,7 +16322,7 @@
       <c r="V460" s="6"/>
       <c r="W460" s="5"/>
     </row>
-    <row r="461" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="461" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G461" s="5">
         <v>456</v>
       </c>
@@ -16339,7 +16352,7 @@
       <c r="V461" s="6"/>
       <c r="W461" s="5"/>
     </row>
-    <row r="462" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="462" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G462" s="5">
         <v>457</v>
       </c>
@@ -16369,7 +16382,7 @@
       <c r="V462" s="6"/>
       <c r="W462" s="5"/>
     </row>
-    <row r="463" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="463" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G463" s="5">
         <v>458</v>
       </c>
@@ -16399,7 +16412,7 @@
       <c r="V463" s="6"/>
       <c r="W463" s="5"/>
     </row>
-    <row r="464" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="464" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G464" s="5">
         <v>459</v>
       </c>
@@ -16429,7 +16442,7 @@
       <c r="V464" s="6"/>
       <c r="W464" s="5"/>
     </row>
-    <row r="465" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="465" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G465" s="5">
         <v>460</v>
       </c>
@@ -16459,7 +16472,7 @@
       <c r="V465" s="6"/>
       <c r="W465" s="5"/>
     </row>
-    <row r="466" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="466" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G466" s="5">
         <v>461</v>
       </c>
@@ -16489,7 +16502,7 @@
       <c r="V466" s="6"/>
       <c r="W466" s="5"/>
     </row>
-    <row r="467" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="467" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G467" s="5">
         <v>462</v>
       </c>
@@ -16519,7 +16532,7 @@
       <c r="V467" s="6"/>
       <c r="W467" s="5"/>
     </row>
-    <row r="468" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="468" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G468" s="5">
         <v>463</v>
       </c>
@@ -16549,7 +16562,7 @@
       <c r="V468" s="6"/>
       <c r="W468" s="5"/>
     </row>
-    <row r="469" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="469" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G469" s="5">
         <v>464</v>
       </c>
@@ -16579,7 +16592,7 @@
       <c r="V469" s="6"/>
       <c r="W469" s="5"/>
     </row>
-    <row r="470" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="470" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G470" s="5">
         <v>465</v>
       </c>
@@ -16609,7 +16622,7 @@
       <c r="V470" s="6"/>
       <c r="W470" s="5"/>
     </row>
-    <row r="471" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="471" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G471" s="5">
         <v>466</v>
       </c>
@@ -16639,7 +16652,7 @@
       <c r="V471" s="6"/>
       <c r="W471" s="5"/>
     </row>
-    <row r="472" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="472" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G472" s="5">
         <v>467</v>
       </c>
@@ -16669,7 +16682,7 @@
       <c r="V472" s="6"/>
       <c r="W472" s="5"/>
     </row>
-    <row r="473" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="473" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G473" s="5">
         <v>468</v>
       </c>
@@ -16699,7 +16712,7 @@
       <c r="V473" s="6"/>
       <c r="W473" s="5"/>
     </row>
-    <row r="474" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="474" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G474" s="5">
         <v>469</v>
       </c>
@@ -16729,7 +16742,7 @@
       <c r="V474" s="6"/>
       <c r="W474" s="5"/>
     </row>
-    <row r="475" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="475" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G475" s="5">
         <v>470</v>
       </c>
@@ -16759,7 +16772,7 @@
       <c r="V475" s="6"/>
       <c r="W475" s="5"/>
     </row>
-    <row r="476" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="476" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G476" s="5">
         <v>471</v>
       </c>
@@ -16789,7 +16802,7 @@
       <c r="V476" s="6"/>
       <c r="W476" s="5"/>
     </row>
-    <row r="477" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="477" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G477" s="5">
         <v>472</v>
       </c>
@@ -16819,7 +16832,7 @@
       <c r="V477" s="6"/>
       <c r="W477" s="5"/>
     </row>
-    <row r="478" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="478" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G478" s="5">
         <v>473</v>
       </c>
@@ -16849,7 +16862,7 @@
       <c r="V478" s="6"/>
       <c r="W478" s="5"/>
     </row>
-    <row r="479" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="479" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G479" s="5">
         <v>474</v>
       </c>
@@ -16879,7 +16892,7 @@
       <c r="V479" s="6"/>
       <c r="W479" s="5"/>
     </row>
-    <row r="480" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="480" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G480" s="5">
         <v>475</v>
       </c>
@@ -16909,7 +16922,7 @@
       <c r="V480" s="6"/>
       <c r="W480" s="5"/>
     </row>
-    <row r="481" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="481" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G481" s="5">
         <v>476</v>
       </c>
@@ -16939,7 +16952,7 @@
       <c r="V481" s="6"/>
       <c r="W481" s="5"/>
     </row>
-    <row r="482" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="482" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G482" s="5">
         <v>477</v>
       </c>
@@ -16969,7 +16982,7 @@
       <c r="V482" s="6"/>
       <c r="W482" s="5"/>
     </row>
-    <row r="483" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="483" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G483" s="5">
         <v>478</v>
       </c>
@@ -16999,7 +17012,7 @@
       <c r="V483" s="6"/>
       <c r="W483" s="5"/>
     </row>
-    <row r="484" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="484" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G484" s="5">
         <v>479</v>
       </c>
@@ -17029,7 +17042,7 @@
       <c r="V484" s="6"/>
       <c r="W484" s="5"/>
     </row>
-    <row r="485" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="485" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G485" s="5">
         <v>480</v>
       </c>
@@ -17059,7 +17072,7 @@
       <c r="V485" s="6"/>
       <c r="W485" s="5"/>
     </row>
-    <row r="486" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="486" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G486" s="5">
         <v>481</v>
       </c>
@@ -17089,7 +17102,7 @@
       <c r="V486" s="6"/>
       <c r="W486" s="5"/>
     </row>
-    <row r="487" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="487" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G487" s="5">
         <v>482</v>
       </c>
@@ -17119,7 +17132,7 @@
       <c r="V487" s="6"/>
       <c r="W487" s="5"/>
     </row>
-    <row r="488" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="488" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G488" s="5">
         <v>483</v>
       </c>
@@ -17149,7 +17162,7 @@
       <c r="V488" s="6"/>
       <c r="W488" s="5"/>
     </row>
-    <row r="489" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="489" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G489" s="5">
         <v>484</v>
       </c>
@@ -17179,7 +17192,7 @@
       <c r="V489" s="6"/>
       <c r="W489" s="5"/>
     </row>
-    <row r="490" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="490" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G490" s="5">
         <v>485</v>
       </c>
@@ -17209,7 +17222,7 @@
       <c r="V490" s="6"/>
       <c r="W490" s="5"/>
     </row>
-    <row r="491" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="491" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G491" s="5">
         <v>486</v>
       </c>
@@ -17239,7 +17252,7 @@
       <c r="V491" s="6"/>
       <c r="W491" s="5"/>
     </row>
-    <row r="492" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="492" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G492" s="5">
         <v>487</v>
       </c>
@@ -17269,7 +17282,7 @@
       <c r="V492" s="6"/>
       <c r="W492" s="5"/>
     </row>
-    <row r="493" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="493" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G493" s="5">
         <v>488</v>
       </c>
@@ -17299,7 +17312,7 @@
       <c r="V493" s="6"/>
       <c r="W493" s="5"/>
     </row>
-    <row r="494" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="494" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G494" s="5">
         <v>489</v>
       </c>
@@ -17329,7 +17342,7 @@
       <c r="V494" s="6"/>
       <c r="W494" s="5"/>
     </row>
-    <row r="495" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="495" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G495" s="5">
         <v>490</v>
       </c>
@@ -17359,7 +17372,7 @@
       <c r="V495" s="6"/>
       <c r="W495" s="5"/>
     </row>
-    <row r="496" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="496" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G496" s="5">
         <v>491</v>
       </c>
@@ -17389,7 +17402,7 @@
       <c r="V496" s="6"/>
       <c r="W496" s="5"/>
     </row>
-    <row r="497" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="497" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G497" s="5">
         <v>492</v>
       </c>
@@ -17419,7 +17432,7 @@
       <c r="V497" s="6"/>
       <c r="W497" s="5"/>
     </row>
-    <row r="498" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="498" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G498" s="5">
         <v>493</v>
       </c>
@@ -17449,7 +17462,7 @@
       <c r="V498" s="6"/>
       <c r="W498" s="5"/>
     </row>
-    <row r="499" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="499" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G499" s="5">
         <v>494</v>
       </c>
@@ -17479,7 +17492,7 @@
       <c r="V499" s="6"/>
       <c r="W499" s="5"/>
     </row>
-    <row r="500" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="500" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G500" s="5">
         <v>495</v>
       </c>
@@ -17509,7 +17522,7 @@
       <c r="V500" s="6"/>
       <c r="W500" s="5"/>
     </row>
-    <row r="501" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="501" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G501" s="5">
         <v>496</v>
       </c>
@@ -17539,7 +17552,7 @@
       <c r="V501" s="6"/>
       <c r="W501" s="5"/>
     </row>
-    <row r="502" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="502" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G502" s="5">
         <v>497</v>
       </c>
@@ -17569,7 +17582,7 @@
       <c r="V502" s="6"/>
       <c r="W502" s="5"/>
     </row>
-    <row r="503" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="503" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G503" s="5">
         <v>498</v>
       </c>
@@ -17599,7 +17612,7 @@
       <c r="V503" s="6"/>
       <c r="W503" s="5"/>
     </row>
-    <row r="504" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="504" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G504" s="5">
         <v>499</v>
       </c>
@@ -17629,7 +17642,7 @@
       <c r="V504" s="6"/>
       <c r="W504" s="5"/>
     </row>
-    <row r="505" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="505" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G505" s="5">
         <v>500</v>
       </c>
@@ -17659,7 +17672,7 @@
       <c r="V505" s="6"/>
       <c r="W505" s="5"/>
     </row>
-    <row r="506" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="506" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G506" s="5">
         <v>501</v>
       </c>
@@ -17689,7 +17702,7 @@
       <c r="V506" s="6"/>
       <c r="W506" s="5"/>
     </row>
-    <row r="507" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="507" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G507" s="5">
         <v>502</v>
       </c>
@@ -17719,7 +17732,7 @@
       <c r="V507" s="6"/>
       <c r="W507" s="5"/>
     </row>
-    <row r="508" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="508" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G508" s="5">
         <v>503</v>
       </c>
@@ -17749,7 +17762,7 @@
       <c r="V508" s="6"/>
       <c r="W508" s="5"/>
     </row>
-    <row r="509" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="509" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G509" s="5">
         <v>504</v>
       </c>
@@ -17779,7 +17792,7 @@
       <c r="V509" s="6"/>
       <c r="W509" s="5"/>
     </row>
-    <row r="510" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="510" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G510" s="5">
         <v>505</v>
       </c>
@@ -17809,7 +17822,7 @@
       <c r="V510" s="6"/>
       <c r="W510" s="5"/>
     </row>
-    <row r="511" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="511" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G511" s="5">
         <v>506</v>
       </c>
@@ -17839,7 +17852,7 @@
       <c r="V511" s="6"/>
       <c r="W511" s="5"/>
     </row>
-    <row r="512" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="512" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G512" s="5">
         <v>507</v>
       </c>
@@ -17869,7 +17882,7 @@
       <c r="V512" s="6"/>
       <c r="W512" s="5"/>
     </row>
-    <row r="513" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="513" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G513" s="5">
         <v>508</v>
       </c>
@@ -17899,7 +17912,7 @@
       <c r="V513" s="6"/>
       <c r="W513" s="5"/>
     </row>
-    <row r="514" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="514" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G514" s="5">
         <v>509</v>
       </c>
@@ -17929,7 +17942,7 @@
       <c r="V514" s="6"/>
       <c r="W514" s="5"/>
     </row>
-    <row r="515" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="515" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G515" s="5">
         <v>510</v>
       </c>
@@ -17959,7 +17972,7 @@
       <c r="V515" s="6"/>
       <c r="W515" s="5"/>
     </row>
-    <row r="516" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="516" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G516" s="5">
         <v>511</v>
       </c>
@@ -17989,7 +18002,7 @@
       <c r="V516" s="6"/>
       <c r="W516" s="5"/>
     </row>
-    <row r="517" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="517" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G517" s="5">
         <v>512</v>
       </c>
@@ -18019,7 +18032,7 @@
       <c r="V517" s="6"/>
       <c r="W517" s="5"/>
     </row>
-    <row r="518" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="518" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G518" s="5">
         <v>513</v>
       </c>
@@ -18049,7 +18062,7 @@
       <c r="V518" s="6"/>
       <c r="W518" s="5"/>
     </row>
-    <row r="519" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="519" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G519" s="5">
         <v>514</v>
       </c>
@@ -18079,7 +18092,7 @@
       <c r="V519" s="6"/>
       <c r="W519" s="5"/>
     </row>
-    <row r="520" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="520" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G520" s="5">
         <v>515</v>
       </c>
@@ -18109,7 +18122,7 @@
       <c r="V520" s="6"/>
       <c r="W520" s="5"/>
     </row>
-    <row r="521" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="521" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G521" s="5">
         <v>516</v>
       </c>
@@ -18139,7 +18152,7 @@
       <c r="V521" s="6"/>
       <c r="W521" s="5"/>
     </row>
-    <row r="522" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="522" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G522" s="5">
         <v>517</v>
       </c>
@@ -18169,7 +18182,7 @@
       <c r="V522" s="6"/>
       <c r="W522" s="5"/>
     </row>
-    <row r="523" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="523" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G523" s="5">
         <v>518</v>
       </c>
@@ -18199,7 +18212,7 @@
       <c r="V523" s="6"/>
       <c r="W523" s="5"/>
     </row>
-    <row r="524" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="524" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G524" s="5">
         <v>519</v>
       </c>
@@ -18229,7 +18242,7 @@
       <c r="V524" s="6"/>
       <c r="W524" s="5"/>
     </row>
-    <row r="525" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="525" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G525" s="5">
         <v>520</v>
       </c>
@@ -18259,7 +18272,7 @@
       <c r="V525" s="6"/>
       <c r="W525" s="5"/>
     </row>
-    <row r="526" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="526" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G526" s="5">
         <v>521</v>
       </c>
@@ -18289,7 +18302,7 @@
       <c r="V526" s="6"/>
       <c r="W526" s="5"/>
     </row>
-    <row r="527" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="527" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G527" s="5">
         <v>522</v>
       </c>
@@ -18319,7 +18332,7 @@
       <c r="V527" s="6"/>
       <c r="W527" s="5"/>
     </row>
-    <row r="528" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="528" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G528" s="5">
         <v>523</v>
       </c>
@@ -18349,7 +18362,7 @@
       <c r="V528" s="6"/>
       <c r="W528" s="5"/>
     </row>
-    <row r="529" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="529" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G529" s="5">
         <v>524</v>
       </c>
@@ -18379,7 +18392,7 @@
       <c r="V529" s="6"/>
       <c r="W529" s="5"/>
     </row>
-    <row r="530" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="530" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G530" s="5">
         <v>525</v>
       </c>
@@ -18409,7 +18422,7 @@
       <c r="V530" s="6"/>
       <c r="W530" s="5"/>
     </row>
-    <row r="531" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="531" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G531" s="5">
         <v>526</v>
       </c>
@@ -18439,7 +18452,7 @@
       <c r="V531" s="6"/>
       <c r="W531" s="5"/>
     </row>
-    <row r="532" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="532" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G532" s="5">
         <v>527</v>
       </c>
@@ -18469,7 +18482,7 @@
       <c r="V532" s="6"/>
       <c r="W532" s="5"/>
     </row>
-    <row r="533" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="533" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G533" s="5">
         <v>528</v>
       </c>
@@ -18499,7 +18512,7 @@
       <c r="V533" s="6"/>
       <c r="W533" s="5"/>
     </row>
-    <row r="534" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="534" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G534" s="5">
         <v>529</v>
       </c>
@@ -18529,7 +18542,7 @@
       <c r="V534" s="6"/>
       <c r="W534" s="5"/>
     </row>
-    <row r="535" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="535" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G535" s="5">
         <v>530</v>
       </c>
@@ -18559,7 +18572,7 @@
       <c r="V535" s="6"/>
       <c r="W535" s="5"/>
     </row>
-    <row r="536" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="536" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G536" s="5">
         <v>531</v>
       </c>
@@ -18589,7 +18602,7 @@
       <c r="V536" s="6"/>
       <c r="W536" s="5"/>
     </row>
-    <row r="537" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="537" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G537" s="5">
         <v>532</v>
       </c>
@@ -18619,7 +18632,7 @@
       <c r="V537" s="6"/>
       <c r="W537" s="5"/>
     </row>
-    <row r="538" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="538" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G538" s="5">
         <v>533</v>
       </c>
@@ -18649,7 +18662,7 @@
       <c r="V538" s="6"/>
       <c r="W538" s="5"/>
     </row>
-    <row r="539" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="539" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G539" s="5">
         <v>534</v>
       </c>
@@ -18679,7 +18692,7 @@
       <c r="V539" s="6"/>
       <c r="W539" s="5"/>
     </row>
-    <row r="540" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="540" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G540" s="5">
         <v>535</v>
       </c>
@@ -18709,7 +18722,7 @@
       <c r="V540" s="6"/>
       <c r="W540" s="5"/>
     </row>
-    <row r="541" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="541" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G541" s="5">
         <v>536</v>
       </c>
@@ -18739,7 +18752,7 @@
       <c r="V541" s="6"/>
       <c r="W541" s="5"/>
     </row>
-    <row r="542" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="542" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G542" s="5">
         <v>537</v>
       </c>
@@ -18769,7 +18782,7 @@
       <c r="V542" s="6"/>
       <c r="W542" s="5"/>
     </row>
-    <row r="543" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="543" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G543" s="5">
         <v>538</v>
       </c>
@@ -18799,7 +18812,7 @@
       <c r="V543" s="6"/>
       <c r="W543" s="5"/>
     </row>
-    <row r="544" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="544" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G544" s="5">
         <v>539</v>
       </c>
@@ -18829,7 +18842,7 @@
       <c r="V544" s="6"/>
       <c r="W544" s="5"/>
     </row>
-    <row r="545" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="545" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G545" s="5">
         <v>540</v>
       </c>
@@ -18859,7 +18872,7 @@
       <c r="V545" s="6"/>
       <c r="W545" s="5"/>
     </row>
-    <row r="546" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="546" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G546" s="5">
         <v>541</v>
       </c>
@@ -18889,7 +18902,7 @@
       <c r="V546" s="6"/>
       <c r="W546" s="5"/>
     </row>
-    <row r="547" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="547" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G547" s="5">
         <v>542</v>
       </c>
@@ -18919,7 +18932,7 @@
       <c r="V547" s="6"/>
       <c r="W547" s="5"/>
     </row>
-    <row r="548" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="548" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G548" s="5">
         <v>543</v>
       </c>
@@ -18949,7 +18962,7 @@
       <c r="V548" s="6"/>
       <c r="W548" s="5"/>
     </row>
-    <row r="549" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="549" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G549" s="5">
         <v>544</v>
       </c>
@@ -18979,7 +18992,7 @@
       <c r="V549" s="6"/>
       <c r="W549" s="5"/>
     </row>
-    <row r="550" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="550" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G550" s="5">
         <v>545</v>
       </c>
@@ -19009,7 +19022,7 @@
       <c r="V550" s="6"/>
       <c r="W550" s="5"/>
     </row>
-    <row r="551" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="551" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G551" s="5">
         <v>546</v>
       </c>
@@ -19039,7 +19052,7 @@
       <c r="V551" s="6"/>
       <c r="W551" s="5"/>
     </row>
-    <row r="552" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="552" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G552" s="5">
         <v>547</v>
       </c>
@@ -19069,7 +19082,7 @@
       <c r="V552" s="6"/>
       <c r="W552" s="5"/>
     </row>
-    <row r="553" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="553" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G553" s="5">
         <v>548</v>
       </c>
@@ -19099,7 +19112,7 @@
       <c r="V553" s="6"/>
       <c r="W553" s="5"/>
     </row>
-    <row r="554" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="554" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G554" s="5">
         <v>549</v>
       </c>
@@ -19129,7 +19142,7 @@
       <c r="V554" s="6"/>
       <c r="W554" s="5"/>
     </row>
-    <row r="555" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="555" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G555" s="5">
         <v>550</v>
       </c>
@@ -19159,7 +19172,7 @@
       <c r="V555" s="6"/>
       <c r="W555" s="5"/>
     </row>
-    <row r="556" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="556" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G556" s="5">
         <v>551</v>
       </c>
@@ -19189,7 +19202,7 @@
       <c r="V556" s="6"/>
       <c r="W556" s="5"/>
     </row>
-    <row r="557" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="557" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G557" s="5">
         <v>552</v>
       </c>
@@ -19219,7 +19232,7 @@
       <c r="V557" s="6"/>
       <c r="W557" s="5"/>
     </row>
-    <row r="558" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="558" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G558" s="5">
         <v>553</v>
       </c>
@@ -19249,7 +19262,7 @@
       <c r="V558" s="6"/>
       <c r="W558" s="5"/>
     </row>
-    <row r="559" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="559" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G559" s="5">
         <v>554</v>
       </c>
@@ -19279,7 +19292,7 @@
       <c r="V559" s="6"/>
       <c r="W559" s="5"/>
     </row>
-    <row r="560" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="560" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G560" s="5">
         <v>555</v>
       </c>
@@ -19309,7 +19322,7 @@
       <c r="V560" s="6"/>
       <c r="W560" s="5"/>
     </row>
-    <row r="561" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="561" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G561" s="5">
         <v>556</v>
       </c>
@@ -19339,7 +19352,7 @@
       <c r="V561" s="6"/>
       <c r="W561" s="5"/>
     </row>
-    <row r="562" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="562" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G562" s="5">
         <v>557</v>
       </c>
@@ -19369,7 +19382,7 @@
       <c r="V562" s="6"/>
       <c r="W562" s="5"/>
     </row>
-    <row r="563" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="563" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G563" s="5">
         <v>558</v>
       </c>
@@ -19399,7 +19412,7 @@
       <c r="V563" s="6"/>
       <c r="W563" s="5"/>
     </row>
-    <row r="564" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="564" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G564" s="5">
         <v>559</v>
       </c>
@@ -19429,7 +19442,7 @@
       <c r="V564" s="6"/>
       <c r="W564" s="5"/>
     </row>
-    <row r="565" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="565" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G565" s="5">
         <v>560</v>
       </c>
@@ -19459,7 +19472,7 @@
       <c r="V565" s="6"/>
       <c r="W565" s="5"/>
     </row>
-    <row r="566" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="566" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G566" s="5">
         <v>561</v>
       </c>
@@ -19489,7 +19502,7 @@
       <c r="V566" s="6"/>
       <c r="W566" s="5"/>
     </row>
-    <row r="567" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="567" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G567" s="5">
         <v>562</v>
       </c>
@@ -19519,7 +19532,7 @@
       <c r="V567" s="6"/>
       <c r="W567" s="5"/>
     </row>
-    <row r="568" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="568" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G568" s="5">
         <v>563</v>
       </c>
@@ -19549,7 +19562,7 @@
       <c r="V568" s="6"/>
       <c r="W568" s="5"/>
     </row>
-    <row r="569" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="569" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G569" s="5">
         <v>564</v>
       </c>
@@ -19579,7 +19592,7 @@
       <c r="V569" s="6"/>
       <c r="W569" s="5"/>
     </row>
-    <row r="570" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="570" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G570" s="5">
         <v>565</v>
       </c>
@@ -19609,7 +19622,7 @@
       <c r="V570" s="6"/>
       <c r="W570" s="5"/>
     </row>
-    <row r="571" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="571" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G571" s="5">
         <v>566</v>
       </c>
@@ -19639,7 +19652,7 @@
       <c r="V571" s="6"/>
       <c r="W571" s="5"/>
     </row>
-    <row r="572" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="572" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G572" s="5">
         <v>567</v>
       </c>
@@ -19669,7 +19682,7 @@
       <c r="V572" s="6"/>
       <c r="W572" s="5"/>
     </row>
-    <row r="573" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="573" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G573" s="5">
         <v>568</v>
       </c>
@@ -19699,7 +19712,7 @@
       <c r="V573" s="6"/>
       <c r="W573" s="5"/>
     </row>
-    <row r="574" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="574" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G574" s="5">
         <v>569</v>
       </c>
@@ -19729,7 +19742,7 @@
       <c r="V574" s="6"/>
       <c r="W574" s="5"/>
     </row>
-    <row r="575" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="575" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G575" s="5">
         <v>570</v>
       </c>
@@ -19759,7 +19772,7 @@
       <c r="V575" s="6"/>
       <c r="W575" s="5"/>
     </row>
-    <row r="576" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="576" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G576" s="5">
         <v>571</v>
       </c>
@@ -19789,7 +19802,7 @@
       <c r="V576" s="6"/>
       <c r="W576" s="5"/>
     </row>
-    <row r="577" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="577" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G577" s="5">
         <v>572</v>
       </c>
@@ -19819,7 +19832,7 @@
       <c r="V577" s="6"/>
       <c r="W577" s="5"/>
     </row>
-    <row r="578" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="578" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G578" s="5">
         <v>573</v>
       </c>
@@ -19849,7 +19862,7 @@
       <c r="V578" s="6"/>
       <c r="W578" s="5"/>
     </row>
-    <row r="579" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="579" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G579" s="5">
         <v>574</v>
       </c>
@@ -19879,7 +19892,7 @@
       <c r="V579" s="6"/>
       <c r="W579" s="5"/>
     </row>
-    <row r="580" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="580" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G580" s="5">
         <v>575</v>
       </c>
@@ -19909,7 +19922,7 @@
       <c r="V580" s="6"/>
       <c r="W580" s="5"/>
     </row>
-    <row r="581" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="581" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G581" s="5">
         <v>576</v>
       </c>
@@ -19939,7 +19952,7 @@
       <c r="V581" s="6"/>
       <c r="W581" s="5"/>
     </row>
-    <row r="582" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="582" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G582" s="5">
         <v>577</v>
       </c>
@@ -19969,7 +19982,7 @@
       <c r="V582" s="6"/>
       <c r="W582" s="5"/>
     </row>
-    <row r="583" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="583" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G583" s="5">
         <v>578</v>
       </c>
@@ -19999,7 +20012,7 @@
       <c r="V583" s="6"/>
       <c r="W583" s="5"/>
     </row>
-    <row r="584" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="584" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G584" s="5">
         <v>579</v>
       </c>
@@ -20029,7 +20042,7 @@
       <c r="V584" s="6"/>
       <c r="W584" s="5"/>
     </row>
-    <row r="585" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="585" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G585" s="5">
         <v>580</v>
       </c>
@@ -20059,7 +20072,7 @@
       <c r="V585" s="6"/>
       <c r="W585" s="5"/>
     </row>
-    <row r="586" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="586" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G586" s="5">
         <v>581</v>
       </c>
@@ -20089,7 +20102,7 @@
       <c r="V586" s="6"/>
       <c r="W586" s="5"/>
     </row>
-    <row r="587" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="587" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G587" s="5">
         <v>582</v>
       </c>
@@ -20119,7 +20132,7 @@
       <c r="V587" s="6"/>
       <c r="W587" s="5"/>
     </row>
-    <row r="588" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="588" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G588" s="5">
         <v>583</v>
       </c>
@@ -20149,7 +20162,7 @@
       <c r="V588" s="6"/>
       <c r="W588" s="5"/>
     </row>
-    <row r="589" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="589" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G589" s="5">
         <v>584</v>
       </c>
@@ -20179,7 +20192,7 @@
       <c r="V589" s="6"/>
       <c r="W589" s="5"/>
     </row>
-    <row r="590" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="590" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G590" s="5">
         <v>585</v>
       </c>
@@ -20209,7 +20222,7 @@
       <c r="V590" s="6"/>
       <c r="W590" s="5"/>
     </row>
-    <row r="591" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="591" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G591" s="5">
         <v>586</v>
       </c>
@@ -20239,7 +20252,7 @@
       <c r="V591" s="6"/>
       <c r="W591" s="5"/>
     </row>
-    <row r="592" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="592" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G592" s="5">
         <v>587</v>
       </c>
@@ -20269,7 +20282,7 @@
       <c r="V592" s="6"/>
       <c r="W592" s="5"/>
     </row>
-    <row r="593" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="593" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G593" s="5">
         <v>588</v>
       </c>
@@ -20299,7 +20312,7 @@
       <c r="V593" s="6"/>
       <c r="W593" s="5"/>
     </row>
-    <row r="594" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="594" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G594" s="5">
         <v>589</v>
       </c>
@@ -20329,7 +20342,7 @@
       <c r="V594" s="6"/>
       <c r="W594" s="5"/>
     </row>
-    <row r="595" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="595" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G595" s="5">
         <v>590</v>
       </c>
@@ -20359,7 +20372,7 @@
       <c r="V595" s="6"/>
       <c r="W595" s="5"/>
     </row>
-    <row r="596" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="596" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G596" s="5">
         <v>591</v>
       </c>
@@ -20389,7 +20402,7 @@
       <c r="V596" s="6"/>
       <c r="W596" s="5"/>
     </row>
-    <row r="597" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="597" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G597" s="5">
         <v>592</v>
       </c>
@@ -20419,7 +20432,7 @@
       <c r="V597" s="6"/>
       <c r="W597" s="5"/>
     </row>
-    <row r="598" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="598" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G598" s="5">
         <v>593</v>
       </c>
@@ -20449,7 +20462,7 @@
       <c r="V598" s="6"/>
       <c r="W598" s="5"/>
     </row>
-    <row r="599" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="599" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G599" s="5">
         <v>594</v>
       </c>
@@ -20479,7 +20492,7 @@
       <c r="V599" s="6"/>
       <c r="W599" s="5"/>
     </row>
-    <row r="600" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="600" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G600" s="5">
         <v>595</v>
       </c>
@@ -20509,7 +20522,7 @@
       <c r="V600" s="6"/>
       <c r="W600" s="5"/>
     </row>
-    <row r="601" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="601" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G601" s="5">
         <v>596</v>
       </c>
@@ -20539,7 +20552,7 @@
       <c r="V601" s="6"/>
       <c r="W601" s="5"/>
     </row>
-    <row r="602" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="602" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G602" s="5">
         <v>597</v>
       </c>
@@ -20569,7 +20582,7 @@
       <c r="V602" s="6"/>
       <c r="W602" s="5"/>
     </row>
-    <row r="603" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="603" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G603" s="5">
         <v>598</v>
       </c>
@@ -20599,7 +20612,7 @@
       <c r="V603" s="6"/>
       <c r="W603" s="5"/>
     </row>
-    <row r="604" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="604" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G604" s="5">
         <v>599</v>
       </c>
@@ -20629,7 +20642,7 @@
       <c r="V604" s="6"/>
       <c r="W604" s="5"/>
     </row>
-    <row r="605" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="605" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G605" s="5">
         <v>600</v>
       </c>
@@ -20659,7 +20672,7 @@
       <c r="V605" s="6"/>
       <c r="W605" s="5"/>
     </row>
-    <row r="606" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="606" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G606" s="5">
         <v>601</v>
       </c>
@@ -20689,7 +20702,7 @@
       <c r="V606" s="6"/>
       <c r="W606" s="5"/>
     </row>
-    <row r="607" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="607" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G607" s="5">
         <v>602</v>
       </c>
@@ -20719,7 +20732,7 @@
       <c r="V607" s="6"/>
       <c r="W607" s="5"/>
     </row>
-    <row r="608" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="608" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G608" s="5">
         <v>603</v>
       </c>
@@ -20749,7 +20762,7 @@
       <c r="V608" s="6"/>
       <c r="W608" s="5"/>
     </row>
-    <row r="609" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="609" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G609" s="5">
         <v>604</v>
       </c>
@@ -20779,7 +20792,7 @@
       <c r="V609" s="6"/>
       <c r="W609" s="5"/>
     </row>
-    <row r="610" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="610" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G610" s="5">
         <v>605</v>
       </c>
@@ -20809,7 +20822,7 @@
       <c r="V610" s="6"/>
       <c r="W610" s="5"/>
     </row>
-    <row r="611" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="611" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G611" s="5">
         <v>606</v>
       </c>
@@ -20839,7 +20852,7 @@
       <c r="V611" s="6"/>
       <c r="W611" s="5"/>
     </row>
-    <row r="612" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="612" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G612" s="5">
         <v>607</v>
       </c>
@@ -20869,7 +20882,7 @@
       <c r="V612" s="6"/>
       <c r="W612" s="5"/>
     </row>
-    <row r="613" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="613" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G613" s="5">
         <v>608</v>
       </c>
@@ -20899,7 +20912,7 @@
       <c r="V613" s="6"/>
       <c r="W613" s="5"/>
     </row>
-    <row r="614" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="614" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G614" s="5">
         <v>609</v>
       </c>
@@ -20929,7 +20942,7 @@
       <c r="V614" s="6"/>
       <c r="W614" s="5"/>
     </row>
-    <row r="615" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="615" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G615" s="5">
         <v>610</v>
       </c>
@@ -20959,7 +20972,7 @@
       <c r="V615" s="6"/>
       <c r="W615" s="5"/>
     </row>
-    <row r="616" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="616" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G616" s="5">
         <v>611</v>
       </c>
@@ -20989,7 +21002,7 @@
       <c r="V616" s="6"/>
       <c r="W616" s="5"/>
     </row>
-    <row r="617" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="617" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G617" s="5">
         <v>612</v>
       </c>
@@ -21019,7 +21032,7 @@
       <c r="V617" s="6"/>
       <c r="W617" s="5"/>
     </row>
-    <row r="618" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="618" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G618" s="5">
         <v>613</v>
       </c>
@@ -21049,7 +21062,7 @@
       <c r="V618" s="6"/>
       <c r="W618" s="5"/>
     </row>
-    <row r="619" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="619" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G619" s="5">
         <v>614</v>
       </c>
@@ -21079,7 +21092,7 @@
       <c r="V619" s="6"/>
       <c r="W619" s="5"/>
     </row>
-    <row r="620" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="620" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G620" s="5">
         <v>615</v>
       </c>
@@ -21109,7 +21122,7 @@
       <c r="V620" s="6"/>
       <c r="W620" s="5"/>
     </row>
-    <row r="621" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="621" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G621" s="5">
         <v>616</v>
       </c>
@@ -21139,7 +21152,7 @@
       <c r="V621" s="6"/>
       <c r="W621" s="5"/>
     </row>
-    <row r="622" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="622" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G622" s="5">
         <v>617</v>
       </c>
@@ -21169,7 +21182,7 @@
       <c r="V622" s="6"/>
       <c r="W622" s="5"/>
     </row>
-    <row r="623" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="623" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G623" s="5">
         <v>618</v>
       </c>
@@ -21199,7 +21212,7 @@
       <c r="V623" s="6"/>
       <c r="W623" s="5"/>
     </row>
-    <row r="624" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="624" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G624" s="5">
         <v>619</v>
       </c>
@@ -21229,7 +21242,7 @@
       <c r="V624" s="6"/>
       <c r="W624" s="5"/>
     </row>
-    <row r="625" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="625" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G625" s="5">
         <v>620</v>
       </c>
@@ -21259,7 +21272,7 @@
       <c r="V625" s="6"/>
       <c r="W625" s="5"/>
     </row>
-    <row r="626" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="626" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G626" s="5">
         <v>621</v>
       </c>
@@ -21289,7 +21302,7 @@
       <c r="V626" s="6"/>
       <c r="W626" s="5"/>
     </row>
-    <row r="627" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="627" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G627" s="5">
         <v>622</v>
       </c>
@@ -21319,7 +21332,7 @@
       <c r="V627" s="6"/>
       <c r="W627" s="5"/>
     </row>
-    <row r="628" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="628" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G628" s="5">
         <v>623</v>
       </c>
@@ -21349,7 +21362,7 @@
       <c r="V628" s="6"/>
       <c r="W628" s="5"/>
     </row>
-    <row r="629" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="629" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G629" s="5">
         <v>624</v>
       </c>
@@ -21379,7 +21392,7 @@
       <c r="V629" s="6"/>
       <c r="W629" s="5"/>
     </row>
-    <row r="630" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="630" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G630" s="5">
         <v>625</v>
       </c>
@@ -21409,7 +21422,7 @@
       <c r="V630" s="6"/>
       <c r="W630" s="5"/>
     </row>
-    <row r="631" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="631" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G631" s="5">
         <v>626</v>
       </c>
@@ -21439,7 +21452,7 @@
       <c r="V631" s="6"/>
       <c r="W631" s="5"/>
     </row>
-    <row r="632" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="632" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G632" s="5">
         <v>627</v>
       </c>
@@ -21469,7 +21482,7 @@
       <c r="V632" s="6"/>
       <c r="W632" s="5"/>
     </row>
-    <row r="633" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="633" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G633" s="5">
         <v>628</v>
       </c>
@@ -21499,7 +21512,7 @@
       <c r="V633" s="6"/>
       <c r="W633" s="5"/>
     </row>
-    <row r="634" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="634" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G634" s="5">
         <v>629</v>
       </c>
@@ -21529,7 +21542,7 @@
       <c r="V634" s="6"/>
       <c r="W634" s="5"/>
     </row>
-    <row r="635" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="635" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G635" s="5">
         <v>630</v>
       </c>
@@ -21559,7 +21572,7 @@
       <c r="V635" s="6"/>
       <c r="W635" s="5"/>
     </row>
-    <row r="636" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="636" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G636" s="5">
         <v>631</v>
       </c>
@@ -21589,7 +21602,7 @@
       <c r="V636" s="6"/>
       <c r="W636" s="5"/>
     </row>
-    <row r="637" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="637" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G637" s="5">
         <v>632</v>
       </c>
@@ -21619,7 +21632,7 @@
       <c r="V637" s="6"/>
       <c r="W637" s="5"/>
     </row>
-    <row r="638" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="638" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G638" s="5">
         <v>633</v>
       </c>
@@ -21649,7 +21662,7 @@
       <c r="V638" s="6"/>
       <c r="W638" s="5"/>
     </row>
-    <row r="639" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="639" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G639" s="5">
         <v>634</v>
       </c>
@@ -21679,7 +21692,7 @@
       <c r="V639" s="6"/>
       <c r="W639" s="5"/>
     </row>
-    <row r="640" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="640" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G640" s="5">
         <v>635</v>
       </c>
@@ -21709,7 +21722,7 @@
       <c r="V640" s="6"/>
       <c r="W640" s="5"/>
     </row>
-    <row r="641" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="641" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G641" s="5">
         <v>636</v>
       </c>
@@ -21739,7 +21752,7 @@
       <c r="V641" s="6"/>
       <c r="W641" s="5"/>
     </row>
-    <row r="642" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="642" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G642" s="5">
         <v>637</v>
       </c>
@@ -21769,7 +21782,7 @@
       <c r="V642" s="6"/>
       <c r="W642" s="5"/>
     </row>
-    <row r="643" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="643" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G643" s="5">
         <v>638</v>
       </c>
@@ -21799,7 +21812,7 @@
       <c r="V643" s="6"/>
       <c r="W643" s="5"/>
     </row>
-    <row r="644" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="644" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G644" s="5">
         <v>639</v>
       </c>
@@ -21829,7 +21842,7 @@
       <c r="V644" s="6"/>
       <c r="W644" s="5"/>
     </row>
-    <row r="645" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="645" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G645" s="5">
         <v>640</v>
       </c>
@@ -21859,7 +21872,7 @@
       <c r="V645" s="6"/>
       <c r="W645" s="5"/>
     </row>
-    <row r="646" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="646" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G646" s="5">
         <v>641</v>
       </c>
@@ -21889,7 +21902,7 @@
       <c r="V646" s="6"/>
       <c r="W646" s="5"/>
     </row>
-    <row r="647" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="647" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G647" s="5">
         <v>642</v>
       </c>
@@ -21919,7 +21932,7 @@
       <c r="V647" s="6"/>
       <c r="W647" s="5"/>
     </row>
-    <row r="648" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="648" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G648" s="5">
         <v>643</v>
       </c>
@@ -21949,7 +21962,7 @@
       <c r="V648" s="6"/>
       <c r="W648" s="5"/>
     </row>
-    <row r="649" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="649" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G649" s="5">
         <v>644</v>
       </c>
@@ -21979,7 +21992,7 @@
       <c r="V649" s="6"/>
       <c r="W649" s="5"/>
     </row>
-    <row r="650" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="650" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G650" s="5">
         <v>645</v>
       </c>
@@ -22009,7 +22022,7 @@
       <c r="V650" s="6"/>
       <c r="W650" s="5"/>
     </row>
-    <row r="651" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="651" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G651" s="5">
         <v>646</v>
       </c>
@@ -22039,7 +22052,7 @@
       <c r="V651" s="6"/>
       <c r="W651" s="5"/>
     </row>
-    <row r="652" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="652" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G652" s="5">
         <v>647</v>
       </c>
@@ -22069,7 +22082,7 @@
       <c r="V652" s="6"/>
       <c r="W652" s="5"/>
     </row>
-    <row r="653" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="653" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G653" s="5">
         <v>648</v>
       </c>
@@ -22099,7 +22112,7 @@
       <c r="V653" s="6"/>
       <c r="W653" s="5"/>
     </row>
-    <row r="654" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="654" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G654" s="5">
         <v>649</v>
       </c>
@@ -22129,7 +22142,7 @@
       <c r="V654" s="6"/>
       <c r="W654" s="5"/>
     </row>
-    <row r="655" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="655" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G655" s="5">
         <v>650</v>
       </c>
@@ -22159,7 +22172,7 @@
       <c r="V655" s="6"/>
       <c r="W655" s="5"/>
     </row>
-    <row r="656" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="656" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G656" s="5">
         <v>651</v>
       </c>
@@ -22189,7 +22202,7 @@
       <c r="V656" s="6"/>
       <c r="W656" s="5"/>
     </row>
-    <row r="657" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="657" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G657" s="5">
         <v>652</v>
       </c>
@@ -22219,7 +22232,7 @@
       <c r="V657" s="6"/>
       <c r="W657" s="5"/>
     </row>
-    <row r="658" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="658" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G658" s="5">
         <v>653</v>
       </c>
@@ -22249,7 +22262,7 @@
       <c r="V658" s="6"/>
       <c r="W658" s="5"/>
     </row>
-    <row r="659" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="659" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G659" s="5">
         <v>654</v>
       </c>
@@ -22279,7 +22292,7 @@
       <c r="V659" s="6"/>
       <c r="W659" s="5"/>
     </row>
-    <row r="660" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="660" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G660" s="5">
         <v>655</v>
       </c>
@@ -22309,7 +22322,7 @@
       <c r="V660" s="6"/>
       <c r="W660" s="5"/>
     </row>
-    <row r="661" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="661" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G661" s="5">
         <v>656</v>
       </c>
@@ -22339,7 +22352,7 @@
       <c r="V661" s="6"/>
       <c r="W661" s="5"/>
     </row>
-    <row r="662" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="662" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G662" s="5">
         <v>657</v>
       </c>
@@ -22369,7 +22382,7 @@
       <c r="V662" s="6"/>
       <c r="W662" s="5"/>
     </row>
-    <row r="663" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="663" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G663" s="5">
         <v>658</v>
       </c>
@@ -22399,7 +22412,7 @@
       <c r="V663" s="6"/>
       <c r="W663" s="5"/>
     </row>
-    <row r="664" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="664" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G664" s="5">
         <v>659</v>
       </c>
@@ -22429,7 +22442,7 @@
       <c r="V664" s="6"/>
       <c r="W664" s="5"/>
     </row>
-    <row r="665" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="665" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G665" s="5">
         <v>660</v>
       </c>
@@ -22459,7 +22472,7 @@
       <c r="V665" s="6"/>
       <c r="W665" s="5"/>
     </row>
-    <row r="666" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="666" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G666" s="5">
         <v>661</v>
       </c>
@@ -22489,7 +22502,7 @@
       <c r="V666" s="6"/>
       <c r="W666" s="5"/>
     </row>
-    <row r="667" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="667" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G667" s="5">
         <v>662</v>
       </c>
@@ -22519,7 +22532,7 @@
       <c r="V667" s="6"/>
       <c r="W667" s="5"/>
     </row>
-    <row r="668" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="668" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G668" s="5">
         <v>663</v>
       </c>
@@ -22549,7 +22562,7 @@
       <c r="V668" s="6"/>
       <c r="W668" s="5"/>
     </row>
-    <row r="669" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="669" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G669" s="5">
         <v>664</v>
       </c>
@@ -22579,7 +22592,7 @@
       <c r="V669" s="6"/>
       <c r="W669" s="5"/>
     </row>
-    <row r="670" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="670" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G670" s="5">
         <v>665</v>
       </c>
@@ -22609,7 +22622,7 @@
       <c r="V670" s="6"/>
       <c r="W670" s="5"/>
     </row>
-    <row r="671" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="671" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G671" s="5">
         <v>666</v>
       </c>
@@ -22639,7 +22652,7 @@
       <c r="V671" s="6"/>
       <c r="W671" s="5"/>
     </row>
-    <row r="672" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="672" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G672" s="5">
         <v>667</v>
       </c>
@@ -22669,7 +22682,7 @@
       <c r="V672" s="6"/>
       <c r="W672" s="5"/>
     </row>
-    <row r="673" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="673" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G673" s="5">
         <v>668</v>
       </c>
@@ -22699,7 +22712,7 @@
       <c r="V673" s="6"/>
       <c r="W673" s="5"/>
     </row>
-    <row r="674" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="674" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G674" s="5">
         <v>669</v>
       </c>
@@ -22729,7 +22742,7 @@
       <c r="V674" s="6"/>
       <c r="W674" s="5"/>
     </row>
-    <row r="675" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="675" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G675" s="5">
         <v>670</v>
       </c>
@@ -22759,7 +22772,7 @@
       <c r="V675" s="6"/>
       <c r="W675" s="5"/>
     </row>
-    <row r="676" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="676" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G676" s="5">
         <v>671</v>
       </c>
@@ -22789,7 +22802,7 @@
       <c r="V676" s="6"/>
       <c r="W676" s="5"/>
     </row>
-    <row r="677" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="677" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G677" s="5">
         <v>672</v>
       </c>
@@ -22819,7 +22832,7 @@
       <c r="V677" s="6"/>
       <c r="W677" s="5"/>
     </row>
-    <row r="678" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="678" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G678" s="5">
         <v>673</v>
       </c>
@@ -22849,7 +22862,7 @@
       <c r="V678" s="6"/>
       <c r="W678" s="5"/>
     </row>
-    <row r="679" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="679" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G679" s="5">
         <v>674</v>
       </c>
@@ -22879,7 +22892,7 @@
       <c r="V679" s="6"/>
       <c r="W679" s="5"/>
     </row>
-    <row r="680" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="680" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G680" s="5">
         <v>675</v>
       </c>
@@ -22909,7 +22922,7 @@
       <c r="V680" s="6"/>
       <c r="W680" s="5"/>
     </row>
-    <row r="681" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="681" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G681" s="5">
         <v>676</v>
       </c>
@@ -22939,7 +22952,7 @@
       <c r="V681" s="6"/>
       <c r="W681" s="5"/>
     </row>
-    <row r="682" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="682" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G682" s="5">
         <v>677</v>
       </c>
@@ -22969,7 +22982,7 @@
       <c r="V682" s="6"/>
       <c r="W682" s="5"/>
     </row>
-    <row r="683" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="683" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G683" s="5">
         <v>678</v>
       </c>
@@ -22999,7 +23012,7 @@
       <c r="V683" s="6"/>
       <c r="W683" s="5"/>
     </row>
-    <row r="684" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="684" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G684" s="5">
         <v>679</v>
       </c>
@@ -23029,7 +23042,7 @@
       <c r="V684" s="6"/>
       <c r="W684" s="5"/>
     </row>
-    <row r="685" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="685" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G685" s="5">
         <v>680</v>
       </c>
@@ -23059,7 +23072,7 @@
       <c r="V685" s="6"/>
       <c r="W685" s="5"/>
     </row>
-    <row r="686" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="686" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G686" s="5">
         <v>681</v>
       </c>
@@ -23089,7 +23102,7 @@
       <c r="V686" s="6"/>
       <c r="W686" s="5"/>
     </row>
-    <row r="687" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="687" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G687" s="5">
         <v>682</v>
       </c>
@@ -23119,7 +23132,7 @@
       <c r="V687" s="6"/>
       <c r="W687" s="5"/>
     </row>
-    <row r="688" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="688" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G688" s="5">
         <v>683</v>
       </c>
@@ -23149,7 +23162,7 @@
       <c r="V688" s="6"/>
       <c r="W688" s="5"/>
     </row>
-    <row r="689" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="689" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G689" s="5">
         <v>684</v>
       </c>
@@ -23179,7 +23192,7 @@
       <c r="V689" s="6"/>
       <c r="W689" s="5"/>
     </row>
-    <row r="690" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="690" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G690" s="5">
         <v>685</v>
       </c>
@@ -23209,7 +23222,7 @@
       <c r="V690" s="6"/>
       <c r="W690" s="5"/>
     </row>
-    <row r="691" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="691" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G691" s="5">
         <v>686</v>
       </c>
@@ -23239,7 +23252,7 @@
       <c r="V691" s="6"/>
       <c r="W691" s="5"/>
     </row>
-    <row r="692" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="692" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G692" s="5">
         <v>687</v>
       </c>
@@ -23269,7 +23282,7 @@
       <c r="V692" s="6"/>
       <c r="W692" s="5"/>
     </row>
-    <row r="693" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="693" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G693" s="5">
         <v>688</v>
       </c>
@@ -23299,7 +23312,7 @@
       <c r="V693" s="6"/>
       <c r="W693" s="5"/>
     </row>
-    <row r="694" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="694" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G694" s="5">
         <v>689</v>
       </c>
@@ -23329,7 +23342,7 @@
       <c r="V694" s="6"/>
       <c r="W694" s="5"/>
     </row>
-    <row r="695" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="695" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G695" s="5">
         <v>690</v>
       </c>
@@ -23359,7 +23372,7 @@
       <c r="V695" s="6"/>
       <c r="W695" s="5"/>
     </row>
-    <row r="696" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="696" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G696" s="5">
         <v>691</v>
       </c>
@@ -23389,7 +23402,7 @@
       <c r="V696" s="6"/>
       <c r="W696" s="5"/>
     </row>
-    <row r="697" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="697" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G697" s="5">
         <v>692</v>
       </c>
@@ -23419,7 +23432,7 @@
       <c r="V697" s="6"/>
       <c r="W697" s="5"/>
     </row>
-    <row r="698" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="698" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G698" s="5">
         <v>693</v>
       </c>
@@ -23449,7 +23462,7 @@
       <c r="V698" s="6"/>
       <c r="W698" s="5"/>
     </row>
-    <row r="699" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="699" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G699" s="5">
         <v>694</v>
       </c>
@@ -23479,7 +23492,7 @@
       <c r="V699" s="6"/>
       <c r="W699" s="5"/>
     </row>
-    <row r="700" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="700" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G700" s="5">
         <v>695</v>
       </c>
@@ -23509,7 +23522,7 @@
       <c r="V700" s="6"/>
       <c r="W700" s="5"/>
     </row>
-    <row r="701" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="701" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G701" s="5">
         <v>696</v>
       </c>
@@ -23539,7 +23552,7 @@
       <c r="V701" s="6"/>
       <c r="W701" s="5"/>
     </row>
-    <row r="702" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="702" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G702" s="5">
         <v>697</v>
       </c>
@@ -23569,7 +23582,7 @@
       <c r="V702" s="6"/>
       <c r="W702" s="5"/>
     </row>
-    <row r="703" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="703" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G703" s="5">
         <v>698</v>
       </c>
@@ -23599,7 +23612,7 @@
       <c r="V703" s="6"/>
       <c r="W703" s="5"/>
     </row>
-    <row r="704" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="704" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G704" s="5">
         <v>699</v>
       </c>
@@ -23629,7 +23642,7 @@
       <c r="V704" s="6"/>
       <c r="W704" s="5"/>
     </row>
-    <row r="705" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="705" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G705" s="5">
         <v>700</v>
       </c>
@@ -23659,7 +23672,7 @@
       <c r="V705" s="6"/>
       <c r="W705" s="5"/>
     </row>
-    <row r="706" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="706" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G706" s="5">
         <v>701</v>
       </c>
@@ -23689,7 +23702,7 @@
       <c r="V706" s="6"/>
       <c r="W706" s="5"/>
     </row>
-    <row r="707" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="707" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G707" s="5">
         <v>702</v>
       </c>
@@ -23719,7 +23732,7 @@
       <c r="V707" s="6"/>
       <c r="W707" s="5"/>
     </row>
-    <row r="708" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="708" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G708" s="5">
         <v>703</v>
       </c>
@@ -23749,7 +23762,7 @@
       <c r="V708" s="6"/>
       <c r="W708" s="5"/>
     </row>
-    <row r="709" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="709" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G709" s="5">
         <v>704</v>
       </c>
@@ -23779,7 +23792,7 @@
       <c r="V709" s="6"/>
       <c r="W709" s="5"/>
     </row>
-    <row r="710" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="710" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G710" s="5">
         <v>705</v>
       </c>
@@ -23809,7 +23822,7 @@
       <c r="V710" s="6"/>
       <c r="W710" s="5"/>
     </row>
-    <row r="711" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="711" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G711" s="5">
         <v>706</v>
       </c>
@@ -23839,7 +23852,7 @@
       <c r="V711" s="6"/>
       <c r="W711" s="5"/>
     </row>
-    <row r="712" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="712" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G712" s="5">
         <v>707</v>
       </c>
@@ -23869,7 +23882,7 @@
       <c r="V712" s="6"/>
       <c r="W712" s="5"/>
     </row>
-    <row r="713" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="713" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G713" s="5">
         <v>708</v>
       </c>
@@ -23899,7 +23912,7 @@
       <c r="V713" s="6"/>
       <c r="W713" s="5"/>
     </row>
-    <row r="714" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="714" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G714" s="5">
         <v>709</v>
       </c>
@@ -23929,7 +23942,7 @@
       <c r="V714" s="6"/>
       <c r="W714" s="5"/>
     </row>
-    <row r="715" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="715" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G715" s="5">
         <v>710</v>
       </c>
@@ -23959,7 +23972,7 @@
       <c r="V715" s="6"/>
       <c r="W715" s="5"/>
     </row>
-    <row r="716" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="716" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G716" s="5">
         <v>711</v>
       </c>
@@ -23989,7 +24002,7 @@
       <c r="V716" s="6"/>
       <c r="W716" s="5"/>
     </row>
-    <row r="717" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="717" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G717" s="5">
         <v>712</v>
       </c>
@@ -24019,7 +24032,7 @@
       <c r="V717" s="6"/>
       <c r="W717" s="5"/>
     </row>
-    <row r="718" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="718" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G718" s="5">
         <v>713</v>
       </c>
@@ -24049,7 +24062,7 @@
       <c r="V718" s="6"/>
       <c r="W718" s="5"/>
     </row>
-    <row r="719" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="719" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G719" s="5">
         <v>714</v>
       </c>
@@ -24079,7 +24092,7 @@
       <c r="V719" s="6"/>
       <c r="W719" s="5"/>
     </row>
-    <row r="720" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="720" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G720" s="5">
         <v>715</v>
       </c>
@@ -24109,7 +24122,7 @@
       <c r="V720" s="6"/>
       <c r="W720" s="5"/>
     </row>
-    <row r="721" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="721" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G721" s="5">
         <v>716</v>
       </c>
@@ -24139,7 +24152,7 @@
       <c r="V721" s="6"/>
       <c r="W721" s="5"/>
     </row>
-    <row r="722" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="722" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G722" s="5">
         <v>717</v>
       </c>
@@ -24169,7 +24182,7 @@
       <c r="V722" s="6"/>
       <c r="W722" s="5"/>
     </row>
-    <row r="723" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="723" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G723" s="5">
         <v>718</v>
       </c>
@@ -24199,7 +24212,7 @@
       <c r="V723" s="6"/>
       <c r="W723" s="5"/>
     </row>
-    <row r="724" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="724" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G724" s="5">
         <v>719</v>
       </c>
@@ -24229,7 +24242,7 @@
       <c r="V724" s="6"/>
       <c r="W724" s="5"/>
     </row>
-    <row r="725" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="725" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G725" s="5">
         <v>720</v>
       </c>
@@ -24259,7 +24272,7 @@
       <c r="V725" s="6"/>
       <c r="W725" s="5"/>
     </row>
-    <row r="726" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="726" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G726" s="5">
         <v>721</v>
       </c>
@@ -24289,7 +24302,7 @@
       <c r="V726" s="6"/>
       <c r="W726" s="5"/>
     </row>
-    <row r="727" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="727" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G727" s="5">
         <v>722</v>
       </c>
@@ -24319,7 +24332,7 @@
       <c r="V727" s="6"/>
       <c r="W727" s="5"/>
     </row>
-    <row r="728" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="728" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G728" s="5">
         <v>723</v>
       </c>
@@ -24349,7 +24362,7 @@
       <c r="V728" s="6"/>
       <c r="W728" s="5"/>
     </row>
-    <row r="729" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="729" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G729" s="5">
         <v>724</v>
       </c>
@@ -24379,7 +24392,7 @@
       <c r="V729" s="6"/>
       <c r="W729" s="5"/>
     </row>
-    <row r="730" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="730" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G730" s="5">
         <v>725</v>
       </c>
@@ -24409,7 +24422,7 @@
       <c r="V730" s="6"/>
       <c r="W730" s="5"/>
     </row>
-    <row r="731" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="731" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G731" s="5">
         <v>726</v>
       </c>
@@ -24439,7 +24452,7 @@
       <c r="V731" s="6"/>
       <c r="W731" s="5"/>
     </row>
-    <row r="732" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="732" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G732" s="5">
         <v>727</v>
       </c>
@@ -24469,7 +24482,7 @@
       <c r="V732" s="6"/>
       <c r="W732" s="5"/>
     </row>
-    <row r="733" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="733" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G733" s="5">
         <v>728</v>
       </c>
@@ -24499,7 +24512,7 @@
       <c r="V733" s="6"/>
       <c r="W733" s="5"/>
     </row>
-    <row r="734" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="734" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G734" s="5">
         <v>729</v>
       </c>
@@ -24529,7 +24542,7 @@
       <c r="V734" s="6"/>
       <c r="W734" s="5"/>
     </row>
-    <row r="735" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="735" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G735" s="5">
         <v>730</v>
       </c>
@@ -24559,7 +24572,7 @@
       <c r="V735" s="6"/>
       <c r="W735" s="5"/>
     </row>
-    <row r="736" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="736" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G736" s="5">
         <v>731</v>
       </c>
@@ -24589,7 +24602,7 @@
       <c r="V736" s="6"/>
       <c r="W736" s="5"/>
     </row>
-    <row r="737" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="737" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G737" s="5">
         <v>732</v>
       </c>
@@ -24619,7 +24632,7 @@
       <c r="V737" s="6"/>
       <c r="W737" s="5"/>
     </row>
-    <row r="738" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="738" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G738" s="5">
         <v>733</v>
       </c>
@@ -24649,7 +24662,7 @@
       <c r="V738" s="6"/>
       <c r="W738" s="5"/>
     </row>
-    <row r="739" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="739" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G739" s="5">
         <v>734</v>
       </c>
@@ -24679,7 +24692,7 @@
       <c r="V739" s="6"/>
       <c r="W739" s="5"/>
     </row>
-    <row r="740" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="740" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G740" s="5">
         <v>735</v>
       </c>
@@ -24709,7 +24722,7 @@
       <c r="V740" s="6"/>
       <c r="W740" s="5"/>
     </row>
-    <row r="741" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="741" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G741" s="5">
         <v>736</v>
       </c>
@@ -24739,7 +24752,7 @@
       <c r="V741" s="6"/>
       <c r="W741" s="5"/>
     </row>
-    <row r="742" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="742" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G742" s="5">
         <v>737</v>
       </c>
@@ -24769,7 +24782,7 @@
       <c r="V742" s="6"/>
       <c r="W742" s="5"/>
     </row>
-    <row r="743" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="743" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G743" s="5">
         <v>738</v>
       </c>
@@ -24799,7 +24812,7 @@
       <c r="V743" s="6"/>
       <c r="W743" s="5"/>
     </row>
-    <row r="744" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="744" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G744" s="5">
         <v>739</v>
       </c>
@@ -24829,7 +24842,7 @@
       <c r="V744" s="6"/>
       <c r="W744" s="5"/>
     </row>
-    <row r="745" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="745" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G745" s="5">
         <v>740</v>
       </c>
@@ -24859,7 +24872,7 @@
       <c r="V745" s="6"/>
       <c r="W745" s="5"/>
     </row>
-    <row r="746" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="746" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G746" s="5">
         <v>741</v>
       </c>
@@ -24889,7 +24902,7 @@
       <c r="V746" s="6"/>
       <c r="W746" s="5"/>
     </row>
-    <row r="747" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="747" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G747" s="5">
         <v>742</v>
       </c>
@@ -24919,7 +24932,7 @@
       <c r="V747" s="6"/>
       <c r="W747" s="5"/>
     </row>
-    <row r="748" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="748" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G748" s="5">
         <v>743</v>
       </c>
@@ -24949,7 +24962,7 @@
       <c r="V748" s="6"/>
       <c r="W748" s="5"/>
     </row>
-    <row r="749" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="749" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G749" s="5">
         <v>744</v>
       </c>
@@ -24979,7 +24992,7 @@
       <c r="V749" s="6"/>
       <c r="W749" s="5"/>
     </row>
-    <row r="750" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="750" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G750" s="5">
         <v>745</v>
       </c>
@@ -25009,7 +25022,7 @@
       <c r="V750" s="6"/>
       <c r="W750" s="5"/>
     </row>
-    <row r="751" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="751" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G751" s="5">
         <v>746</v>
       </c>
@@ -25039,7 +25052,7 @@
       <c r="V751" s="6"/>
       <c r="W751" s="5"/>
     </row>
-    <row r="752" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="752" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G752" s="5">
         <v>747</v>
       </c>
@@ -25069,7 +25082,7 @@
       <c r="V752" s="6"/>
       <c r="W752" s="5"/>
     </row>
-    <row r="753" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="753" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G753" s="5">
         <v>748</v>
       </c>
@@ -25099,7 +25112,7 @@
       <c r="V753" s="6"/>
       <c r="W753" s="5"/>
     </row>
-    <row r="754" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="754" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G754" s="5">
         <v>749</v>
       </c>
@@ -25129,7 +25142,7 @@
       <c r="V754" s="6"/>
       <c r="W754" s="5"/>
     </row>
-    <row r="755" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="755" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G755" s="5">
         <v>750</v>
       </c>
@@ -25159,7 +25172,7 @@
       <c r="V755" s="6"/>
       <c r="W755" s="5"/>
     </row>
-    <row r="756" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="756" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G756" s="5">
         <v>751</v>
       </c>
@@ -25189,7 +25202,7 @@
       <c r="V756" s="6"/>
       <c r="W756" s="5"/>
     </row>
-    <row r="757" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="757" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G757" s="5">
         <v>752</v>
       </c>
@@ -25219,7 +25232,7 @@
       <c r="V757" s="6"/>
       <c r="W757" s="5"/>
     </row>
-    <row r="758" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="758" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G758" s="5">
         <v>753</v>
       </c>
@@ -25249,7 +25262,7 @@
       <c r="V758" s="6"/>
       <c r="W758" s="5"/>
     </row>
-    <row r="759" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="759" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G759" s="5">
         <v>754</v>
       </c>
@@ -25279,7 +25292,7 @@
       <c r="V759" s="6"/>
       <c r="W759" s="5"/>
     </row>
-    <row r="760" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="760" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G760" s="5">
         <v>755</v>
       </c>
@@ -25309,7 +25322,7 @@
       <c r="V760" s="6"/>
       <c r="W760" s="5"/>
     </row>
-    <row r="761" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="761" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G761" s="5">
         <v>756</v>
       </c>
@@ -25339,7 +25352,7 @@
       <c r="V761" s="6"/>
       <c r="W761" s="5"/>
     </row>
-    <row r="762" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="762" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G762" s="5">
         <v>757</v>
       </c>
@@ -25369,7 +25382,7 @@
       <c r="V762" s="6"/>
       <c r="W762" s="5"/>
     </row>
-    <row r="763" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="763" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G763" s="5">
         <v>758</v>
       </c>
@@ -25399,7 +25412,7 @@
       <c r="V763" s="6"/>
       <c r="W763" s="5"/>
     </row>
-    <row r="764" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="764" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G764" s="5">
         <v>759</v>
       </c>
@@ -25429,7 +25442,7 @@
       <c r="V764" s="6"/>
       <c r="W764" s="5"/>
     </row>
-    <row r="765" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="765" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G765" s="5">
         <v>760</v>
       </c>
@@ -25459,7 +25472,7 @@
       <c r="V765" s="6"/>
       <c r="W765" s="5"/>
     </row>
-    <row r="766" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="766" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G766" s="5">
         <v>761</v>
       </c>
@@ -25489,7 +25502,7 @@
       <c r="V766" s="6"/>
       <c r="W766" s="5"/>
     </row>
-    <row r="767" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="767" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G767" s="5">
         <v>762</v>
       </c>
@@ -25519,7 +25532,7 @@
       <c r="V767" s="6"/>
       <c r="W767" s="5"/>
     </row>
-    <row r="768" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="768" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G768" s="5">
         <v>763</v>
       </c>
@@ -25549,7 +25562,7 @@
       <c r="V768" s="6"/>
       <c r="W768" s="5"/>
     </row>
-    <row r="769" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="769" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G769" s="5">
         <v>764</v>
       </c>
@@ -25579,7 +25592,7 @@
       <c r="V769" s="6"/>
       <c r="W769" s="5"/>
     </row>
-    <row r="770" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="770" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G770" s="5">
         <v>765</v>
       </c>
@@ -25609,7 +25622,7 @@
       <c r="V770" s="6"/>
       <c r="W770" s="5"/>
     </row>
-    <row r="771" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="771" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G771" s="5">
         <v>766</v>
       </c>
@@ -25639,7 +25652,7 @@
       <c r="V771" s="6"/>
       <c r="W771" s="5"/>
     </row>
-    <row r="772" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="772" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G772" s="5">
         <v>767</v>
       </c>
@@ -25669,7 +25682,7 @@
       <c r="V772" s="6"/>
       <c r="W772" s="5"/>
     </row>
-    <row r="773" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="773" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G773" s="5">
         <v>768</v>
       </c>
@@ -25699,7 +25712,7 @@
       <c r="V773" s="6"/>
       <c r="W773" s="5"/>
     </row>
-    <row r="774" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="774" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G774" s="5">
         <v>769</v>
       </c>
@@ -25729,7 +25742,7 @@
       <c r="V774" s="6"/>
       <c r="W774" s="5"/>
     </row>
-    <row r="775" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="775" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G775" s="5">
         <v>770</v>
       </c>
@@ -25759,7 +25772,7 @@
       <c r="V775" s="6"/>
       <c r="W775" s="5"/>
     </row>
-    <row r="776" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="776" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G776" s="5">
         <v>771</v>
       </c>
@@ -25789,7 +25802,7 @@
       <c r="V776" s="6"/>
       <c r="W776" s="5"/>
     </row>
-    <row r="777" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="777" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G777" s="5">
         <v>772</v>
       </c>
@@ -25819,7 +25832,7 @@
       <c r="V777" s="6"/>
       <c r="W777" s="5"/>
     </row>
-    <row r="778" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="778" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G778" s="5">
         <v>773</v>
       </c>
@@ -25849,7 +25862,7 @@
       <c r="V778" s="6"/>
       <c r="W778" s="5"/>
     </row>
-    <row r="779" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="779" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G779" s="5">
         <v>774</v>
       </c>
@@ -25879,7 +25892,7 @@
       <c r="V779" s="6"/>
       <c r="W779" s="5"/>
     </row>
-    <row r="780" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="780" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G780" s="5">
         <v>775</v>
       </c>
@@ -25909,7 +25922,7 @@
       <c r="V780" s="6"/>
       <c r="W780" s="5"/>
     </row>
-    <row r="781" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="781" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G781" s="5">
         <v>776</v>
       </c>
@@ -25939,7 +25952,7 @@
       <c r="V781" s="6"/>
       <c r="W781" s="5"/>
     </row>
-    <row r="782" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="782" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G782" s="5">
         <v>777</v>
       </c>
@@ -25969,7 +25982,7 @@
       <c r="V782" s="6"/>
       <c r="W782" s="5"/>
     </row>
-    <row r="783" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="783" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G783" s="5">
         <v>778</v>
       </c>
@@ -25999,7 +26012,7 @@
       <c r="V783" s="6"/>
       <c r="W783" s="5"/>
     </row>
-    <row r="784" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="784" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G784" s="5">
         <v>779</v>
       </c>
@@ -26029,7 +26042,7 @@
       <c r="V784" s="6"/>
       <c r="W784" s="5"/>
     </row>
-    <row r="785" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="785" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G785" s="5">
         <v>780</v>
       </c>
@@ -26059,7 +26072,7 @@
       <c r="V785" s="6"/>
       <c r="W785" s="5"/>
     </row>
-    <row r="786" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="786" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G786" s="5">
         <v>781</v>
       </c>
@@ -26089,7 +26102,7 @@
       <c r="V786" s="6"/>
       <c r="W786" s="5"/>
     </row>
-    <row r="787" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="787" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G787" s="5">
         <v>782</v>
       </c>
@@ -26119,7 +26132,7 @@
       <c r="V787" s="6"/>
       <c r="W787" s="5"/>
     </row>
-    <row r="788" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="788" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G788" s="5">
         <v>783</v>
       </c>
@@ -26149,7 +26162,7 @@
       <c r="V788" s="6"/>
       <c r="W788" s="5"/>
     </row>
-    <row r="789" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="789" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G789" s="5">
         <v>784</v>
       </c>
@@ -26179,7 +26192,7 @@
       <c r="V789" s="6"/>
       <c r="W789" s="5"/>
     </row>
-    <row r="790" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="790" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G790" s="5">
         <v>785</v>
       </c>
@@ -26209,7 +26222,7 @@
       <c r="V790" s="6"/>
       <c r="W790" s="5"/>
     </row>
-    <row r="791" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="791" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G791" s="5">
         <v>786</v>
       </c>
@@ -26239,7 +26252,7 @@
       <c r="V791" s="6"/>
       <c r="W791" s="5"/>
     </row>
-    <row r="792" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="792" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G792" s="5">
         <v>787</v>
       </c>
@@ -26269,7 +26282,7 @@
       <c r="V792" s="6"/>
       <c r="W792" s="5"/>
     </row>
-    <row r="793" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="793" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G793" s="5">
         <v>788</v>
       </c>
@@ -26299,7 +26312,7 @@
       <c r="V793" s="6"/>
       <c r="W793" s="5"/>
     </row>
-    <row r="794" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="794" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G794" s="5">
         <v>789</v>
       </c>
@@ -26329,7 +26342,7 @@
       <c r="V794" s="6"/>
       <c r="W794" s="5"/>
     </row>
-    <row r="795" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="795" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G795" s="5">
         <v>790</v>
       </c>
@@ -26359,7 +26372,7 @@
       <c r="V795" s="6"/>
       <c r="W795" s="5"/>
     </row>
-    <row r="796" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="796" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G796" s="5">
         <v>791</v>
       </c>
@@ -26389,7 +26402,7 @@
       <c r="V796" s="6"/>
       <c r="W796" s="5"/>
     </row>
-    <row r="797" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="797" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G797" s="5">
         <v>792</v>
       </c>
@@ -26419,7 +26432,7 @@
       <c r="V797" s="6"/>
       <c r="W797" s="5"/>
     </row>
-    <row r="798" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="798" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G798" s="5">
         <v>793</v>
       </c>
@@ -26449,7 +26462,7 @@
       <c r="V798" s="6"/>
       <c r="W798" s="5"/>
     </row>
-    <row r="799" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="799" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G799" s="5">
         <v>794</v>
       </c>
@@ -26479,7 +26492,7 @@
       <c r="V799" s="6"/>
       <c r="W799" s="5"/>
     </row>
-    <row r="800" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="800" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G800" s="5">
         <v>795</v>
       </c>
@@ -26509,7 +26522,7 @@
       <c r="V800" s="6"/>
       <c r="W800" s="5"/>
     </row>
-    <row r="801" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="801" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G801" s="5">
         <v>796</v>
       </c>
@@ -26539,7 +26552,7 @@
       <c r="V801" s="6"/>
       <c r="W801" s="5"/>
     </row>
-    <row r="802" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="802" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G802" s="5">
         <v>797</v>
       </c>
@@ -26569,7 +26582,7 @@
       <c r="V802" s="6"/>
       <c r="W802" s="5"/>
     </row>
-    <row r="803" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="803" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G803" s="5">
         <v>798</v>
       </c>
@@ -26599,7 +26612,7 @@
       <c r="V803" s="6"/>
       <c r="W803" s="5"/>
     </row>
-    <row r="804" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="804" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G804" s="5">
         <v>799</v>
       </c>
@@ -26629,7 +26642,7 @@
       <c r="V804" s="6"/>
       <c r="W804" s="5"/>
     </row>
-    <row r="805" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="805" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G805" s="5">
         <v>800</v>
       </c>
@@ -26659,7 +26672,7 @@
       <c r="V805" s="6"/>
       <c r="W805" s="5"/>
     </row>
-    <row r="806" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="806" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G806" s="5">
         <v>801</v>
       </c>
@@ -26689,7 +26702,7 @@
       <c r="V806" s="6"/>
       <c r="W806" s="5"/>
     </row>
-    <row r="807" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="807" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G807" s="5">
         <v>802</v>
       </c>
@@ -26719,7 +26732,7 @@
       <c r="V807" s="6"/>
       <c r="W807" s="5"/>
     </row>
-    <row r="808" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="808" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G808" s="5">
         <v>803</v>
       </c>
@@ -26749,7 +26762,7 @@
       <c r="V808" s="6"/>
       <c r="W808" s="5"/>
     </row>
-    <row r="809" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="809" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G809" s="5">
         <v>804</v>
       </c>
@@ -26779,7 +26792,7 @@
       <c r="V809" s="6"/>
       <c r="W809" s="5"/>
     </row>
-    <row r="810" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="810" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G810" s="5">
         <v>805</v>
       </c>
@@ -26809,7 +26822,7 @@
       <c r="V810" s="6"/>
       <c r="W810" s="5"/>
     </row>
-    <row r="811" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="811" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G811" s="5">
         <v>806</v>
       </c>
@@ -26839,7 +26852,7 @@
       <c r="V811" s="6"/>
       <c r="W811" s="5"/>
     </row>
-    <row r="812" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="812" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G812" s="5">
         <v>807</v>
       </c>
@@ -26869,7 +26882,7 @@
       <c r="V812" s="6"/>
       <c r="W812" s="5"/>
     </row>
-    <row r="813" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="813" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G813" s="5">
         <v>808</v>
       </c>
@@ -26899,7 +26912,7 @@
       <c r="V813" s="6"/>
       <c r="W813" s="5"/>
     </row>
-    <row r="814" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="814" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G814" s="5">
         <v>809</v>
       </c>
@@ -26929,7 +26942,7 @@
       <c r="V814" s="6"/>
       <c r="W814" s="5"/>
     </row>
-    <row r="815" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="815" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G815" s="5">
         <v>810</v>
       </c>
@@ -26959,7 +26972,7 @@
       <c r="V815" s="6"/>
       <c r="W815" s="5"/>
     </row>
-    <row r="816" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="816" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G816" s="5">
         <v>811</v>
       </c>
@@ -26989,7 +27002,7 @@
       <c r="V816" s="6"/>
       <c r="W816" s="5"/>
     </row>
-    <row r="817" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="817" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G817" s="5">
         <v>812</v>
       </c>
@@ -27019,7 +27032,7 @@
       <c r="V817" s="6"/>
       <c r="W817" s="5"/>
     </row>
-    <row r="818" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="818" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G818" s="5">
         <v>813</v>
       </c>
@@ -27049,7 +27062,7 @@
       <c r="V818" s="6"/>
       <c r="W818" s="5"/>
     </row>
-    <row r="819" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="819" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G819" s="5">
         <v>814</v>
       </c>
@@ -27079,7 +27092,7 @@
       <c r="V819" s="6"/>
       <c r="W819" s="5"/>
     </row>
-    <row r="820" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="820" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G820" s="5">
         <v>815</v>
       </c>
@@ -27109,7 +27122,7 @@
       <c r="V820" s="6"/>
       <c r="W820" s="5"/>
     </row>
-    <row r="821" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="821" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G821" s="5">
         <v>816</v>
       </c>
@@ -27139,7 +27152,7 @@
       <c r="V821" s="6"/>
       <c r="W821" s="5"/>
     </row>
-    <row r="822" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="822" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G822" s="5">
         <v>817</v>
       </c>
@@ -27169,7 +27182,7 @@
       <c r="V822" s="6"/>
       <c r="W822" s="5"/>
     </row>
-    <row r="823" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="823" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G823" s="5">
         <v>818</v>
       </c>
@@ -27199,7 +27212,7 @@
       <c r="V823" s="6"/>
       <c r="W823" s="5"/>
     </row>
-    <row r="824" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="824" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G824" s="5">
         <v>819</v>
       </c>
@@ -27229,7 +27242,7 @@
       <c r="V824" s="6"/>
       <c r="W824" s="5"/>
     </row>
-    <row r="825" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="825" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G825" s="5">
         <v>820</v>
       </c>
@@ -27259,7 +27272,7 @@
       <c r="V825" s="6"/>
       <c r="W825" s="5"/>
     </row>
-    <row r="826" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="826" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G826" s="5">
         <v>821</v>
       </c>
@@ -27289,7 +27302,7 @@
       <c r="V826" s="6"/>
       <c r="W826" s="5"/>
     </row>
-    <row r="827" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="827" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G827" s="5">
         <v>822</v>
       </c>
@@ -27319,7 +27332,7 @@
       <c r="V827" s="6"/>
       <c r="W827" s="5"/>
     </row>
-    <row r="828" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="828" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G828" s="5">
         <v>823</v>
       </c>
@@ -27349,7 +27362,7 @@
       <c r="V828" s="6"/>
       <c r="W828" s="5"/>
     </row>
-    <row r="829" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="829" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G829" s="5">
         <v>824</v>
       </c>
@@ -27379,7 +27392,7 @@
       <c r="V829" s="6"/>
       <c r="W829" s="5"/>
     </row>
-    <row r="830" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="830" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G830" s="5">
         <v>825</v>
       </c>
@@ -27409,7 +27422,7 @@
       <c r="V830" s="6"/>
       <c r="W830" s="5"/>
     </row>
-    <row r="831" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="831" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G831" s="5">
         <v>826</v>
       </c>
@@ -27439,7 +27452,7 @@
       <c r="V831" s="6"/>
       <c r="W831" s="5"/>
     </row>
-    <row r="832" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="832" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G832" s="5">
         <v>827</v>
       </c>
@@ -27469,7 +27482,7 @@
       <c r="V832" s="6"/>
       <c r="W832" s="5"/>
     </row>
-    <row r="833" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="833" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G833" s="5">
         <v>828</v>
       </c>
@@ -27499,7 +27512,7 @@
       <c r="V833" s="6"/>
       <c r="W833" s="5"/>
     </row>
-    <row r="834" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="834" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G834" s="5">
         <v>829</v>
       </c>
@@ -27529,7 +27542,7 @@
       <c r="V834" s="6"/>
       <c r="W834" s="5"/>
     </row>
-    <row r="835" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="835" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G835" s="5">
         <v>830</v>
       </c>
@@ -27559,7 +27572,7 @@
       <c r="V835" s="6"/>
       <c r="W835" s="5"/>
     </row>
-    <row r="836" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="836" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G836" s="5">
         <v>831</v>
       </c>
@@ -27589,7 +27602,7 @@
       <c r="V836" s="6"/>
       <c r="W836" s="5"/>
     </row>
-    <row r="837" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="837" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G837" s="5">
         <v>832</v>
       </c>
@@ -27619,7 +27632,7 @@
       <c r="V837" s="6"/>
       <c r="W837" s="5"/>
     </row>
-    <row r="838" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="838" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G838" s="5">
         <v>833</v>
       </c>
@@ -27649,7 +27662,7 @@
       <c r="V838" s="6"/>
       <c r="W838" s="5"/>
     </row>
-    <row r="839" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="839" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G839" s="5">
         <v>834</v>
       </c>
@@ -27679,7 +27692,7 @@
       <c r="V839" s="6"/>
       <c r="W839" s="5"/>
     </row>
-    <row r="840" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="840" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G840" s="5">
         <v>835</v>
       </c>
@@ -27709,7 +27722,7 @@
       <c r="V840" s="6"/>
       <c r="W840" s="5"/>
     </row>
-    <row r="841" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="841" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G841" s="5">
         <v>836</v>
       </c>
@@ -27739,7 +27752,7 @@
       <c r="V841" s="6"/>
       <c r="W841" s="5"/>
     </row>
-    <row r="842" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="842" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G842" s="5">
         <v>837</v>
       </c>
@@ -27769,7 +27782,7 @@
       <c r="V842" s="6"/>
       <c r="W842" s="5"/>
     </row>
-    <row r="843" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="843" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G843" s="5">
         <v>838</v>
       </c>
@@ -27799,7 +27812,7 @@
       <c r="V843" s="6"/>
       <c r="W843" s="5"/>
     </row>
-    <row r="844" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="844" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G844" s="5">
         <v>839</v>
       </c>
@@ -27829,7 +27842,7 @@
       <c r="V844" s="6"/>
       <c r="W844" s="5"/>
     </row>
-    <row r="845" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="845" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G845" s="5">
         <v>840</v>
       </c>
@@ -27859,7 +27872,7 @@
       <c r="V845" s="6"/>
       <c r="W845" s="5"/>
     </row>
-    <row r="846" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="846" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G846" s="5">
         <v>841</v>
       </c>
@@ -27889,7 +27902,7 @@
       <c r="V846" s="6"/>
       <c r="W846" s="5"/>
     </row>
-    <row r="847" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="847" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G847" s="5">
         <v>842</v>
       </c>
@@ -27919,7 +27932,7 @@
       <c r="V847" s="6"/>
       <c r="W847" s="5"/>
     </row>
-    <row r="848" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="848" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G848" s="5">
         <v>843</v>
       </c>
@@ -27949,7 +27962,7 @@
       <c r="V848" s="6"/>
       <c r="W848" s="5"/>
     </row>
-    <row r="849" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="849" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G849" s="5">
         <v>844</v>
       </c>
@@ -27979,7 +27992,7 @@
       <c r="V849" s="6"/>
       <c r="W849" s="5"/>
     </row>
-    <row r="850" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="850" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G850" s="5">
         <v>845</v>
       </c>
@@ -28009,7 +28022,7 @@
       <c r="V850" s="6"/>
       <c r="W850" s="5"/>
     </row>
-    <row r="851" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="851" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G851" s="5">
         <v>846</v>
       </c>
@@ -28039,7 +28052,7 @@
       <c r="V851" s="6"/>
       <c r="W851" s="5"/>
     </row>
-    <row r="852" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="852" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G852" s="5">
         <v>847</v>
       </c>
@@ -28069,7 +28082,7 @@
       <c r="V852" s="6"/>
       <c r="W852" s="5"/>
     </row>
-    <row r="853" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="853" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G853" s="5">
         <v>848</v>
       </c>
@@ -28099,7 +28112,7 @@
       <c r="V853" s="6"/>
       <c r="W853" s="5"/>
     </row>
-    <row r="854" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="854" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G854" s="5">
         <v>849</v>
       </c>
@@ -28129,7 +28142,7 @@
       <c r="V854" s="6"/>
       <c r="W854" s="5"/>
     </row>
-    <row r="855" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="855" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G855" s="5">
         <v>850</v>
       </c>
@@ -28159,7 +28172,7 @@
       <c r="V855" s="6"/>
       <c r="W855" s="5"/>
     </row>
-    <row r="856" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="856" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G856" s="5">
         <v>851</v>
       </c>
@@ -28189,7 +28202,7 @@
       <c r="V856" s="6"/>
       <c r="W856" s="5"/>
     </row>
-    <row r="857" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="857" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G857" s="5">
         <v>852</v>
       </c>
@@ -28219,7 +28232,7 @@
       <c r="V857" s="6"/>
       <c r="W857" s="5"/>
     </row>
-    <row r="858" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="858" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G858" s="5">
         <v>853</v>
       </c>
@@ -28249,7 +28262,7 @@
       <c r="V858" s="6"/>
       <c r="W858" s="5"/>
     </row>
-    <row r="859" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="859" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G859" s="5">
         <v>854</v>
       </c>
@@ -28279,7 +28292,7 @@
       <c r="V859" s="6"/>
       <c r="W859" s="5"/>
     </row>
-    <row r="860" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="860" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G860" s="5">
         <v>855</v>
       </c>
@@ -28309,7 +28322,7 @@
       <c r="V860" s="6"/>
       <c r="W860" s="5"/>
     </row>
-    <row r="861" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="861" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G861" s="5">
         <v>856</v>
       </c>
@@ -28339,7 +28352,7 @@
       <c r="V861" s="6"/>
       <c r="W861" s="5"/>
     </row>
-    <row r="862" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="862" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G862" s="5">
         <v>857</v>
       </c>
@@ -28369,7 +28382,7 @@
       <c r="V862" s="6"/>
       <c r="W862" s="5"/>
     </row>
-    <row r="863" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="863" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G863" s="5">
         <v>858</v>
       </c>
@@ -28399,7 +28412,7 @@
       <c r="V863" s="6"/>
       <c r="W863" s="5"/>
     </row>
-    <row r="864" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="864" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G864" s="5">
         <v>859</v>
       </c>
@@ -28429,7 +28442,7 @@
       <c r="V864" s="6"/>
       <c r="W864" s="5"/>
     </row>
-    <row r="865" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="865" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G865" s="5">
         <v>860</v>
       </c>
@@ -28459,7 +28472,7 @@
       <c r="V865" s="6"/>
       <c r="W865" s="5"/>
     </row>
-    <row r="866" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="866" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G866" s="5">
         <v>861</v>
       </c>
@@ -28489,7 +28502,7 @@
       <c r="V866" s="6"/>
       <c r="W866" s="5"/>
     </row>
-    <row r="867" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="867" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G867" s="5">
         <v>862</v>
       </c>
@@ -28519,7 +28532,7 @@
       <c r="V867" s="6"/>
       <c r="W867" s="5"/>
     </row>
-    <row r="868" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="868" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G868" s="5">
         <v>863</v>
       </c>
@@ -28549,7 +28562,7 @@
       <c r="V868" s="6"/>
       <c r="W868" s="5"/>
     </row>
-    <row r="869" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="869" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G869" s="5">
         <v>864</v>
       </c>
@@ -28579,7 +28592,7 @@
       <c r="V869" s="6"/>
       <c r="W869" s="5"/>
     </row>
-    <row r="870" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="870" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G870" s="5">
         <v>865</v>
       </c>
@@ -28609,7 +28622,7 @@
       <c r="V870" s="6"/>
       <c r="W870" s="5"/>
     </row>
-    <row r="871" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="871" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G871" s="5">
         <v>866</v>
       </c>
@@ -28639,7 +28652,7 @@
       <c r="V871" s="6"/>
       <c r="W871" s="5"/>
     </row>
-    <row r="872" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="872" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G872" s="5">
         <v>867</v>
       </c>
@@ -28669,7 +28682,7 @@
       <c r="V872" s="6"/>
       <c r="W872" s="5"/>
     </row>
-    <row r="873" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="873" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G873" s="5">
         <v>868</v>
       </c>
@@ -28699,7 +28712,7 @@
       <c r="V873" s="6"/>
       <c r="W873" s="5"/>
     </row>
-    <row r="874" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="874" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G874" s="5">
         <v>869</v>
       </c>
@@ -28729,7 +28742,7 @@
       <c r="V874" s="6"/>
       <c r="W874" s="5"/>
     </row>
-    <row r="875" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="875" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G875" s="5">
         <v>870</v>
       </c>
@@ -28759,7 +28772,7 @@
       <c r="V875" s="6"/>
       <c r="W875" s="5"/>
     </row>
-    <row r="876" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="876" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G876" s="5">
         <v>871</v>
       </c>
@@ -28789,7 +28802,7 @@
       <c r="V876" s="6"/>
       <c r="W876" s="5"/>
     </row>
-    <row r="877" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="877" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G877" s="5">
         <v>872</v>
       </c>
@@ -28819,7 +28832,7 @@
       <c r="V877" s="6"/>
       <c r="W877" s="5"/>
     </row>
-    <row r="878" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="878" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G878" s="5">
         <v>873</v>
       </c>
@@ -28849,7 +28862,7 @@
       <c r="V878" s="6"/>
       <c r="W878" s="5"/>
     </row>
-    <row r="879" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="879" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G879" s="5">
         <v>874</v>
       </c>
@@ -28879,7 +28892,7 @@
       <c r="V879" s="6"/>
       <c r="W879" s="5"/>
     </row>
-    <row r="880" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="880" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G880" s="5">
         <v>875</v>
       </c>
@@ -28909,7 +28922,7 @@
       <c r="V880" s="6"/>
       <c r="W880" s="5"/>
     </row>
-    <row r="881" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="881" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G881" s="5">
         <v>876</v>
       </c>
@@ -28939,7 +28952,7 @@
       <c r="V881" s="6"/>
       <c r="W881" s="5"/>
     </row>
-    <row r="882" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="882" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G882" s="5">
         <v>877</v>
       </c>
@@ -28969,7 +28982,7 @@
       <c r="V882" s="6"/>
       <c r="W882" s="5"/>
     </row>
-    <row r="883" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="883" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G883" s="5">
         <v>878</v>
       </c>
@@ -28999,7 +29012,7 @@
       <c r="V883" s="6"/>
       <c r="W883" s="5"/>
     </row>
-    <row r="884" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="884" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G884" s="5">
         <v>879</v>
       </c>
@@ -29029,7 +29042,7 @@
       <c r="V884" s="6"/>
       <c r="W884" s="5"/>
     </row>
-    <row r="885" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="885" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G885" s="5">
         <v>880</v>
       </c>
@@ -29059,7 +29072,7 @@
       <c r="V885" s="6"/>
       <c r="W885" s="5"/>
     </row>
-    <row r="886" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="886" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G886" s="5">
         <v>881</v>
       </c>
@@ -29089,7 +29102,7 @@
       <c r="V886" s="6"/>
       <c r="W886" s="5"/>
     </row>
-    <row r="887" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="887" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G887" s="5">
         <v>882</v>
       </c>
@@ -29119,7 +29132,7 @@
       <c r="V887" s="6"/>
       <c r="W887" s="5"/>
     </row>
-    <row r="888" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="888" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G888" s="5">
         <v>883</v>
       </c>
@@ -29149,7 +29162,7 @@
       <c r="V888" s="6"/>
       <c r="W888" s="5"/>
     </row>
-    <row r="889" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="889" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G889" s="5">
         <v>884</v>
       </c>
@@ -29179,7 +29192,7 @@
       <c r="V889" s="6"/>
       <c r="W889" s="5"/>
     </row>
-    <row r="890" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="890" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G890" s="5">
         <v>885</v>
       </c>
@@ -29209,7 +29222,7 @@
       <c r="V890" s="6"/>
       <c r="W890" s="5"/>
     </row>
-    <row r="891" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="891" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G891" s="5">
         <v>886</v>
       </c>
@@ -29239,7 +29252,7 @@
       <c r="V891" s="6"/>
       <c r="W891" s="5"/>
     </row>
-    <row r="892" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="892" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G892" s="5">
         <v>887</v>
       </c>
@@ -29269,7 +29282,7 @@
       <c r="V892" s="6"/>
       <c r="W892" s="5"/>
     </row>
-    <row r="893" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="893" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G893" s="5">
         <v>888</v>
       </c>
@@ -29299,7 +29312,7 @@
       <c r="V893" s="6"/>
       <c r="W893" s="5"/>
     </row>
-    <row r="894" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="894" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G894" s="5">
         <v>889</v>
       </c>
@@ -29329,7 +29342,7 @@
       <c r="V894" s="6"/>
       <c r="W894" s="5"/>
     </row>
-    <row r="895" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="895" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G895" s="5">
         <v>890</v>
       </c>
@@ -29359,7 +29372,7 @@
       <c r="V895" s="6"/>
       <c r="W895" s="5"/>
     </row>
-    <row r="896" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="896" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G896" s="5">
         <v>891</v>
       </c>
@@ -29389,7 +29402,7 @@
       <c r="V896" s="6"/>
       <c r="W896" s="5"/>
     </row>
-    <row r="897" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="897" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G897" s="5">
         <v>892</v>
       </c>
@@ -29419,7 +29432,7 @@
       <c r="V897" s="6"/>
       <c r="W897" s="5"/>
     </row>
-    <row r="898" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="898" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G898" s="5">
         <v>893</v>
       </c>
@@ -29449,7 +29462,7 @@
       <c r="V898" s="6"/>
       <c r="W898" s="5"/>
     </row>
-    <row r="899" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="899" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G899" s="5">
         <v>894</v>
       </c>
@@ -29479,7 +29492,7 @@
       <c r="V899" s="6"/>
       <c r="W899" s="5"/>
     </row>
-    <row r="900" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="900" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G900" s="5">
         <v>895</v>
       </c>
@@ -29509,7 +29522,7 @@
       <c r="V900" s="6"/>
       <c r="W900" s="5"/>
     </row>
-    <row r="901" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="901" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G901" s="5">
         <v>896</v>
       </c>
@@ -29539,7 +29552,7 @@
       <c r="V901" s="6"/>
       <c r="W901" s="5"/>
     </row>
-    <row r="902" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="902" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G902" s="5">
         <v>897</v>
       </c>
@@ -29569,7 +29582,7 @@
       <c r="V902" s="6"/>
       <c r="W902" s="5"/>
     </row>
-    <row r="903" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="903" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G903" s="5">
         <v>898</v>
       </c>
@@ -29599,7 +29612,7 @@
       <c r="V903" s="6"/>
       <c r="W903" s="5"/>
     </row>
-    <row r="904" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="904" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G904" s="5">
         <v>899</v>
       </c>
@@ -29629,7 +29642,7 @@
       <c r="V904" s="6"/>
       <c r="W904" s="5"/>
     </row>
-    <row r="905" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="905" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G905" s="5">
         <v>900</v>
       </c>
@@ -29659,7 +29672,7 @@
       <c r="V905" s="6"/>
       <c r="W905" s="5"/>
     </row>
-    <row r="906" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="906" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G906" s="5">
         <v>901</v>
       </c>
@@ -29689,7 +29702,7 @@
       <c r="V906" s="6"/>
       <c r="W906" s="5"/>
     </row>
-    <row r="907" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="907" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G907" s="5">
         <v>902</v>
       </c>
@@ -29719,7 +29732,7 @@
       <c r="V907" s="6"/>
       <c r="W907" s="5"/>
     </row>
-    <row r="908" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="908" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G908" s="5">
         <v>903</v>
       </c>
@@ -29749,7 +29762,7 @@
       <c r="V908" s="6"/>
       <c r="W908" s="5"/>
     </row>
-    <row r="909" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="909" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G909" s="5">
         <v>904</v>
       </c>
@@ -29779,7 +29792,7 @@
       <c r="V909" s="6"/>
       <c r="W909" s="5"/>
     </row>
-    <row r="910" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="910" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G910" s="5">
         <v>905</v>
       </c>
@@ -29809,7 +29822,7 @@
       <c r="V910" s="6"/>
       <c r="W910" s="5"/>
     </row>
-    <row r="911" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="911" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G911" s="5">
         <v>906</v>
       </c>
@@ -29839,7 +29852,7 @@
       <c r="V911" s="6"/>
       <c r="W911" s="5"/>
     </row>
-    <row r="912" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="912" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G912" s="5">
         <v>907</v>
       </c>
@@ -29869,7 +29882,7 @@
       <c r="V912" s="6"/>
       <c r="W912" s="5"/>
     </row>
-    <row r="913" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="913" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G913" s="5">
         <v>908</v>
       </c>
@@ -29899,7 +29912,7 @@
       <c r="V913" s="6"/>
       <c r="W913" s="5"/>
     </row>
-    <row r="914" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="914" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G914" s="5">
         <v>909</v>
       </c>
@@ -29929,7 +29942,7 @@
       <c r="V914" s="6"/>
       <c r="W914" s="5"/>
     </row>
-    <row r="915" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="915" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G915" s="5">
         <v>910</v>
       </c>
@@ -29959,7 +29972,7 @@
       <c r="V915" s="6"/>
       <c r="W915" s="5"/>
     </row>
-    <row r="916" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="916" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G916" s="5">
         <v>911</v>
       </c>
@@ -29989,7 +30002,7 @@
       <c r="V916" s="6"/>
       <c r="W916" s="5"/>
     </row>
-    <row r="917" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="917" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G917" s="5">
         <v>912</v>
       </c>
@@ -30019,7 +30032,7 @@
       <c r="V917" s="6"/>
       <c r="W917" s="5"/>
     </row>
-    <row r="918" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="918" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G918" s="5">
         <v>913</v>
       </c>
@@ -30049,7 +30062,7 @@
       <c r="V918" s="6"/>
       <c r="W918" s="5"/>
     </row>
-    <row r="919" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="919" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G919" s="5">
         <v>914</v>
       </c>
@@ -30079,7 +30092,7 @@
       <c r="V919" s="6"/>
       <c r="W919" s="5"/>
     </row>
-    <row r="920" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="920" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G920" s="5">
         <v>915</v>
       </c>
@@ -30109,7 +30122,7 @@
       <c r="V920" s="6"/>
       <c r="W920" s="5"/>
     </row>
-    <row r="921" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="921" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G921" s="5">
         <v>916</v>
       </c>
@@ -30139,7 +30152,7 @@
       <c r="V921" s="6"/>
       <c r="W921" s="5"/>
     </row>
-    <row r="922" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="922" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G922" s="5">
         <v>917</v>
       </c>
@@ -30169,7 +30182,7 @@
       <c r="V922" s="6"/>
       <c r="W922" s="5"/>
     </row>
-    <row r="923" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="923" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G923" s="5">
         <v>918</v>
       </c>
@@ -30199,7 +30212,7 @@
       <c r="V923" s="6"/>
       <c r="W923" s="5"/>
     </row>
-    <row r="924" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="924" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G924" s="5">
         <v>919</v>
       </c>
@@ -30229,7 +30242,7 @@
       <c r="V924" s="6"/>
       <c r="W924" s="5"/>
     </row>
-    <row r="925" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="925" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G925" s="5">
         <v>920</v>
       </c>
@@ -30259,7 +30272,7 @@
       <c r="V925" s="6"/>
       <c r="W925" s="5"/>
     </row>
-    <row r="926" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="926" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G926" s="5">
         <v>921</v>
       </c>
@@ -30289,7 +30302,7 @@
       <c r="V926" s="6"/>
       <c r="W926" s="5"/>
     </row>
-    <row r="927" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="927" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G927" s="5">
         <v>922</v>
       </c>
@@ -30319,7 +30332,7 @@
       <c r="V927" s="6"/>
       <c r="W927" s="5"/>
     </row>
-    <row r="928" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="928" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G928" s="5">
         <v>923</v>
       </c>
@@ -30349,7 +30362,7 @@
       <c r="V928" s="6"/>
       <c r="W928" s="5"/>
     </row>
-    <row r="929" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="929" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G929" s="5">
         <v>924</v>
       </c>
@@ -30379,7 +30392,7 @@
       <c r="V929" s="6"/>
       <c r="W929" s="5"/>
     </row>
-    <row r="930" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="930" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G930" s="5">
         <v>925</v>
       </c>
@@ -30409,7 +30422,7 @@
       <c r="V930" s="6"/>
       <c r="W930" s="5"/>
     </row>
-    <row r="931" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="931" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G931" s="5">
         <v>926</v>
       </c>
@@ -30439,7 +30452,7 @@
       <c r="V931" s="6"/>
       <c r="W931" s="5"/>
     </row>
-    <row r="932" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="932" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G932" s="5">
         <v>927</v>
       </c>
@@ -30469,7 +30482,7 @@
       <c r="V932" s="6"/>
       <c r="W932" s="5"/>
     </row>
-    <row r="933" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="933" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G933" s="5">
         <v>928</v>
       </c>
@@ -30499,7 +30512,7 @@
       <c r="V933" s="6"/>
       <c r="W933" s="5"/>
     </row>
-    <row r="934" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="934" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G934" s="5">
         <v>929</v>
       </c>
@@ -30529,7 +30542,7 @@
       <c r="V934" s="6"/>
       <c r="W934" s="5"/>
     </row>
-    <row r="935" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="935" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G935" s="5">
         <v>930</v>
       </c>
@@ -30559,7 +30572,7 @@
       <c r="V935" s="6"/>
       <c r="W935" s="5"/>
     </row>
-    <row r="936" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="936" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G936" s="5">
         <v>931</v>
       </c>
@@ -30589,7 +30602,7 @@
       <c r="V936" s="6"/>
       <c r="W936" s="5"/>
     </row>
-    <row r="937" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="937" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G937" s="5">
         <v>932</v>
       </c>
@@ -30619,7 +30632,7 @@
       <c r="V937" s="6"/>
       <c r="W937" s="5"/>
     </row>
-    <row r="938" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="938" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G938" s="5">
         <v>933</v>
       </c>
@@ -30649,7 +30662,7 @@
       <c r="V938" s="6"/>
       <c r="W938" s="5"/>
     </row>
-    <row r="939" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="939" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G939" s="5">
         <v>934</v>
       </c>
@@ -30679,7 +30692,7 @@
       <c r="V939" s="6"/>
       <c r="W939" s="5"/>
     </row>
-    <row r="940" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="940" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G940" s="5">
         <v>935</v>
       </c>
@@ -30709,7 +30722,7 @@
       <c r="V940" s="6"/>
       <c r="W940" s="5"/>
     </row>
-    <row r="941" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="941" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G941" s="5">
         <v>936</v>
       </c>
@@ -30739,7 +30752,7 @@
       <c r="V941" s="6"/>
       <c r="W941" s="5"/>
     </row>
-    <row r="942" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="942" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G942" s="5">
         <v>937</v>
       </c>
@@ -30769,7 +30782,7 @@
       <c r="V942" s="6"/>
       <c r="W942" s="5"/>
     </row>
-    <row r="943" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="943" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G943" s="5">
         <v>938</v>
       </c>
@@ -30799,7 +30812,7 @@
       <c r="V943" s="6"/>
       <c r="W943" s="5"/>
     </row>
-    <row r="944" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="944" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G944" s="5">
         <v>939</v>
       </c>
@@ -30829,7 +30842,7 @@
       <c r="V944" s="6"/>
       <c r="W944" s="5"/>
     </row>
-    <row r="945" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="945" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G945" s="5">
         <v>940</v>
       </c>
@@ -30859,7 +30872,7 @@
       <c r="V945" s="6"/>
       <c r="W945" s="5"/>
     </row>
-    <row r="946" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="946" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G946" s="5">
         <v>941</v>
       </c>
@@ -30889,7 +30902,7 @@
       <c r="V946" s="6"/>
       <c r="W946" s="5"/>
     </row>
-    <row r="947" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="947" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G947" s="5">
         <v>942</v>
       </c>
@@ -30919,7 +30932,7 @@
       <c r="V947" s="6"/>
       <c r="W947" s="5"/>
     </row>
-    <row r="948" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="948" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G948" s="5">
         <v>943</v>
       </c>
@@ -30949,7 +30962,7 @@
       <c r="V948" s="6"/>
       <c r="W948" s="5"/>
     </row>
-    <row r="949" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="949" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G949" s="5">
         <v>944</v>
       </c>
@@ -30979,7 +30992,7 @@
       <c r="V949" s="6"/>
       <c r="W949" s="5"/>
     </row>
-    <row r="950" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="950" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G950" s="5">
         <v>945</v>
       </c>
@@ -31009,7 +31022,7 @@
       <c r="V950" s="6"/>
       <c r="W950" s="5"/>
     </row>
-    <row r="951" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="951" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G951" s="5">
         <v>946</v>
       </c>
@@ -31039,7 +31052,7 @@
       <c r="V951" s="6"/>
       <c r="W951" s="5"/>
     </row>
-    <row r="952" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="952" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G952" s="5">
         <v>947</v>
       </c>
@@ -31069,7 +31082,7 @@
       <c r="V952" s="6"/>
       <c r="W952" s="5"/>
     </row>
-    <row r="953" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="953" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G953" s="5">
         <v>948</v>
       </c>
@@ -31099,7 +31112,7 @@
       <c r="V953" s="6"/>
       <c r="W953" s="5"/>
     </row>
-    <row r="954" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="954" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G954" s="5">
         <v>949</v>
       </c>
@@ -31129,7 +31142,7 @@
       <c r="V954" s="6"/>
       <c r="W954" s="5"/>
     </row>
-    <row r="955" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="955" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G955" s="5">
         <v>950</v>
       </c>
@@ -31159,7 +31172,7 @@
       <c r="V955" s="6"/>
       <c r="W955" s="5"/>
     </row>
-    <row r="956" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="956" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G956" s="5">
         <v>951</v>
       </c>
@@ -31189,7 +31202,7 @@
       <c r="V956" s="6"/>
       <c r="W956" s="5"/>
     </row>
-    <row r="957" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="957" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G957" s="5">
         <v>952</v>
       </c>
@@ -31219,7 +31232,7 @@
       <c r="V957" s="6"/>
       <c r="W957" s="5"/>
     </row>
-    <row r="958" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="958" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G958" s="5">
         <v>953</v>
       </c>
@@ -31249,7 +31262,7 @@
       <c r="V958" s="6"/>
       <c r="W958" s="5"/>
     </row>
-    <row r="959" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="959" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G959" s="5">
         <v>954</v>
       </c>
@@ -31279,7 +31292,7 @@
       <c r="V959" s="6"/>
       <c r="W959" s="5"/>
     </row>
-    <row r="960" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="960" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G960" s="5">
         <v>955</v>
       </c>
@@ -31309,7 +31322,7 @@
       <c r="V960" s="6"/>
       <c r="W960" s="5"/>
     </row>
-    <row r="961" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="961" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G961" s="5">
         <v>956</v>
       </c>
@@ -31339,7 +31352,7 @@
       <c r="V961" s="6"/>
       <c r="W961" s="5"/>
     </row>
-    <row r="962" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="962" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G962" s="5">
         <v>957</v>
       </c>
@@ -31369,7 +31382,7 @@
       <c r="V962" s="6"/>
       <c r="W962" s="5"/>
     </row>
-    <row r="963" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="963" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G963" s="5">
         <v>958</v>
       </c>
@@ -31399,7 +31412,7 @@
       <c r="V963" s="6"/>
       <c r="W963" s="5"/>
     </row>
-    <row r="964" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="964" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G964" s="5">
         <v>959</v>
       </c>
@@ -31429,7 +31442,7 @@
       <c r="V964" s="6"/>
       <c r="W964" s="5"/>
     </row>
-    <row r="965" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="965" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G965" s="5">
         <v>960</v>
       </c>
@@ -31459,7 +31472,7 @@
       <c r="V965" s="6"/>
       <c r="W965" s="5"/>
     </row>
-    <row r="966" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="966" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G966" s="5">
         <v>961</v>
       </c>
@@ -31489,7 +31502,7 @@
       <c r="V966" s="6"/>
       <c r="W966" s="5"/>
     </row>
-    <row r="967" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="967" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G967" s="5">
         <v>962</v>
       </c>
@@ -31519,7 +31532,7 @@
       <c r="V967" s="6"/>
       <c r="W967" s="5"/>
     </row>
-    <row r="968" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="968" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G968" s="5">
         <v>963</v>
       </c>
@@ -31549,7 +31562,7 @@
       <c r="V968" s="6"/>
       <c r="W968" s="5"/>
     </row>
-    <row r="969" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="969" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G969" s="5">
         <v>964</v>
       </c>
@@ -31579,7 +31592,7 @@
       <c r="V969" s="6"/>
       <c r="W969" s="5"/>
     </row>
-    <row r="970" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="970" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G970" s="5">
         <v>965</v>
       </c>
@@ -31609,7 +31622,7 @@
       <c r="V970" s="6"/>
       <c r="W970" s="5"/>
     </row>
-    <row r="971" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="971" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G971" s="5">
         <v>966</v>
       </c>
@@ -31639,7 +31652,7 @@
       <c r="V971" s="6"/>
       <c r="W971" s="5"/>
     </row>
-    <row r="972" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="972" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G972" s="5">
         <v>967</v>
       </c>
@@ -31669,7 +31682,7 @@
       <c r="V972" s="6"/>
       <c r="W972" s="5"/>
     </row>
-    <row r="973" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="973" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G973" s="5">
         <v>968</v>
       </c>
@@ -31699,7 +31712,7 @@
       <c r="V973" s="6"/>
       <c r="W973" s="5"/>
     </row>
-    <row r="974" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="974" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G974" s="5">
         <v>969</v>
       </c>
@@ -31729,7 +31742,7 @@
       <c r="V974" s="6"/>
       <c r="W974" s="5"/>
     </row>
-    <row r="975" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="975" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G975" s="5">
         <v>970</v>
       </c>
@@ -31759,7 +31772,7 @@
       <c r="V975" s="6"/>
       <c r="W975" s="5"/>
     </row>
-    <row r="976" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="976" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G976" s="5">
         <v>971</v>
       </c>
@@ -31789,7 +31802,7 @@
       <c r="V976" s="6"/>
       <c r="W976" s="5"/>
     </row>
-    <row r="977" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="977" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G977" s="5">
         <v>972</v>
       </c>
@@ -31819,7 +31832,7 @@
       <c r="V977" s="6"/>
       <c r="W977" s="5"/>
     </row>
-    <row r="978" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="978" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G978" s="5">
         <v>973</v>
       </c>
@@ -31849,7 +31862,7 @@
       <c r="V978" s="6"/>
       <c r="W978" s="5"/>
     </row>
-    <row r="979" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="979" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G979" s="5">
         <v>974</v>
       </c>
@@ -31879,7 +31892,7 @@
       <c r="V979" s="6"/>
       <c r="W979" s="5"/>
     </row>
-    <row r="980" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="980" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G980" s="5">
         <v>975</v>
       </c>
@@ -31909,7 +31922,7 @@
       <c r="V980" s="6"/>
       <c r="W980" s="5"/>
     </row>
-    <row r="981" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="981" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G981" s="5">
         <v>976</v>
       </c>
@@ -31939,7 +31952,7 @@
       <c r="V981" s="6"/>
       <c r="W981" s="5"/>
     </row>
-    <row r="982" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="982" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G982" s="5">
         <v>977</v>
       </c>
@@ -31969,7 +31982,7 @@
       <c r="V982" s="6"/>
       <c r="W982" s="5"/>
     </row>
-    <row r="983" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="983" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G983" s="5">
         <v>978</v>
       </c>
@@ -31999,7 +32012,7 @@
       <c r="V983" s="6"/>
       <c r="W983" s="5"/>
     </row>
-    <row r="984" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="984" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G984" s="5">
         <v>979</v>
       </c>
@@ -32029,7 +32042,7 @@
       <c r="V984" s="6"/>
       <c r="W984" s="5"/>
     </row>
-    <row r="985" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="985" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G985" s="5">
         <v>980</v>
       </c>
@@ -32059,7 +32072,7 @@
       <c r="V985" s="6"/>
       <c r="W985" s="5"/>
     </row>
-    <row r="986" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="986" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G986" s="5">
         <v>981</v>
       </c>
@@ -32089,7 +32102,7 @@
       <c r="V986" s="6"/>
       <c r="W986" s="5"/>
     </row>
-    <row r="987" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="987" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G987" s="5">
         <v>982</v>
       </c>
@@ -32119,7 +32132,7 @@
       <c r="V987" s="6"/>
       <c r="W987" s="5"/>
     </row>
-    <row r="988" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="988" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G988" s="5">
         <v>983</v>
       </c>
@@ -32149,7 +32162,7 @@
       <c r="V988" s="6"/>
       <c r="W988" s="5"/>
     </row>
-    <row r="989" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="989" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G989" s="5">
         <v>984</v>
       </c>
@@ -32179,7 +32192,7 @@
       <c r="V989" s="6"/>
       <c r="W989" s="5"/>
     </row>
-    <row r="990" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="990" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G990" s="5">
         <v>985</v>
       </c>
@@ -32209,7 +32222,7 @@
       <c r="V990" s="6"/>
       <c r="W990" s="5"/>
     </row>
-    <row r="991" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="991" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G991" s="5">
         <v>986</v>
       </c>
@@ -32239,7 +32252,7 @@
       <c r="V991" s="6"/>
       <c r="W991" s="5"/>
     </row>
-    <row r="992" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="992" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G992" s="5">
         <v>987</v>
       </c>
@@ -32269,7 +32282,7 @@
       <c r="V992" s="6"/>
       <c r="W992" s="5"/>
     </row>
-    <row r="993" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="993" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G993" s="5">
         <v>988</v>
       </c>
@@ -32299,7 +32312,7 @@
       <c r="V993" s="6"/>
       <c r="W993" s="5"/>
     </row>
-    <row r="994" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="994" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G994" s="5">
         <v>989</v>
       </c>
@@ -32329,7 +32342,7 @@
       <c r="V994" s="6"/>
       <c r="W994" s="5"/>
     </row>
-    <row r="995" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="995" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G995" s="5">
         <v>990</v>
       </c>
@@ -32359,7 +32372,7 @@
       <c r="V995" s="6"/>
       <c r="W995" s="5"/>
     </row>
-    <row r="996" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="996" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G996" s="5">
         <v>991</v>
       </c>
@@ -32389,7 +32402,7 @@
       <c r="V996" s="6"/>
       <c r="W996" s="5"/>
     </row>
-    <row r="997" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="997" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G997" s="5">
         <v>992</v>
       </c>
@@ -32419,7 +32432,7 @@
       <c r="V997" s="6"/>
       <c r="W997" s="5"/>
     </row>
-    <row r="998" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="998" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G998" s="5">
         <v>993</v>
       </c>
@@ -32449,7 +32462,7 @@
       <c r="V998" s="6"/>
       <c r="W998" s="5"/>
     </row>
-    <row r="999" spans="7:23" x14ac:dyDescent="0.3">
+    <row r="999" spans="7:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="G999" s="5">
         <v>994</v>
       </c>

--- a/3_Categorisation/Categorie-Methode liste.xlsx
+++ b/3_Categorisation/Categorie-Methode liste.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mathi\Documents\Cours\KIT\11_HK\AD\3_Categorisation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C25A1BB5-F21B-4B86-B685-887DC7A7D7ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{108B9DDD-FB30-4E48-98B5-AC3D0E39BE85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{AE90E999-193C-4C0E-9858-77EC5F42F2A6}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="309">
   <si>
     <t>Parent</t>
   </si>
@@ -1602,11 +1602,11 @@
   <dimension ref="F3:W999"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="11" ySplit="7" topLeftCell="N110" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="11" ySplit="7" topLeftCell="N31" activePane="bottomRight" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
       <selection pane="topRight" activeCell="N1" sqref="N1"/>
       <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
-      <selection pane="bottomRight" activeCell="I136" sqref="I136"/>
+      <selection pane="bottomRight" activeCell="N89" sqref="N89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" zeroHeight="1" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
@@ -4110,13 +4110,19 @@
         <f>IF(Table1[[#This Row],[Children]]=0,"",Table1[[#This Row],[Children]])</f>
         <v/>
       </c>
-      <c r="N70" s="13"/>
+      <c r="N70" s="13">
+        <v>0.8</v>
+      </c>
       <c r="O70" s="5"/>
       <c r="P70" s="5" t="s">
         <v>262</v>
       </c>
-      <c r="Q70" s="5"/>
-      <c r="R70" s="5"/>
+      <c r="Q70" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="R70" s="5" t="s">
+        <v>193</v>
+      </c>
       <c r="S70" s="13"/>
       <c r="T70" s="6" t="s">
         <v>307</v>

--- a/3_Categorisation/Categorie-Methode liste.xlsx
+++ b/3_Categorisation/Categorie-Methode liste.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mathi\Documents\Cours\KIT\11_HK\AD\3_Categorisation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07EC56D7-0C05-44D2-B37C-3CB63C632B14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F00A8C47-3BB1-4BA0-8263-2670BA0E4F71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-1632" windowWidth="23256" windowHeight="13896" xr2:uid="{AE90E999-193C-4C0E-9858-77EC5F42F2A6}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="319">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="321">
   <si>
     <t>Parent</t>
   </si>
@@ -1002,6 +1002,12 @@
   <si>
     <t>HideTex</t>
   </si>
+  <si>
+    <t>Control chart</t>
+  </si>
+  <si>
+    <t>Saleh et al 2021</t>
+  </si>
 </sst>
 </file>
 
@@ -1637,11 +1643,11 @@
   <dimension ref="F3:X999"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="11" ySplit="7" topLeftCell="N10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="11" ySplit="7" topLeftCell="W114" activePane="bottomRight" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
       <selection pane="topRight" activeCell="N1" sqref="N1"/>
       <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
-      <selection pane="bottomRight" activeCell="H20" sqref="H20"/>
+      <selection pane="bottomRight" activeCell="H131" sqref="H131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" zeroHeight="1" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
@@ -1766,11 +1772,11 @@
       </c>
       <c r="L8" s="5">
         <f>COUNTIF($J$8:$J$996,Table1[[#This Row],[Abbreviation]]) + SUMIF($J$8:$J$996,Table1[[#This Row],[Abbreviation]],$L$8:$L$996)</f>
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="M8" s="5">
         <f>IF(Table1[[#This Row],[Children]]=0,"",Table1[[#This Row],[Children]])</f>
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="N8" s="13"/>
       <c r="O8" s="5"/>
@@ -6563,11 +6569,11 @@
       </c>
       <c r="L129" s="5">
         <f>COUNTIF($J$8:$J$996,Table1[[#This Row],[Abbreviation]]) + SUMIF($J$8:$J$996,Table1[[#This Row],[Abbreviation]],$L$8:$L$996)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M129" s="5">
         <f>IF(Table1[[#This Row],[Children]]=0,"",Table1[[#This Row],[Children]])</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N129" s="13"/>
       <c r="O129" s="5"/>
@@ -6587,12 +6593,18 @@
       <c r="G130" s="5">
         <v>128</v>
       </c>
-      <c r="H130" s="6"/>
-      <c r="I130" s="6"/>
-      <c r="J130" s="5"/>
+      <c r="H130" s="6" t="s">
+        <v>319</v>
+      </c>
+      <c r="I130" s="6" t="s">
+        <v>319</v>
+      </c>
+      <c r="J130" s="5" t="s">
+        <v>310</v>
+      </c>
       <c r="K130" s="5">
         <f>IF(J130="",0,_xlfn.XLOOKUP(J130,I$8:I$996,K$8:K$996,-1)+1)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L130" s="5">
         <f>COUNTIF($J$8:$J$996,Table1[[#This Row],[Abbreviation]]) + SUMIF($J$8:$J$996,Table1[[#This Row],[Abbreviation]],$L$8:$L$996)</f>
@@ -6612,7 +6624,9 @@
       <c r="U130" s="6"/>
       <c r="V130" s="6"/>
       <c r="W130" s="6"/>
-      <c r="X130" s="5"/>
+      <c r="X130" s="12" t="s">
+        <v>320</v>
+      </c>
     </row>
     <row r="131" spans="7:24" x14ac:dyDescent="0.3">
       <c r="G131" s="5">
@@ -33506,10 +33520,11 @@
     <hyperlink ref="X111" r:id="rId6" display="https://www.sciencedirect.com/science/article/abs/pii/S0893608023005385" xr:uid="{953EEB6E-7C1A-40C4-8F73-5F1A52609D44}"/>
     <hyperlink ref="X112" r:id="rId7" xr:uid="{4FCA8E0F-199F-4F7B-884F-397BD8AA9C6D}"/>
     <hyperlink ref="X119" r:id="rId8" xr:uid="{8CD25805-D177-45F4-8A5A-DF7DE516863E}"/>
+    <hyperlink ref="X130" r:id="rId9" xr:uid="{B122611E-1977-4632-B666-30CDDAF9A0E8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId9"/>
+    <tablePart r:id="rId10"/>
   </tableParts>
 </worksheet>
 </file>
--- a/3_Categorisation/Categorie-Methode liste.xlsx
+++ b/3_Categorisation/Categorie-Methode liste.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mathi\Documents\Cours\KIT\11_HK\AD\3_Categorisation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F00A8C47-3BB1-4BA0-8263-2670BA0E4F71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{350C2408-10DE-455D-97E6-CA63A58478C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-1632" windowWidth="23256" windowHeight="13896" xr2:uid="{AE90E999-193C-4C0E-9858-77EC5F42F2A6}"/>
   </bookViews>
@@ -1643,11 +1643,11 @@
   <dimension ref="F3:X999"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="11" ySplit="7" topLeftCell="W114" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="11" ySplit="7" topLeftCell="W23" activePane="bottomRight" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
       <selection pane="topRight" activeCell="N1" sqref="N1"/>
       <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
-      <selection pane="bottomRight" activeCell="H131" sqref="H131"/>
+      <selection pane="bottomRight" activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" zeroHeight="1" outlineLevelCol="1" x14ac:dyDescent="0.3"/>

--- a/3_Categorisation/Categorie-Methode liste.xlsx
+++ b/3_Categorisation/Categorie-Methode liste.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mathi\Documents\Cours\KIT\11_HK\AD\3_Categorisation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BFBB4EC-D443-42FC-AAEE-2DDFD5562FA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB05B952-544B-4FBB-92B7-7D39663521A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{AE90E999-193C-4C0E-9858-77EC5F42F2A6}"/>
   </bookViews>
@@ -1642,11 +1642,11 @@
   <dimension ref="F3:X999"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="11" ySplit="7" topLeftCell="N93" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="11" ySplit="7" topLeftCell="N90" activePane="bottomRight" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
       <selection pane="topRight" activeCell="N1" sqref="N1"/>
       <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
-      <selection pane="bottomRight" activeCell="H113" sqref="H113"/>
+      <selection pane="bottomRight" activeCell="H100" sqref="H100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" zeroHeight="1" outlineLevelCol="1" x14ac:dyDescent="0.3"/>

--- a/3_Categorisation/Categorie-Methode liste.xlsx
+++ b/3_Categorisation/Categorie-Methode liste.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mathi\Documents\Cours\KIT\11_HK\AD\3_Categorisation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mathi\Drive\Mon Drive\Documents\Cours\KIT\11_HK\AD\3_Categorisation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB05B952-544B-4FBB-92B7-7D39663521A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCF02BD1-4957-4BC1-80D7-BB7B367DD417}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{AE90E999-193C-4C0E-9858-77EC5F42F2A6}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{AE90E999-193C-4C0E-9858-77EC5F42F2A6}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="323">
   <si>
     <t>Parent</t>
   </si>
@@ -897,9 +897,6 @@
     <t>Shang et al. 2023</t>
   </si>
   <si>
-    <t xml:space="preserve">IAD </t>
-  </si>
-  <si>
     <t>Iterative Anomaly Detection</t>
   </si>
   <si>
@@ -1006,6 +1003,15 @@
   </si>
   <si>
     <t>Adversarial Time-Frequency Reconstruction Network for Unsupervised Anomaly Detection</t>
+  </si>
+  <si>
+    <t>IAD</t>
+  </si>
+  <si>
+    <t>Deep Autoencoding Gaussian Mixture Model</t>
+  </si>
+  <si>
+    <t>Graph learning with Transformer for Anomaly detection</t>
   </si>
 </sst>
 </file>
@@ -1642,11 +1648,11 @@
   <dimension ref="F3:X999"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="11" ySplit="7" topLeftCell="N90" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="11" ySplit="7" topLeftCell="W87" activePane="bottomRight" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
       <selection pane="topRight" activeCell="N1" sqref="N1"/>
       <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
-      <selection pane="bottomRight" activeCell="H100" sqref="H100"/>
+      <selection pane="bottomRight" activeCell="H997" sqref="H997"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" zeroHeight="1" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
@@ -1731,7 +1737,7 @@
         <v>253</v>
       </c>
       <c r="Q7" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="R7" s="4" t="s">
         <v>234</v>
@@ -1909,10 +1915,10 @@
         <v>3</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I12" s="6" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="J12" s="5" t="s">
         <v>1</v>
@@ -1937,7 +1943,7 @@
       <c r="S12" s="5"/>
       <c r="T12" s="13"/>
       <c r="U12" s="6" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="V12" s="6"/>
       <c r="W12" s="6"/>
@@ -2040,7 +2046,7 @@
         <v>195</v>
       </c>
       <c r="J15" s="5" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="K15" s="5">
         <f t="shared" si="0"/>
@@ -2282,7 +2288,7 @@
         <v>31</v>
       </c>
       <c r="J21" s="5" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="K21" s="5">
         <f t="shared" si="0"/>
@@ -2360,7 +2366,7 @@
         <v>28</v>
       </c>
       <c r="J23" s="5" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="K23" s="5">
         <f t="shared" si="0"/>
@@ -2399,7 +2405,7 @@
         <v>100</v>
       </c>
       <c r="J24" s="5" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="K24" s="5">
         <f t="shared" si="0"/>
@@ -2836,7 +2842,7 @@
         <v>38</v>
       </c>
       <c r="J35" s="5" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="K35" s="5">
         <f t="shared" si="0"/>
@@ -2914,7 +2920,7 @@
         <v>44</v>
       </c>
       <c r="J37" s="5" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="K37" s="5">
         <f t="shared" si="0"/>
@@ -2953,7 +2959,7 @@
         <v>51</v>
       </c>
       <c r="J38" s="5" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="K38" s="5">
         <f t="shared" si="0"/>
@@ -3495,7 +3501,7 @@
         <v>83</v>
       </c>
       <c r="J52" s="5" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="K52" s="5">
         <f t="shared" si="0"/>
@@ -3842,7 +3848,7 @@
         <v>101</v>
       </c>
       <c r="J61" s="5" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="K61" s="5">
         <f t="shared" si="0"/>
@@ -3875,13 +3881,13 @@
         <v>56</v>
       </c>
       <c r="H62" s="6" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="I62" s="6" t="s">
         <v>108</v>
       </c>
       <c r="J62" s="5" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="K62" s="5">
         <f t="shared" si="0"/>
@@ -3911,12 +3917,12 @@
       </c>
       <c r="T62" s="13"/>
       <c r="U62" s="6" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="V62" s="6"/>
       <c r="W62" s="6"/>
       <c r="X62" s="5" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="63" spans="7:24" x14ac:dyDescent="0.3">
@@ -4457,7 +4463,9 @@
       <c r="G77" s="5">
         <v>72</v>
       </c>
-      <c r="H77" s="6"/>
+      <c r="H77" s="6" t="s">
+        <v>321</v>
+      </c>
       <c r="I77" s="6" t="s">
         <v>139</v>
       </c>
@@ -4681,7 +4689,7 @@
         <v>149</v>
       </c>
       <c r="J82" s="5" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="K82" s="5">
         <f t="shared" si="1"/>
@@ -4716,10 +4724,10 @@
         <v>79</v>
       </c>
       <c r="H83" s="6" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="I83" s="6" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="J83" s="5" t="s">
         <v>149</v>
@@ -4744,7 +4752,7 @@
       <c r="S83" s="5"/>
       <c r="T83" s="13"/>
       <c r="U83" s="6" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="V83" s="6"/>
       <c r="W83" s="6"/>
@@ -4757,10 +4765,10 @@
         <v>80</v>
       </c>
       <c r="H84" s="6" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="I84" s="6" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="J84" s="5" t="s">
         <v>149</v>
@@ -4869,12 +4877,14 @@
       <c r="G87" s="5">
         <v>84</v>
       </c>
-      <c r="H87" s="6"/>
+      <c r="H87" s="6" t="s">
+        <v>322</v>
+      </c>
       <c r="I87" s="6" t="s">
         <v>155</v>
       </c>
       <c r="J87" s="5" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="K87" s="5">
         <f t="shared" si="1"/>
@@ -5205,7 +5215,7 @@
       <c r="V95" s="6"/>
       <c r="W95" s="6"/>
       <c r="X95" s="5" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="96" spans="7:24" x14ac:dyDescent="0.3">
@@ -5707,7 +5717,7 @@
         <v>105</v>
       </c>
       <c r="H108" s="6" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="I108" s="6" t="s">
         <v>213</v>
@@ -5753,7 +5763,7 @@
         <v>215</v>
       </c>
       <c r="I109" s="6" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="J109" s="5" t="s">
         <v>101</v>
@@ -5791,7 +5801,7 @@
         <v>107</v>
       </c>
       <c r="H110" s="6" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="I110" s="6" t="s">
         <v>217</v>
@@ -5875,7 +5885,7 @@
         <v>109</v>
       </c>
       <c r="H112" s="6" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="I112" s="6" t="s">
         <v>222</v>
@@ -6341,10 +6351,10 @@
         <v>122</v>
       </c>
       <c r="H124" s="6" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="I124" s="6" t="s">
-        <v>284</v>
+        <v>320</v>
       </c>
       <c r="J124" s="5" t="s">
         <v>278</v>
@@ -6373,7 +6383,7 @@
         <v>0.3</v>
       </c>
       <c r="U124" s="6" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="V124" s="6"/>
       <c r="W124" s="6"/>
@@ -6384,10 +6394,10 @@
         <v>123</v>
       </c>
       <c r="H125" s="6" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="I125" s="6" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="J125" s="5" t="s">
         <v>12</v>
@@ -6412,13 +6422,13 @@
         <v>235</v>
       </c>
       <c r="S125" s="5" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="T125" s="13">
         <v>0.26800000000000002</v>
       </c>
       <c r="U125" s="6" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="V125" s="6"/>
       <c r="W125" s="6"/>
@@ -6429,10 +6439,10 @@
         <v>124</v>
       </c>
       <c r="H126" s="6" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="I126" s="6" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="J126" s="5" t="s">
         <v>12</v>
@@ -6459,7 +6469,7 @@
         <v>0.2</v>
       </c>
       <c r="U126" s="6" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="V126" s="6"/>
       <c r="W126" s="6"/>
@@ -6470,10 +6480,10 @@
         <v>125</v>
       </c>
       <c r="H127" s="6" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="I127" s="6" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="J127" s="5" t="s">
         <v>195</v>
@@ -6504,12 +6514,12 @@
       </c>
       <c r="T127" s="13"/>
       <c r="U127" s="6" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="V127" s="6"/>
       <c r="W127" s="6"/>
       <c r="X127" s="5" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="128" spans="7:24" x14ac:dyDescent="0.3">
@@ -6517,10 +6527,10 @@
         <v>126</v>
       </c>
       <c r="H128" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="I128" s="6" t="s">
         <v>311</v>
-      </c>
-      <c r="I128" s="6" t="s">
-        <v>312</v>
       </c>
       <c r="J128" s="5" t="s">
         <v>277</v>
@@ -6554,10 +6564,10 @@
         <v>120</v>
       </c>
       <c r="H129" s="6" t="s">
+        <v>305</v>
+      </c>
+      <c r="I129" s="6" t="s">
         <v>306</v>
-      </c>
-      <c r="I129" s="6" t="s">
-        <v>307</v>
       </c>
       <c r="J129" s="5" t="s">
         <v>1</v>
@@ -6582,7 +6592,7 @@
       <c r="S129" s="5"/>
       <c r="T129" s="13"/>
       <c r="U129" s="6" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="V129" s="6"/>
       <c r="W129" s="6"/>
@@ -6593,13 +6603,13 @@
         <v>128</v>
       </c>
       <c r="H130" s="6" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="I130" s="6" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="J130" s="5" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="K130" s="5">
         <f t="shared" si="1"/>
@@ -6624,7 +6634,7 @@
       <c r="V130" s="6"/>
       <c r="W130" s="6"/>
       <c r="X130" s="12" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="131" spans="7:24" x14ac:dyDescent="0.3">
@@ -32613,7 +32623,7 @@
       <c r="I969" s="6"/>
       <c r="J969" s="5"/>
       <c r="K969" s="5">
-        <f t="shared" ref="K969:K1032" si="15">IF(J969="",0,_xlfn.XLOOKUP(J969,I$8:I$996,K$8:K$996,-1)+1)</f>
+        <f t="shared" ref="K969:K996" si="15">IF(J969="",0,_xlfn.XLOOKUP(J969,I$8:I$996,K$8:K$996,-1)+1)</f>
         <v>0</v>
       </c>
       <c r="L969" s="5">
